--- a/results/compare-color.xlsx
+++ b/results/compare-color.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyWork\SimpleNetBenchmark\SimpleNetBenchmark\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FF39EC-2A8C-4352-91CC-D1E237C32269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7F57F7-B013-44DA-8493-8ECEC80A8816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28470" windowHeight="14595" tabRatio="756" activeTab="6" xr2:uid="{6D5D6AF7-C440-418D-AE3B-EB5F9AC8D2BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28470" windowHeight="14610" tabRatio="756" activeTab="6" xr2:uid="{6D5D6AF7-C440-418D-AE3B-EB5F9AC8D2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="js-transpose" sheetId="13" r:id="rId1"/>
@@ -42,7 +42,6 @@
     <definedName name="ExternalData_4" localSheetId="4" hidden="1">'python-transpose'!$A$2:$N$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="211">
   <si>
     <t>Cpu</t>
   </si>
@@ -726,6 +725,15 @@
   <si>
     <t>Single threaded Slower than Core i7 2600</t>
   </si>
+  <si>
+    <t>Slower than Core i7 2600 with same freq</t>
+  </si>
+  <si>
+    <t>Single threaded Slower than Core i7 2600 same freq</t>
+  </si>
+  <si>
+    <t>Slower than Core i7 2600 same freq</t>
+  </si>
 </sst>
 </file>
 
@@ -734,8 +742,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -868,7 +876,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -910,11 +918,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -929,17 +935,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,6 +951,18 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -959,40 +971,7 @@
   </cellStyles>
   <dxfs count="173">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1166,7 +1145,22 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1377,6 +1371,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4245,7 +4257,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -10129,7 +10141,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>15847</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>151802</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10364,10 +10376,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10749,12 +10757,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{70B3545B-2D35-4A88-8D16-80EE29D85B5E}" name="lua" displayName="lua" ref="A1:T16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:T16" xr:uid="{74CED8AF-8815-4BD8-9407-0B0207FA0FEE}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{601F4DF0-18DD-40B4-99F1-FB55A7A00AF0}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{0454B43A-DAD6-496C-AA49-4C834F7144B8}" uniqueName="2" name="Architecture" queryTableFieldId="2" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{28AAC64D-5193-4C2E-A79D-377F72E0DA8C}" uniqueName="3" name="Frequency (MHz)" queryTableFieldId="3" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{D6076484-057F-439D-A510-CB694043CE06}" uniqueName="4" name="Operating System" queryTableFieldId="4" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{3C5BA69E-2AB4-4873-B09E-AFFB83793624}" uniqueName="5" name="Runtime" queryTableFieldId="5" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{E0E7C3F5-A846-4E7F-9CB2-3A152F65ABE2}" uniqueName="6" name="Threads Count" queryTableFieldId="6" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{601F4DF0-18DD-40B4-99F1-FB55A7A00AF0}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{0454B43A-DAD6-496C-AA49-4C834F7144B8}" uniqueName="2" name="Architecture" queryTableFieldId="2" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{28AAC64D-5193-4C2E-A79D-377F72E0DA8C}" uniqueName="3" name="Frequency (MHz)" queryTableFieldId="3" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{D6076484-057F-439D-A510-CB694043CE06}" uniqueName="4" name="Operating System" queryTableFieldId="4" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{3C5BA69E-2AB4-4873-B09E-AFFB83793624}" uniqueName="5" name="Runtime" queryTableFieldId="5" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{E0E7C3F5-A846-4E7F-9CB2-3A152F65ABE2}" uniqueName="6" name="Threads Count" queryTableFieldId="6" dataDxfId="32"/>
     <tableColumn id="7" xr3:uid="{6D34E652-ACA8-40B2-9409-C1D512541903}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9A85CF28-23EB-44C2-A0A7-5596A043A66A}" uniqueName="8" name="MathBenchmark (Iter/s)" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{F45FD42B-D5A5-4349-AECC-EE53B59E39D8}" uniqueName="9" name="CallBenchmark (Iter/s)" queryTableFieldId="9"/>
@@ -10802,38 +10810,38 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C8CC26AC-580E-499D-BCEA-76641BBE97E5}" name="dotnet" displayName="dotnet" ref="A1:AG16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AG16" xr:uid="{F0C8A6DF-5C96-45F0-AE3A-B75C974674C7}"/>
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{F2AE1A27-78FA-4F9D-98F5-8B1E9E371B4A}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{2A0FA3EF-7053-47AC-A516-E533D71EBE68}" uniqueName="2" name="Architecture" queryTableFieldId="33" dataDxfId="62"/>
-    <tableColumn id="32" xr3:uid="{C13612D8-8689-45A6-A1A2-19F35063EB4D}" uniqueName="32" name="Frequency (MHz)" queryTableFieldId="34" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{21D8D8A4-F90C-467B-ABA8-71AB58111F15}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{D9F0F554-802F-4103-89AC-2240E8CF9E37}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{439658BB-929E-41B8-9820-E085070E2E10}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{B90E7137-711D-4CDB-AD6F-5C306798B833}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{FD0B73CB-8BE9-4EA4-9528-5BAC5BF7036D}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{6E23F401-96AE-4BE7-BC67-529D7E2C606D}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{16DCBD17-32C8-455E-A4A5-A1B64591D84C}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{463372DD-3AAE-4F46-A006-EAAC2AE31A50}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="53"/>
-    <tableColumn id="11" xr3:uid="{8406D654-20F9-4B19-9502-1557175739FE}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="52"/>
-    <tableColumn id="12" xr3:uid="{0FDE5C79-084E-4702-993B-44A779D8639E}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="51"/>
-    <tableColumn id="13" xr3:uid="{9728B219-1E75-47D9-AD1B-6BD6D39A9ACD}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="50"/>
-    <tableColumn id="14" xr3:uid="{A6EE0E61-00E6-47C8-80FD-243884465CD1}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="49"/>
-    <tableColumn id="15" xr3:uid="{5D93B34E-26E7-4381-B562-5E1954DB8295}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="48"/>
-    <tableColumn id="16" xr3:uid="{4C1ABBB4-4D49-4D2A-A3DE-E53562B8D4D4}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="47"/>
-    <tableColumn id="17" xr3:uid="{7525ADFF-7CF4-40B9-9242-261C499B9DE2}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="46"/>
-    <tableColumn id="18" xr3:uid="{74F0D8A0-0D18-4447-817F-528AFB144081}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="45"/>
-    <tableColumn id="19" xr3:uid="{A407E0B3-32C4-442D-8E56-3110608E35B6}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="44"/>
-    <tableColumn id="20" xr3:uid="{70FCF7D3-D5E1-41B7-A26F-C858C8496267}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="43"/>
-    <tableColumn id="21" xr3:uid="{C08703D3-CB6F-455F-8BD4-1E5C1606619A}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="42"/>
-    <tableColumn id="22" xr3:uid="{8FBD4D69-DCB1-4A21-AD2F-0FCAD1697E96}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="41"/>
-    <tableColumn id="23" xr3:uid="{8F1BAADC-B3BB-42C4-B179-2111F536C9A8}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="40"/>
-    <tableColumn id="24" xr3:uid="{3BBDE142-E60A-4296-9D9A-467C1CE7F85D}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="39"/>
-    <tableColumn id="25" xr3:uid="{D181DDDB-171A-4847-A610-135BCF84E55E}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="38"/>
-    <tableColumn id="26" xr3:uid="{FDF2B15D-8669-407D-B532-0B9D19202972}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="37"/>
-    <tableColumn id="27" xr3:uid="{99C03734-75D7-408F-B0B2-BD5B969F81D1}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="36"/>
-    <tableColumn id="28" xr3:uid="{EBE02E9F-44EE-4A92-9602-7CEADAE490A7}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="35"/>
-    <tableColumn id="29" xr3:uid="{06682450-69A6-465D-B163-6F0305112F59}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="34"/>
-    <tableColumn id="30" xr3:uid="{21DD5B0D-A893-470E-8929-54574789755A}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="33"/>
-    <tableColumn id="31" xr3:uid="{F1DD6A7F-D083-462A-B21B-A47CD44B7DB1}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{F2AE1A27-78FA-4F9D-98F5-8B1E9E371B4A}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{2A0FA3EF-7053-47AC-A516-E533D71EBE68}" uniqueName="2" name="Architecture" queryTableFieldId="33" dataDxfId="30"/>
+    <tableColumn id="32" xr3:uid="{C13612D8-8689-45A6-A1A2-19F35063EB4D}" uniqueName="32" name="Frequency (MHz)" queryTableFieldId="34" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{21D8D8A4-F90C-467B-ABA8-71AB58111F15}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{D9F0F554-802F-4103-89AC-2240E8CF9E37}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{439658BB-929E-41B8-9820-E085070E2E10}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{B90E7137-711D-4CDB-AD6F-5C306798B833}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{FD0B73CB-8BE9-4EA4-9528-5BAC5BF7036D}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{6E23F401-96AE-4BE7-BC67-529D7E2C606D}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{16DCBD17-32C8-455E-A4A5-A1B64591D84C}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{463372DD-3AAE-4F46-A006-EAAC2AE31A50}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{8406D654-20F9-4B19-9502-1557175739FE}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{0FDE5C79-084E-4702-993B-44A779D8639E}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{9728B219-1E75-47D9-AD1B-6BD6D39A9ACD}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{A6EE0E61-00E6-47C8-80FD-243884465CD1}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{5D93B34E-26E7-4381-B562-5E1954DB8295}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{4C1ABBB4-4D49-4D2A-A3DE-E53562B8D4D4}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{7525ADFF-7CF4-40B9-9242-261C499B9DE2}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{74F0D8A0-0D18-4447-817F-528AFB144081}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{A407E0B3-32C4-442D-8E56-3110608E35B6}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{70FCF7D3-D5E1-41B7-A26F-C858C8496267}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{C08703D3-CB6F-455F-8BD4-1E5C1606619A}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{8FBD4D69-DCB1-4A21-AD2F-0FCAD1697E96}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{8F1BAADC-B3BB-42C4-B179-2111F536C9A8}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{3BBDE142-E60A-4296-9D9A-467C1CE7F85D}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{D181DDDB-171A-4847-A610-135BCF84E55E}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{FDF2B15D-8669-407D-B532-0B9D19202972}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{99C03734-75D7-408F-B0B2-BD5B969F81D1}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="4"/>
+    <tableColumn id="28" xr3:uid="{EBE02E9F-44EE-4A92-9602-7CEADAE490A7}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{06682450-69A6-465D-B163-6F0305112F59}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="2"/>
+    <tableColumn id="30" xr3:uid="{21DD5B0D-A893-470E-8929-54574789755A}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{F1DD6A7F-D083-462A-B21B-A47CD44B7DB1}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="0"/>
     <tableColumn id="33" xr3:uid="{080583BA-6376-4A9B-A86F-85671A36CE58}" uniqueName="33" name="Total Time (ms)" queryTableFieldId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10901,12 +10909,12 @@
     <tableColumn id="15" xr3:uid="{B3DBDF77-7573-40AE-B39D-4F3C9447C286}" uniqueName="15" name="Elbrus 8C 1300" queryTableFieldId="18"/>
     <tableColumn id="16" xr3:uid="{CE15D0E7-9C42-4702-BDDB-69728973EA63}" uniqueName="16" name="Elbrus 8C 1200 (4 cpu)" queryTableFieldId="19"/>
     <tableColumn id="17" xr3:uid="{C5741D52-58D9-4D92-AC45-56D0C1E1B4BC}" uniqueName="17" name="Elbrus 8CB 1550" queryTableFieldId="20"/>
-    <tableColumn id="5" xr3:uid="{C3F11301-0E48-44E0-BF04-47E143A3650B}" uniqueName="5" name="Allwinner A64" queryTableFieldId="5" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{17025DBB-4142-41F1-9671-434CBDDD4A15}" uniqueName="12" name="Intel Pentium 4 2800" queryTableFieldId="14" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{317325B9-83E1-4B8B-877C-54E6B87139EB}" uniqueName="6" name="Intel Atom X5 Z8350" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B8289E0E-ED9B-41CF-A2F5-D722CCA017D4}" uniqueName="7" name="Intel Core i3 M330" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{E2645244-4077-431E-A407-DEB149FA48F7}" uniqueName="8" name="Amd A6 3650" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{E26EB1E9-7D5A-48E6-ADDC-011820B10453}" uniqueName="9" name="Intel Core i7 2600" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{C3F11301-0E48-44E0-BF04-47E143A3650B}" uniqueName="5" name="Allwinner A64" queryTableFieldId="5" dataDxfId="139"/>
+    <tableColumn id="12" xr3:uid="{17025DBB-4142-41F1-9671-434CBDDD4A15}" uniqueName="12" name="Intel Pentium 4 2800" queryTableFieldId="14" dataDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{317325B9-83E1-4B8B-877C-54E6B87139EB}" uniqueName="6" name="Intel Atom X5 Z8350" queryTableFieldId="6" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{B8289E0E-ED9B-41CF-A2F5-D722CCA017D4}" uniqueName="7" name="Intel Core i3 M330" queryTableFieldId="7" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{E2645244-4077-431E-A407-DEB149FA48F7}" uniqueName="8" name="Amd A6 3650" queryTableFieldId="8" dataDxfId="135"/>
+    <tableColumn id="9" xr3:uid="{E26EB1E9-7D5A-48E6-ADDC-011820B10453}" uniqueName="9" name="Intel Core i7 2600" queryTableFieldId="9" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10916,39 +10924,39 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{781D1473-7D90-4B56-8BA5-AB3537A3D378}" name="java" displayName="java" ref="A1:AG12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AG12" xr:uid="{D0F80230-1A9C-40AD-81A4-B8DB6F5ED3B2}"/>
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{E0609799-4A3F-40DA-B43C-045264126CC3}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="139"/>
-    <tableColumn id="33" xr3:uid="{3538615A-D028-4FCA-A940-2AC87B448A8A}" uniqueName="33" name="Architecture" queryTableFieldId="33" dataDxfId="138"/>
-    <tableColumn id="34" xr3:uid="{329EB196-432C-46A5-B354-1759B313F77D}" uniqueName="34" name="Frequency (MHz)" queryTableFieldId="35" dataDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{3AD09F36-0CDB-4A9B-8CA4-B877EB89711E}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="136"/>
-    <tableColumn id="4" xr3:uid="{E06D317C-1EA7-4C45-B3F6-CFCC93F75BF0}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{A0753479-486B-4CCC-BEDF-9A76175BDF37}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="134"/>
-    <tableColumn id="6" xr3:uid="{1062FF48-7E3A-4678-A499-524C8DE3A8BB}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="133"/>
-    <tableColumn id="7" xr3:uid="{C7500052-0EFD-4D26-A906-8C35DEBD7D6C}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="132"/>
-    <tableColumn id="8" xr3:uid="{8FE86DCC-B526-4B8D-A8B3-6FD696C0F7CE}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="131"/>
-    <tableColumn id="9" xr3:uid="{C758C3BD-041D-4BD4-8A1A-44E72A2D9264}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="130"/>
-    <tableColumn id="10" xr3:uid="{FE06B681-E28A-4798-B03B-5151A0B2C709}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="129"/>
-    <tableColumn id="11" xr3:uid="{EC40D492-FB97-47D1-9B7C-8B99081944B0}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="128"/>
-    <tableColumn id="12" xr3:uid="{FED51D4D-3C31-4DDB-B29C-71E9BEA9FA42}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="127"/>
-    <tableColumn id="13" xr3:uid="{3E3EFAA0-9D29-47BA-BC7A-7B7890CA3BBE}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="126"/>
-    <tableColumn id="14" xr3:uid="{CB856013-30B7-42EE-929D-FD75AE1FC2D0}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="125"/>
-    <tableColumn id="15" xr3:uid="{FEBFC30B-5787-4CA4-9F50-AAAA2E30066D}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="124"/>
-    <tableColumn id="16" xr3:uid="{8F210294-6CEC-4A81-803B-E05109782FCB}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="123"/>
-    <tableColumn id="17" xr3:uid="{C081F7B8-54F9-4BCC-ACDD-38ADC45E99B7}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="122"/>
-    <tableColumn id="18" xr3:uid="{CC38F4A6-5600-49A1-A63A-29256DAC5B21}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="121"/>
-    <tableColumn id="19" xr3:uid="{C3841642-5995-4D66-BF73-5C4251970B42}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="120"/>
-    <tableColumn id="20" xr3:uid="{F39C05B3-E4A6-407F-BEE8-75731F66CD21}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="119"/>
-    <tableColumn id="21" xr3:uid="{9E221172-DE44-4602-8835-8742FE9A122E}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="118"/>
-    <tableColumn id="22" xr3:uid="{D3BAAFFE-3E1F-473D-9655-1ABE18CB4AE7}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="117"/>
-    <tableColumn id="23" xr3:uid="{E665C219-13F4-4AB1-A111-6C380496CBB5}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="116"/>
-    <tableColumn id="24" xr3:uid="{7C4B6181-6188-4708-AB88-D28893B3CE2C}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="115"/>
-    <tableColumn id="25" xr3:uid="{EE6BCC66-C7D3-4D4C-B66B-DBA0FF6D3FBF}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="114"/>
-    <tableColumn id="26" xr3:uid="{CE692E45-2FDC-4C03-825B-8DEE5F6F241A}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="113"/>
-    <tableColumn id="27" xr3:uid="{68169F73-8FA8-4810-B873-988D6B5C96E9}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="112"/>
-    <tableColumn id="28" xr3:uid="{60B647AE-5AE6-4956-91A0-C0F7B0DF576C}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="111"/>
-    <tableColumn id="29" xr3:uid="{6586F2F8-657B-4946-BE58-3B990E4F08C3}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="110"/>
-    <tableColumn id="30" xr3:uid="{6589D025-16DD-4080-989E-D1F63A6A38C5}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="109"/>
-    <tableColumn id="31" xr3:uid="{5913099E-E5CD-4B3B-BDCE-901CD125B8FE}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="108"/>
-    <tableColumn id="32" xr3:uid="{4EA0ADCB-BCC4-4485-BDF1-1E92E23E5366}" uniqueName="32" name="Total Time (ms)" queryTableFieldId="32" dataDxfId="107"/>
+    <tableColumn id="1" xr3:uid="{E0609799-4A3F-40DA-B43C-045264126CC3}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="133"/>
+    <tableColumn id="33" xr3:uid="{3538615A-D028-4FCA-A940-2AC87B448A8A}" uniqueName="33" name="Architecture" queryTableFieldId="33" dataDxfId="132"/>
+    <tableColumn id="34" xr3:uid="{329EB196-432C-46A5-B354-1759B313F77D}" uniqueName="34" name="Frequency (MHz)" queryTableFieldId="35" dataDxfId="131"/>
+    <tableColumn id="3" xr3:uid="{3AD09F36-0CDB-4A9B-8CA4-B877EB89711E}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{E06D317C-1EA7-4C45-B3F6-CFCC93F75BF0}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{A0753479-486B-4CCC-BEDF-9A76175BDF37}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="128"/>
+    <tableColumn id="6" xr3:uid="{1062FF48-7E3A-4678-A499-524C8DE3A8BB}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="127"/>
+    <tableColumn id="7" xr3:uid="{C7500052-0EFD-4D26-A906-8C35DEBD7D6C}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="126"/>
+    <tableColumn id="8" xr3:uid="{8FE86DCC-B526-4B8D-A8B3-6FD696C0F7CE}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="125"/>
+    <tableColumn id="9" xr3:uid="{C758C3BD-041D-4BD4-8A1A-44E72A2D9264}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="124"/>
+    <tableColumn id="10" xr3:uid="{FE06B681-E28A-4798-B03B-5151A0B2C709}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="123"/>
+    <tableColumn id="11" xr3:uid="{EC40D492-FB97-47D1-9B7C-8B99081944B0}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="122"/>
+    <tableColumn id="12" xr3:uid="{FED51D4D-3C31-4DDB-B29C-71E9BEA9FA42}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="121"/>
+    <tableColumn id="13" xr3:uid="{3E3EFAA0-9D29-47BA-BC7A-7B7890CA3BBE}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="120"/>
+    <tableColumn id="14" xr3:uid="{CB856013-30B7-42EE-929D-FD75AE1FC2D0}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="119"/>
+    <tableColumn id="15" xr3:uid="{FEBFC30B-5787-4CA4-9F50-AAAA2E30066D}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="118"/>
+    <tableColumn id="16" xr3:uid="{8F210294-6CEC-4A81-803B-E05109782FCB}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="117"/>
+    <tableColumn id="17" xr3:uid="{C081F7B8-54F9-4BCC-ACDD-38ADC45E99B7}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="116"/>
+    <tableColumn id="18" xr3:uid="{CC38F4A6-5600-49A1-A63A-29256DAC5B21}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="115"/>
+    <tableColumn id="19" xr3:uid="{C3841642-5995-4D66-BF73-5C4251970B42}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="114"/>
+    <tableColumn id="20" xr3:uid="{F39C05B3-E4A6-407F-BEE8-75731F66CD21}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="113"/>
+    <tableColumn id="21" xr3:uid="{9E221172-DE44-4602-8835-8742FE9A122E}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="112"/>
+    <tableColumn id="22" xr3:uid="{D3BAAFFE-3E1F-473D-9655-1ABE18CB4AE7}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="111"/>
+    <tableColumn id="23" xr3:uid="{E665C219-13F4-4AB1-A111-6C380496CBB5}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="110"/>
+    <tableColumn id="24" xr3:uid="{7C4B6181-6188-4708-AB88-D28893B3CE2C}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="109"/>
+    <tableColumn id="25" xr3:uid="{EE6BCC66-C7D3-4D4C-B66B-DBA0FF6D3FBF}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="108"/>
+    <tableColumn id="26" xr3:uid="{CE692E45-2FDC-4C03-825B-8DEE5F6F241A}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="107"/>
+    <tableColumn id="27" xr3:uid="{68169F73-8FA8-4810-B873-988D6B5C96E9}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="106"/>
+    <tableColumn id="28" xr3:uid="{60B647AE-5AE6-4956-91A0-C0F7B0DF576C}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="105"/>
+    <tableColumn id="29" xr3:uid="{6586F2F8-657B-4946-BE58-3B990E4F08C3}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="104"/>
+    <tableColumn id="30" xr3:uid="{6589D025-16DD-4080-989E-D1F63A6A38C5}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="103"/>
+    <tableColumn id="31" xr3:uid="{5913099E-E5CD-4B3B-BDCE-901CD125B8FE}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="102"/>
+    <tableColumn id="32" xr3:uid="{4EA0ADCB-BCC4-4485-BDF1-1E92E23E5366}" uniqueName="32" name="Total Time (ms)" queryTableFieldId="32" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10965,12 +10973,12 @@
     <tableColumn id="19" xr3:uid="{1F7CF20D-546D-48AA-859A-E5976ED00FA1}" uniqueName="19" name="Elbrus 8C RTC 1200 (4 cpu)" queryTableFieldId="30"/>
     <tableColumn id="20" xr3:uid="{414D22A7-39CF-43BF-9951-426F1E592618}" uniqueName="20" name="Elbrus 8CB 1550" queryTableFieldId="31"/>
     <tableColumn id="21" xr3:uid="{E2F76127-062A-48B3-8297-33C9036150D7}" uniqueName="21" name="Elbrus 8CB RTC 1550" queryTableFieldId="32"/>
-    <tableColumn id="4" xr3:uid="{BE5B609A-C63D-4782-8ED6-3EDC1078B14E}" uniqueName="4" name="Allwinner A64" queryTableFieldId="4" dataDxfId="106"/>
-    <tableColumn id="5" xr3:uid="{AF2296F4-B42F-4F4E-A10A-5EE2A87C6C04}" uniqueName="5" name="Qualcomm 625" queryTableFieldId="5" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{BE5B609A-C63D-4782-8ED6-3EDC1078B14E}" uniqueName="4" name="Allwinner A64" queryTableFieldId="4" dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{AF2296F4-B42F-4F4E-A10A-5EE2A87C6C04}" uniqueName="5" name="Qualcomm 625" queryTableFieldId="5" dataDxfId="99"/>
     <tableColumn id="14" xr3:uid="{6EAA2227-91CA-48EC-B5A5-506FE8827B1E}" uniqueName="14" name="Pentium 4 2800" queryTableFieldId="22"/>
-    <tableColumn id="6" xr3:uid="{4E2177AA-50A7-47E7-9104-315AB2A72157}" uniqueName="6" name="Amd A6 3650" queryTableFieldId="6" dataDxfId="104"/>
-    <tableColumn id="12" xr3:uid="{58B5D1B4-840F-4A84-B434-254D6CC4358A}" uniqueName="12" name="Intel Core i7 2600" queryTableFieldId="15" dataDxfId="103"/>
-    <tableColumn id="13" xr3:uid="{81181CD8-992F-410F-BAAC-D6DE50EA9D8C}" uniqueName="13" name="Intel Core i5 5257u" queryTableFieldId="16" dataDxfId="102"/>
+    <tableColumn id="6" xr3:uid="{4E2177AA-50A7-47E7-9104-315AB2A72157}" uniqueName="6" name="Amd A6 3650" queryTableFieldId="6" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{58B5D1B4-840F-4A84-B434-254D6CC4358A}" uniqueName="12" name="Intel Core i7 2600" queryTableFieldId="15" dataDxfId="97"/>
+    <tableColumn id="13" xr3:uid="{81181CD8-992F-410F-BAAC-D6DE50EA9D8C}" uniqueName="13" name="Intel Core i5 5257u" queryTableFieldId="16" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10980,38 +10988,38 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79315AD2-9F08-46D2-9617-5CCA470ECEA7}" name="python" displayName="python" ref="A1:AF14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AF14" xr:uid="{AAF939F7-60E2-494F-87BE-0833F8EDE7B1}"/>
   <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{0CBE2F5D-D38A-491C-8102-09931E202FE4}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{412B66FD-D5C7-4145-8997-A0F6F35193B4}" uniqueName="6" name="Architecture" queryTableFieldId="33" dataDxfId="100"/>
-    <tableColumn id="33" xr3:uid="{932AEEDA-613C-4C79-9FB0-33101EED0EB3}" uniqueName="33" name="Frequency (MHz)" queryTableFieldId="35" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{53BF56A4-8796-4108-9CB7-EC03C6018AE8}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{72093BDA-CE47-4A8A-9D1F-DE8864B89A8D}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{499AD4D4-0D45-4244-8139-ACC4D76ED53F}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="96"/>
-    <tableColumn id="7" xr3:uid="{BB9E7F94-0FB7-42C6-BC8F-9B456A226975}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="95"/>
-    <tableColumn id="8" xr3:uid="{A69DCF32-11C1-4672-8F33-4A2A3A877DA7}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="94"/>
-    <tableColumn id="9" xr3:uid="{4F1AD33D-A1B9-4484-BACD-4D8A2DFE3649}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="93"/>
-    <tableColumn id="10" xr3:uid="{042B9F5F-7E22-4E14-BDE7-0E28D955AB8E}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="92"/>
-    <tableColumn id="11" xr3:uid="{3A0A17BC-2EF3-489A-9F5E-8AEBE5FCFA26}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="91"/>
-    <tableColumn id="12" xr3:uid="{63C6EF9E-23E3-4EBE-B605-CDA3A5FA099B}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="90"/>
-    <tableColumn id="13" xr3:uid="{FFAE2658-8266-4817-A3D0-B94F79EE9459}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="89"/>
-    <tableColumn id="14" xr3:uid="{AB0B39DD-7831-4F70-9997-D8EF3C91CAE8}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="88"/>
-    <tableColumn id="15" xr3:uid="{80655C9C-0F4E-4C7B-9C77-AA815868C805}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="87"/>
-    <tableColumn id="16" xr3:uid="{C81B238A-0DAC-4748-906A-150177D6A917}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="86"/>
-    <tableColumn id="17" xr3:uid="{C760D728-8BD0-4DA0-877E-32C2487A57EB}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="85"/>
-    <tableColumn id="18" xr3:uid="{73A386D1-2989-4697-A06C-C2A19E07527E}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="84"/>
-    <tableColumn id="19" xr3:uid="{7DB68E5D-3F06-445E-8E8D-CAF34C39CFAF}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="83"/>
-    <tableColumn id="20" xr3:uid="{84DBC248-A72B-40E4-87A0-9ABFB077D038}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="82"/>
-    <tableColumn id="21" xr3:uid="{D5751CF6-F97C-48AD-9483-84B4FAC25232}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="81"/>
-    <tableColumn id="22" xr3:uid="{0383E0B4-B75B-4C6A-ABF6-DB2151BD8F84}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="80"/>
-    <tableColumn id="23" xr3:uid="{D5AEE349-31DB-4CEE-A75D-3F8A33CCBFE8}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="79"/>
-    <tableColumn id="24" xr3:uid="{8CD0E4EA-1D4E-4A6C-B55D-1166924DF2E0}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="78"/>
-    <tableColumn id="25" xr3:uid="{5B36E0D0-FB94-4655-810F-25993207EB5B}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="77"/>
-    <tableColumn id="26" xr3:uid="{58F6C676-5BCA-45F5-86C9-146FD7E9E153}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="76"/>
-    <tableColumn id="27" xr3:uid="{79BDE0E9-FF61-483F-A16E-980710F1D581}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="75"/>
-    <tableColumn id="28" xr3:uid="{A8CCF80C-5516-43C2-BFE1-108982BADE7E}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="74"/>
-    <tableColumn id="29" xr3:uid="{7ED1CB53-4B4D-4960-87F0-E350444A8AF5}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="73"/>
-    <tableColumn id="30" xr3:uid="{59332E20-9856-43FC-974F-40D32650E2AE}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="72"/>
-    <tableColumn id="31" xr3:uid="{988B1FFC-3E0F-4682-8AFE-4711C8347DF5}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="71"/>
-    <tableColumn id="32" xr3:uid="{61FD7B92-6F91-4486-A616-F980161B36A2}" uniqueName="32" name="Total Time (ms)" queryTableFieldId="32" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{0CBE2F5D-D38A-491C-8102-09931E202FE4}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{412B66FD-D5C7-4145-8997-A0F6F35193B4}" uniqueName="6" name="Architecture" queryTableFieldId="33" dataDxfId="94"/>
+    <tableColumn id="33" xr3:uid="{932AEEDA-613C-4C79-9FB0-33101EED0EB3}" uniqueName="33" name="Frequency (MHz)" queryTableFieldId="35" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{53BF56A4-8796-4108-9CB7-EC03C6018AE8}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{72093BDA-CE47-4A8A-9D1F-DE8864B89A8D}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{499AD4D4-0D45-4244-8139-ACC4D76ED53F}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{BB9E7F94-0FB7-42C6-BC8F-9B456A226975}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{A69DCF32-11C1-4672-8F33-4A2A3A877DA7}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{4F1AD33D-A1B9-4484-BACD-4D8A2DFE3649}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{042B9F5F-7E22-4E14-BDE7-0E28D955AB8E}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{3A0A17BC-2EF3-489A-9F5E-8AEBE5FCFA26}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{63C6EF9E-23E3-4EBE-B605-CDA3A5FA099B}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="84"/>
+    <tableColumn id="13" xr3:uid="{FFAE2658-8266-4817-A3D0-B94F79EE9459}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="83"/>
+    <tableColumn id="14" xr3:uid="{AB0B39DD-7831-4F70-9997-D8EF3C91CAE8}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="82"/>
+    <tableColumn id="15" xr3:uid="{80655C9C-0F4E-4C7B-9C77-AA815868C805}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="81"/>
+    <tableColumn id="16" xr3:uid="{C81B238A-0DAC-4748-906A-150177D6A917}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="80"/>
+    <tableColumn id="17" xr3:uid="{C760D728-8BD0-4DA0-877E-32C2487A57EB}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="79"/>
+    <tableColumn id="18" xr3:uid="{73A386D1-2989-4697-A06C-C2A19E07527E}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="78"/>
+    <tableColumn id="19" xr3:uid="{7DB68E5D-3F06-445E-8E8D-CAF34C39CFAF}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="77"/>
+    <tableColumn id="20" xr3:uid="{84DBC248-A72B-40E4-87A0-9ABFB077D038}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="76"/>
+    <tableColumn id="21" xr3:uid="{D5751CF6-F97C-48AD-9483-84B4FAC25232}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="75"/>
+    <tableColumn id="22" xr3:uid="{0383E0B4-B75B-4C6A-ABF6-DB2151BD8F84}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="74"/>
+    <tableColumn id="23" xr3:uid="{D5AEE349-31DB-4CEE-A75D-3F8A33CCBFE8}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="73"/>
+    <tableColumn id="24" xr3:uid="{8CD0E4EA-1D4E-4A6C-B55D-1166924DF2E0}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="72"/>
+    <tableColumn id="25" xr3:uid="{5B36E0D0-FB94-4655-810F-25993207EB5B}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="71"/>
+    <tableColumn id="26" xr3:uid="{58F6C676-5BCA-45F5-86C9-146FD7E9E153}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="70"/>
+    <tableColumn id="27" xr3:uid="{79BDE0E9-FF61-483F-A16E-980710F1D581}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="69"/>
+    <tableColumn id="28" xr3:uid="{A8CCF80C-5516-43C2-BFE1-108982BADE7E}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="68"/>
+    <tableColumn id="29" xr3:uid="{7ED1CB53-4B4D-4960-87F0-E350444A8AF5}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="67"/>
+    <tableColumn id="30" xr3:uid="{59332E20-9856-43FC-974F-40D32650E2AE}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="66"/>
+    <tableColumn id="31" xr3:uid="{988B1FFC-3E0F-4682-8AFE-4711C8347DF5}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="65"/>
+    <tableColumn id="32" xr3:uid="{61FD7B92-6F91-4486-A616-F980161B36A2}" uniqueName="32" name="Total Time (ms)" queryTableFieldId="32" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11028,13 +11036,13 @@
     <tableColumn id="10" xr3:uid="{85B2A7F5-E4B8-4011-A4E3-EBC115AEF789}" uniqueName="10" name="Elbrus 8C RTC 1200 (4 cpu)" queryTableFieldId="26"/>
     <tableColumn id="11" xr3:uid="{FD919AE2-42FD-4D34-AF52-F5884097C7A5}" uniqueName="11" name="Elbrus 8CB 1550" queryTableFieldId="27"/>
     <tableColumn id="12" xr3:uid="{64BE09DC-BA71-4CF7-82A8-7A116D0E645F}" uniqueName="12" name="Elbrus 8CB RTC 1550" queryTableFieldId="28"/>
-    <tableColumn id="13" xr3:uid="{862EFB49-2F31-4CEC-B26A-563C54C49AD0}" uniqueName="13" name="Elbrus R1000" queryTableFieldId="16" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{419F133A-5E52-4C3D-92A5-86C06EAEC165}" uniqueName="4" name="Allwinner A64" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{AB92DA8B-300D-4898-AAA4-B3FD0FDAC9C2}" uniqueName="5" name="Qualcomm 625" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{862EFB49-2F31-4CEC-B26A-563C54C49AD0}" uniqueName="13" name="Elbrus R1000" queryTableFieldId="16" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{419F133A-5E52-4C3D-92A5-86C06EAEC165}" uniqueName="4" name="Allwinner A64" queryTableFieldId="4" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{AB92DA8B-300D-4898-AAA4-B3FD0FDAC9C2}" uniqueName="5" name="Qualcomm 625" queryTableFieldId="5" dataDxfId="61"/>
     <tableColumn id="15" xr3:uid="{152625CE-010B-4C05-9F73-72A5735B3306}" uniqueName="15" name="Intel Pentium 4 2800" queryTableFieldId="29"/>
-    <tableColumn id="6" xr3:uid="{B159C197-78A4-46C9-881E-F7EF7FCC01B2}" uniqueName="6" name="AMD A6 3650" queryTableFieldId="6" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{59C057B0-1218-4CF5-97D5-276B552ED04F}" uniqueName="7" name="Intel Core i7 2600" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{CA100650-43D9-4C48-B902-0707F6F0713F}" uniqueName="14" name="Intel Core i7 2600_2" queryTableFieldId="17" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B159C197-78A4-46C9-881E-F7EF7FCC01B2}" uniqueName="6" name="AMD A6 3650" queryTableFieldId="6" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{59C057B0-1218-4CF5-97D5-276B552ED04F}" uniqueName="7" name="Intel Core i7 2600" queryTableFieldId="7" dataDxfId="59"/>
+    <tableColumn id="14" xr3:uid="{CA100650-43D9-4C48-B902-0707F6F0713F}" uniqueName="14" name="Intel Core i7 2600_2" queryTableFieldId="17" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11044,26 +11052,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CA40C47D-1F9E-4D00-9535-7D04F9552F14}" name="php" displayName="php" ref="A1:U15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:U15" xr:uid="{10B9A723-7A90-4843-AD81-45910A09B900}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{F7AA7EF2-8AE9-44E6-8F05-E702241680C2}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{630D2DC4-659D-4D64-889B-28B30A8D96ED}" uniqueName="2" name="Architecture" queryTableFieldId="21" dataDxfId="30"/>
-    <tableColumn id="20" xr3:uid="{E5A71597-3360-4F01-AF99-AD9A1AF6312B}" uniqueName="20" name="Frequency (MHz)" queryTableFieldId="22" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{6963F32D-AF13-425E-ABF4-FF7C830BB41B}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{DDFEB16D-35BC-44B6-8556-CD69042CA3FA}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{B7118387-EE1E-42DA-B26B-E046A58F968B}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{28958910-1B3A-4E3A-8715-5CE4D680E0D0}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{D59BE03B-F1E5-4B0D-90FF-F0F8EA78311A}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{02F43B6F-F604-4617-947A-E1EA8A190308}" uniqueName="8" name="MathBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{CFCB9E76-075D-4584-B2DC-726236CC0783}" uniqueName="9" name="CallBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{83E2181A-FB43-435A-9DD5-63E7F93AE09B}" uniqueName="10" name="IfElseBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{959F1F7E-73E5-48AB-8F9E-F05EA71A70B9}" uniqueName="11" name="StringManipulation (Iter/s)" queryTableFieldId="11" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{4610B89F-2DDC-4A9E-80AC-7B431525A9FD}" uniqueName="12" name="MemoryBenchmark (MB/s)" queryTableFieldId="12" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{6D3F7585-74F5-4CD0-BD39-E4F3B2BE6BC0}" uniqueName="13" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="13" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{279333B0-EB8E-4B78-98DC-444545FA88DB}" uniqueName="14" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="14" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{09C8CDCF-C632-4BE4-AF34-51DF6EB0A94D}" uniqueName="15" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{5F08EEF9-1ABD-41DF-A679-5821B9C899FB}" uniqueName="16" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="16" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{CB4EF000-B248-4B44-81B5-EBFE80350AB0}" uniqueName="17" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="17" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{423AE940-3B85-417F-AEA9-E089F03668E7}" uniqueName="18" name="HashBenchmark (Iter/s)" queryTableFieldId="18" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{D3B0783C-96AB-4590-8458-8EECE3AA439B}" uniqueName="19" name="Total Points" queryTableFieldId="19" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{F7AA7EF2-8AE9-44E6-8F05-E702241680C2}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{630D2DC4-659D-4D64-889B-28B30A8D96ED}" uniqueName="2" name="Architecture" queryTableFieldId="21" dataDxfId="56"/>
+    <tableColumn id="20" xr3:uid="{E5A71597-3360-4F01-AF99-AD9A1AF6312B}" uniqueName="20" name="Frequency (MHz)" queryTableFieldId="22" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{6963F32D-AF13-425E-ABF4-FF7C830BB41B}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{DDFEB16D-35BC-44B6-8556-CD69042CA3FA}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{B7118387-EE1E-42DA-B26B-E046A58F968B}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{28958910-1B3A-4E3A-8715-5CE4D680E0D0}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{D59BE03B-F1E5-4B0D-90FF-F0F8EA78311A}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{02F43B6F-F604-4617-947A-E1EA8A190308}" uniqueName="8" name="MathBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{CFCB9E76-075D-4584-B2DC-726236CC0783}" uniqueName="9" name="CallBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{83E2181A-FB43-435A-9DD5-63E7F93AE09B}" uniqueName="10" name="IfElseBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{959F1F7E-73E5-48AB-8F9E-F05EA71A70B9}" uniqueName="11" name="StringManipulation (Iter/s)" queryTableFieldId="11" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{4610B89F-2DDC-4A9E-80AC-7B431525A9FD}" uniqueName="12" name="MemoryBenchmark (MB/s)" queryTableFieldId="12" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{6D3F7585-74F5-4CD0-BD39-E4F3B2BE6BC0}" uniqueName="13" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="13" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{279333B0-EB8E-4B78-98DC-444545FA88DB}" uniqueName="14" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="14" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{09C8CDCF-C632-4BE4-AF34-51DF6EB0A94D}" uniqueName="15" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="15" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{5F08EEF9-1ABD-41DF-A679-5821B9C899FB}" uniqueName="16" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="16" dataDxfId="41"/>
+    <tableColumn id="17" xr3:uid="{CB4EF000-B248-4B44-81B5-EBFE80350AB0}" uniqueName="17" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="17" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{423AE940-3B85-417F-AEA9-E089F03668E7}" uniqueName="18" name="HashBenchmark (Iter/s)" queryTableFieldId="18" dataDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{D3B0783C-96AB-4590-8458-8EECE3AA439B}" uniqueName="19" name="Total Points" queryTableFieldId="19" dataDxfId="38"/>
     <tableColumn id="21" xr3:uid="{346D9C2A-4204-48F9-815A-8ECF3856980B}" uniqueName="21" name="Total Time (ms)" queryTableFieldId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11394,7 +11402,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11419,21 +11427,21 @@
     <col min="19" max="19" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -12186,37 +12194,37 @@
       <c r="A21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="21">
         <v>7345270</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="21">
         <v>5306444</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <v>3114290</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>1955843</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="21">
         <v>1830463</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="21">
         <v>1405446</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="21">
         <v>2095475</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="21">
         <v>1018819</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="21">
         <v>450947</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="21">
         <v>381312</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="21">
         <v>442546</v>
       </c>
       <c r="M21" s="3"/>
@@ -12225,37 +12233,37 @@
       <c r="A22" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="19" t="s">
         <v>170</v>
       </c>
       <c r="M22" s="3"/>
@@ -12264,102 +12272,102 @@
       <c r="A24" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="37">
         <f>1/B25</f>
         <v>16.831633606643969</v>
       </c>
-      <c r="C24" s="28">
-        <f t="shared" ref="C24:M24" si="0">1/C25</f>
+      <c r="C24" s="37">
+        <f t="shared" ref="C24:L24" si="0">1/C25</f>
         <v>12.502468763203959</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="37">
         <f t="shared" si="0"/>
         <v>6.4960773275333503</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="37">
         <f t="shared" si="0"/>
         <v>9.0759806499106119</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="37">
         <f t="shared" si="0"/>
         <v>4.7521009849334774</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="37">
         <f t="shared" si="0"/>
         <v>3.4389601850906404</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="37">
         <f t="shared" si="0"/>
         <v>2.9511712947824429</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="37">
         <f t="shared" si="0"/>
         <v>1.6460068549050397</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="37">
         <f t="shared" si="0"/>
         <v>1.6865128413071411</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="37">
         <f t="shared" si="0"/>
         <v>1.4262949030204248</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="37">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M24" s="28"/>
+      <c r="M24" s="26"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>195</v>
       </c>
       <c r="B25" s="2">
-        <f>B20/$L$20</f>
+        <f t="shared" ref="B25:M25" si="1">B20/$L$20</f>
         <v>5.9411939647098122E-2</v>
       </c>
       <c r="C25" s="2">
-        <f>C20/$L$20</f>
+        <f t="shared" si="1"/>
         <v>7.9984203035411858E-2</v>
       </c>
       <c r="D25" s="2">
-        <f>D20/$L$20</f>
+        <f t="shared" si="1"/>
         <v>0.15393905422916412</v>
       </c>
       <c r="E25" s="2">
-        <f>E20/$L$20</f>
+        <f t="shared" si="1"/>
         <v>0.11018093124844298</v>
       </c>
       <c r="F25" s="2">
-        <f>F20/$L$20</f>
+        <f t="shared" si="1"/>
         <v>0.21043323851292242</v>
       </c>
       <c r="G25" s="2">
-        <f>G20/$L$20</f>
+        <f t="shared" si="1"/>
         <v>0.29078557068948535</v>
       </c>
       <c r="H25" s="2">
-        <f>H20/$L$20</f>
+        <f t="shared" si="1"/>
         <v>0.33884851135817207</v>
       </c>
       <c r="I25" s="2">
-        <f>I20/$L$20</f>
+        <f t="shared" si="1"/>
         <v>0.60753088422447143</v>
       </c>
       <c r="J25" s="2">
-        <f>J20/$L$20</f>
+        <f t="shared" si="1"/>
         <v>0.59293945205003273</v>
       </c>
       <c r="K25" s="2">
-        <f>K20/$L$20</f>
+        <f t="shared" si="1"/>
         <v>0.70111727797829748</v>
       </c>
       <c r="L25" s="2">
-        <f>L20/$L$20</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M25" s="2">
-        <f>M20/$L$20</f>
+        <f t="shared" si="1"/>
         <v>2.8813829264259556E-5</v>
       </c>
     </row>
@@ -12368,47 +12376,47 @@
         <v>196</v>
       </c>
       <c r="B26" s="2">
-        <f>B20/((B4/$L$4)*$L$20)</f>
+        <f t="shared" ref="B26:L26" si="2">B20/((B4/$L$4)*$L$20)</f>
         <v>0.20200059480013363</v>
       </c>
       <c r="C26" s="2">
-        <f>C20/((C4/$L$4)*$L$20)</f>
+        <f t="shared" si="2"/>
         <v>0.36259505376053375</v>
       </c>
       <c r="D26" s="2">
-        <f>D20/((D4/$L$4)*$L$20)</f>
+        <f t="shared" si="2"/>
         <v>0.40260983413781387</v>
       </c>
       <c r="E26" s="2">
-        <f>E20/((E4/$L$4)*$L$20)</f>
+        <f t="shared" si="2"/>
         <v>0.31217930520392179</v>
       </c>
       <c r="F26" s="2">
-        <f>F20/((F4/$L$4)*$L$20)</f>
+        <f t="shared" si="2"/>
         <v>0.35773650547196811</v>
       </c>
       <c r="G26" s="2">
-        <f>G20/((G4/$L$4)*$L$20)</f>
+        <f t="shared" si="2"/>
         <v>0.35309676440866078</v>
       </c>
       <c r="H26" s="2">
-        <f>H20/((H4/$L$4)*$L$20)</f>
+        <f t="shared" si="2"/>
         <v>0.80005898515123952</v>
       </c>
       <c r="I26" s="2">
-        <f>I20/((I4/$L$4)*$L$20)</f>
+        <f t="shared" si="2"/>
         <v>0.96840365980459586</v>
       </c>
       <c r="J26" s="2">
-        <f>J20/((J4/$L$4)*$L$20)</f>
+        <f t="shared" si="2"/>
         <v>0.94514493060014593</v>
       </c>
       <c r="K26" s="2">
-        <f>K20/((K4/$L$4)*$L$20)</f>
+        <f t="shared" si="2"/>
         <v>0.91684567120238902</v>
       </c>
       <c r="L26" s="2">
-        <f>L20/((L4/$L$4)*$L$20)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M26" s="2">
@@ -12417,17 +12425,53 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="A27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="38">
+        <f>1/B26</f>
+        <v>4.9504804725423437</v>
+      </c>
+      <c r="C27" s="38">
+        <f t="shared" ref="C27:L27" si="3">1/C26</f>
+        <v>2.757897521294991</v>
+      </c>
+      <c r="D27" s="38">
+        <f t="shared" si="3"/>
+        <v>2.4837942722921635</v>
+      </c>
+      <c r="E27" s="38">
+        <f t="shared" si="3"/>
+        <v>3.2032872882037453</v>
+      </c>
+      <c r="F27" s="38">
+        <f t="shared" si="3"/>
+        <v>2.7953535205491042</v>
+      </c>
+      <c r="G27" s="38">
+        <f t="shared" si="3"/>
+        <v>2.8320848583099392</v>
+      </c>
+      <c r="H27" s="38">
+        <f t="shared" si="3"/>
+        <v>1.2499078424960937</v>
+      </c>
+      <c r="I27" s="38">
+        <f t="shared" si="3"/>
+        <v>1.0326272416213087</v>
+      </c>
+      <c r="J27" s="38">
+        <f t="shared" si="3"/>
+        <v>1.058038791325921</v>
+      </c>
+      <c r="K27" s="38">
+        <f t="shared" si="3"/>
+        <v>1.0906961023097366</v>
+      </c>
+      <c r="L27" s="38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="M27" s="2"/>
     </row>
   </sheetData>
@@ -12436,7 +12480,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:XFD8">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12448,6 +12492,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:XFD8 A8">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:XFD9 A9">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -12459,7 +12515,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9:XFD9 A9">
+  <conditionalFormatting sqref="M9:XFD9">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -12471,7 +12527,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9:XFD9">
+  <conditionalFormatting sqref="M10:XFD10 A10">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -12483,7 +12539,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:XFD10 A10">
+  <conditionalFormatting sqref="M10:XFD10">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -12495,7 +12551,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:XFD10">
+  <conditionalFormatting sqref="M11:XFD11 A11">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -12507,7 +12563,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:XFD11 A11">
+  <conditionalFormatting sqref="M11:XFD11">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -12519,7 +12575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:XFD11">
+  <conditionalFormatting sqref="M12:XFD12 A12">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -12531,7 +12587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:XFD12 A12">
+  <conditionalFormatting sqref="M12:XFD12">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -12543,7 +12599,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:XFD12">
+  <conditionalFormatting sqref="M13:XFD13 A13">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -12555,7 +12611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:XFD13 A13">
+  <conditionalFormatting sqref="M13:XFD13">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -12567,7 +12623,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:XFD13">
+  <conditionalFormatting sqref="M14:XFD14 A14">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -12579,7 +12635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:XFD14 A14">
+  <conditionalFormatting sqref="M14:XFD14">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -12591,7 +12647,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:XFD14">
+  <conditionalFormatting sqref="M15:XFD15 A15">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -12603,7 +12659,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:XFD15 A15">
+  <conditionalFormatting sqref="M15:XFD15">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -12615,7 +12671,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:XFD15">
+  <conditionalFormatting sqref="M16:XFD16 A16">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -12627,7 +12683,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:XFD16 A16">
+  <conditionalFormatting sqref="M16:XFD16">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -12639,7 +12695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:XFD16">
+  <conditionalFormatting sqref="M17:XFD17 A17">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -12651,7 +12707,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:XFD17 A17">
+  <conditionalFormatting sqref="M17:XFD17">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -12663,7 +12719,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:XFD17">
+  <conditionalFormatting sqref="M18:XFD18 A18">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -12675,7 +12731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18:XFD18 A18">
+  <conditionalFormatting sqref="M18:XFD18">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -12687,7 +12743,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18:XFD18">
+  <conditionalFormatting sqref="M19:XFD19 A19">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -12699,7 +12755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19:XFD19 A19">
+  <conditionalFormatting sqref="M19:XFD19">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -12711,20 +12767,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19:XFD19">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8 A8">
-    <cfRule type="colorScale" priority="670">
+    <cfRule type="colorScale" priority="671">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12736,6 +12780,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:L8">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:L9">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:L9">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:F9">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -12747,19 +12827,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:L9">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:L9">
+  <conditionalFormatting sqref="B9:L9">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -12771,8 +12839,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:F9">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="H10:L10">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12783,7 +12851,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:L9">
+  <conditionalFormatting sqref="E10:L10">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:F10">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -12795,19 +12875,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:L10">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:L10">
+  <conditionalFormatting sqref="B10:L10">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -12819,8 +12887,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:F10">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="H11:L11">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12831,7 +12899,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:L10">
+  <conditionalFormatting sqref="E11:L11">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11:F11">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -12843,19 +12923,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:L11">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:L11">
+  <conditionalFormatting sqref="B11:L11">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -12867,8 +12935,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:F11">
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="H12:L12">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12879,7 +12947,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:L11">
+  <conditionalFormatting sqref="E12:L12">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:F12">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -12891,19 +12971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:L12">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:L12">
+  <conditionalFormatting sqref="B12:L12">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -12915,8 +12983,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:F12">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="H13:L13">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12927,7 +12995,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:L12">
+  <conditionalFormatting sqref="E13:L13">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:F13">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -12939,19 +13019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:L13">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:L13">
+  <conditionalFormatting sqref="B13:L13">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -12963,8 +13031,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:F13">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="H14:L14">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12975,7 +13043,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:L13">
+  <conditionalFormatting sqref="E14:L14">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:F14">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -12987,19 +13067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:L14">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:L14">
+  <conditionalFormatting sqref="B14:L14">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -13011,8 +13079,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:F14">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="H15:L15">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13023,7 +13091,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:L14">
+  <conditionalFormatting sqref="E15:L15">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:F15">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -13035,19 +13115,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:L15">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:L15">
+  <conditionalFormatting sqref="B15:L15">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -13059,8 +13127,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:F15">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="H16:L16">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13071,7 +13139,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:L15">
+  <conditionalFormatting sqref="E16:L16">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:F16">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -13083,19 +13163,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:L16">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:L16">
+  <conditionalFormatting sqref="B16:L16">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -13107,8 +13175,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:F16">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="H17:L17">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13119,7 +13187,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:L16">
+  <conditionalFormatting sqref="E17:L17">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:F17">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -13131,19 +13211,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:L17">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:L17">
+  <conditionalFormatting sqref="B17:L17">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -13155,8 +13223,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:F17">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="H18:L18">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13167,7 +13235,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:L17">
+  <conditionalFormatting sqref="E18:L18">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:F18">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -13179,19 +13259,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:L18">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:L18">
+  <conditionalFormatting sqref="B18:L18">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -13203,8 +13271,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:F18">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="H19:L19">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13215,7 +13283,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:L18">
+  <conditionalFormatting sqref="E19:L19">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:F19">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -13227,19 +13307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:L19">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:L19">
+  <conditionalFormatting sqref="B19:L19">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -13251,8 +13319,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:F19">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="H20:L20">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13263,7 +13331,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:L19">
+  <conditionalFormatting sqref="E20:L20">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:F20">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -13275,19 +13355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:L20">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:L20">
+  <conditionalFormatting sqref="B20:L20">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -13299,32 +13367,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20:F20">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:L20">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B24:L24">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13336,6 +13380,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:L25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:L26">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -13347,15 +13403,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:L26">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B27:L27">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -14402,10 +14458,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0F5DF1-A7D5-4211-80CD-EB11EE7C4033}">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P46" sqref="A1:P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14431,25 +14487,25 @@
     <col min="20" max="21" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -14588,11 +14644,11 @@
       <c r="L4" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>155</v>
+      <c r="M4" s="11">
+        <v>2600</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2600</v>
       </c>
       <c r="O4" s="11" t="s">
         <v>156</v>
@@ -15914,10 +15970,10 @@
       <c r="D31" s="3">
         <v>40086.89</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="27">
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="27">
         <v>0</v>
       </c>
       <c r="G31" s="3">
@@ -15952,7 +16008,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="3">
@@ -15964,10 +16020,10 @@
       <c r="D32" s="3">
         <v>17235.169999999998</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="27">
         <v>0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="27">
         <v>0</v>
       </c>
       <c r="G32" s="3">
@@ -16102,28 +16158,28 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T36">
-        <f t="shared" ref="T35:T42" si="0">$O23/O23</f>
+        <f t="shared" ref="T36:T40" si="0">$O23/O23</f>
         <v>1</v>
       </c>
     </row>
@@ -16131,63 +16187,63 @@
       <c r="A37" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="36">
         <f>1/B38</f>
-        <v>38.728824715532916</v>
-      </c>
-      <c r="C37" s="2">
+        <v>23.760015162903628</v>
+      </c>
+      <c r="C37" s="36">
         <f t="shared" ref="C37:P37" si="1">1/C38</f>
-        <v>20.522526131663639</v>
-      </c>
-      <c r="D37" s="2">
+        <v>12.590506829241496</v>
+      </c>
+      <c r="D37" s="36">
         <f t="shared" si="1"/>
-        <v>7.0176773076970553</v>
-      </c>
-      <c r="E37" s="2">
+        <v>4.3053235016546356</v>
+      </c>
+      <c r="E37" s="36">
         <f t="shared" si="1"/>
         <v>1.791371146677027</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="36">
         <f t="shared" si="1"/>
         <v>1.500955563527812</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="36">
         <f t="shared" si="1"/>
-        <v>20.049905480751125</v>
-      </c>
-      <c r="H37" s="2">
+        <v>12.300555509663265</v>
+      </c>
+      <c r="H37" s="36">
         <f t="shared" si="1"/>
-        <v>17.437568122098551</v>
-      </c>
-      <c r="I37" s="2">
+        <v>10.697894553434693</v>
+      </c>
+      <c r="I37" s="36">
         <f t="shared" si="1"/>
-        <v>4.3715738805904429</v>
-      </c>
-      <c r="J37" s="2">
+        <v>4.3760421293442908</v>
+      </c>
+      <c r="J37" s="36">
         <f t="shared" si="1"/>
         <v>4.1703577734512454</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="36">
         <f t="shared" si="1"/>
         <v>3.602919743547202</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="36">
         <f t="shared" si="1"/>
         <v>3.5784128352053761</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="36">
         <f t="shared" si="1"/>
         <v>4.5924587670670256</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="36">
         <f t="shared" si="1"/>
         <v>2.8035534313685715</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="36">
         <f t="shared" si="1"/>
         <v>0.99897892921919429</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -16201,63 +16257,63 @@
         <v>195</v>
       </c>
       <c r="B38" s="2">
-        <f>B33/$P$33</f>
-        <v>2.5820561489926428E-2</v>
+        <f>B33/$O$48</f>
+        <v>4.2087515228580077E-2</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ref="C38:P38" si="2">C33/$P$33</f>
-        <v>4.8726944898714375E-2</v>
+        <f t="shared" ref="C38:D38" si="2">C33/$O$48</f>
+        <v>7.9424920184904435E-2</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="2"/>
-        <v>0.14249729022210675</v>
+        <v>0.23227058306203399</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C38:P38" si="3">E33/$P$33</f>
         <v>0.55823161038123703</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66624224214181438</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="2"/>
-        <v>4.9875546842854106E-2</v>
+        <f t="shared" ref="G38:H38" si="4">G33/$O$48</f>
+        <v>8.1297141353852201E-2</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
-        <v>5.7347446214859779E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.347633733022144E-2</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="2"/>
-        <v>0.22875056611531769</v>
+        <f>I33/$O$33</f>
+        <v>0.22851699559616459</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23978758042440904</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27755267149399909</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.279453502447156</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21774828054442177</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35669018782062017</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0010221144319869</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T38">
@@ -16271,62 +16327,62 @@
       </c>
       <c r="B39" s="2">
         <f>B38/(B4/$P$4)</f>
-        <v>8.9126811234263803E-2</v>
+        <v>0.14527670231185</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" ref="C39:P39" si="3">C38/(C4/$P$4)</f>
-        <v>0.22089548354083852</v>
+        <f t="shared" ref="C39:P39" si="5">C38/(C4/$P$4)</f>
+        <v>0.36005963817156678</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.37268522058089459</v>
+        <f t="shared" si="5"/>
+        <v>0.60747690954685818</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4599903656124662</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4614345956659154</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.14720213477925692</v>
+        <f t="shared" si="5"/>
+        <v>0.23993947969018881</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="3"/>
-        <v>6.9636184689472594E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.11350698104384033</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.54010550332783347</v>
+        <f t="shared" si="5"/>
+        <v>0.53955401737983311</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.56616512044652134</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4430418230420643</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.44607601329592977</v>
       </c>
       <c r="M39" s="2">
         <f>M38/(M4/$P$4)</f>
-        <v>0.27832486986880978</v>
+        <v>0.28474775148116693</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.45591978894364987</v>
+        <f t="shared" si="5"/>
+        <v>0.46644101484234951</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0010221144319869</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T39">
@@ -16335,21 +16391,434 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="2">
+        <f>1/B39</f>
+        <v>6.8834161574882575</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" ref="C40:P40" si="6">1/C39</f>
+        <v>2.7773176829209181</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="6"/>
+        <v>1.646153103573831</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="6"/>
+        <v>0.68493602667062792</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="6"/>
+        <v>0.6842591539612084</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="6"/>
+        <v>4.1677176315094355</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="6"/>
+        <v>8.8100308087109234</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="6"/>
+        <v>1.8533825488987583</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7662691746381747</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2571232511045705</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2417703938198383</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5118802336394901</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1438938004583195</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="6"/>
+        <v>0.99897892921919429</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="T40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="3">
+        <f>SUM(B19+2*B21+10*B23+10*B25+B27+10*B29)</f>
+        <v>2914.5699999999997</v>
+      </c>
+      <c r="C42" s="3">
+        <f>SUM(C19+2*C21+10*C23+10*C25+C27+10*C29)</f>
+        <v>2337.5</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" ref="C42:P42" si="7">SUM(D19+2*D21+10*D23+10*D25+D27+10*D29)</f>
+        <v>4237.57</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="7"/>
+        <v>20942.789999999997</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="7"/>
+        <v>24387.799999999996</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="7"/>
+        <v>2633.23</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="7"/>
+        <v>8871.6900000000023</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="7"/>
+        <v>17398.38</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="7"/>
+        <v>19429.350000000002</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="7"/>
+        <v>34044.93</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="7"/>
+        <v>34366.19</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="7"/>
+        <v>15268.48</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="7"/>
+        <v>41832.879999999997</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="7"/>
+        <v>73198.240000000005</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="7"/>
+        <v>74344.23</v>
+      </c>
       <c r="T42">
-        <f t="shared" si="0"/>
+        <f>$O28/O28</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="36">
+        <f>1/B44</f>
+        <v>15.407725910004384</v>
+      </c>
+      <c r="C43" s="36">
+        <f t="shared" ref="C43:P43" si="8">1/C44</f>
+        <v>19.211506184180312</v>
+      </c>
+      <c r="D43" s="36">
+        <f t="shared" si="8"/>
+        <v>10.597322452613522</v>
+      </c>
+      <c r="E43" s="36">
+        <f t="shared" si="8"/>
+        <v>3.549872294952106</v>
+      </c>
+      <c r="F43" s="36">
+        <f t="shared" si="8"/>
+        <v>3.048418881571934</v>
+      </c>
+      <c r="G43" s="36">
+        <f t="shared" si="8"/>
+        <v>17.053920738226999</v>
+      </c>
+      <c r="H43" s="36">
+        <f t="shared" si="8"/>
+        <v>5.0618197553703368</v>
+      </c>
+      <c r="I43" s="36">
+        <f t="shared" si="8"/>
+        <v>4.2071871059259545</v>
+      </c>
+      <c r="J43" s="36">
+        <f t="shared" si="8"/>
+        <v>3.7674054973532307</v>
+      </c>
+      <c r="K43" s="36">
+        <f t="shared" si="8"/>
+        <v>2.1500481863231911</v>
+      </c>
+      <c r="L43" s="36">
+        <f t="shared" si="8"/>
+        <v>2.1299492320795528</v>
+      </c>
+      <c r="M43" s="36">
+        <f t="shared" si="8"/>
+        <v>4.7940751142222409</v>
+      </c>
+      <c r="N43" s="36">
+        <f t="shared" si="8"/>
+        <v>1.7497776868338974</v>
+      </c>
+      <c r="O43" s="36">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P43" s="36">
+        <f t="shared" si="8"/>
+        <v>0.98458535383310852</v>
+      </c>
+      <c r="T43">
+        <f>$O29/O29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="2">
+        <f>B42/$O$49</f>
+        <v>6.490250448644666E-2</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" ref="C44:D44" si="9">C42/$O$49</f>
+        <v>5.2052139504993558E-2</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="9"/>
+        <v>9.436345873889862E-2</v>
+      </c>
+      <c r="E44" s="2">
+        <f>E42/$P$42</f>
+        <v>0.28170027452029561</v>
+      </c>
+      <c r="F44" s="2">
+        <f>F42/$P$42</f>
+        <v>0.3280389076596798</v>
+      </c>
+      <c r="G44" s="2">
+        <f>G42/$O$49</f>
+        <v>5.8637542378068098E-2</v>
+      </c>
+      <c r="H44" s="2">
+        <f>H42/$O$49</f>
+        <v>0.19755740985029152</v>
+      </c>
+      <c r="I44" s="2">
+        <f>I42/$O$42</f>
+        <v>0.23768850180004328</v>
+      </c>
+      <c r="J44" s="2">
+        <f>J42/$O$42</f>
+        <v>0.265434660724083</v>
+      </c>
+      <c r="K44" s="2">
+        <f>K42/$O$42</f>
+        <v>0.46510585500416401</v>
+      </c>
+      <c r="L44" s="2">
+        <f>L42/$O$42</f>
+        <v>0.46949475834391646</v>
+      </c>
+      <c r="M44" s="2">
+        <f>M42/$O$42</f>
+        <v>0.20859080764783414</v>
+      </c>
+      <c r="N44" s="2">
+        <f>N42/$O$42</f>
+        <v>0.5715011727057917</v>
+      </c>
+      <c r="O44" s="2">
+        <f>O42/$O$42</f>
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <f>P42/$O$42</f>
+        <v>1.015655977520771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="2">
+        <f>B44/(B4/$P$4)</f>
+        <v>0.22402894949636409</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" ref="C45:P45" si="10">C44/(C4/$P$4)</f>
+        <v>0.23596969908930412</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.24679673824019641</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.73675456413000395</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.71956921680187824</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.17306219104638154</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.23989114053249685</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.56120896258343556</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.62672072670964041</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.74242249155594253</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.74942825275554736</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.27277259461639852</v>
+      </c>
+      <c r="N45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.74734768738449686</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="10"/>
+        <v>1.015655977520771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="2">
+        <f>1/B45</f>
+        <v>4.463708829810094</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" ref="C46:P46" si="11">1/C45</f>
+        <v>4.2378322465103624</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="11"/>
+        <v>4.0519174083522289</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="11"/>
+        <v>1.357304112775805</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="11"/>
+        <v>1.389720372481323</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="11"/>
+        <v>5.7782696148345591</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="11"/>
+        <v>4.1685574455991006</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="11"/>
+        <v>1.7818674801568746</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="11"/>
+        <v>1.595607034173133</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3469419520201169</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3343505483321905</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="11"/>
+        <v>3.6660574402875956</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="11"/>
+        <v>1.338065289931804</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="11"/>
+        <v>0.98458535383310852</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <f>P33/1.63</f>
+        <v>216224.45398773006</v>
+      </c>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="2">
+        <f>O42/1.63</f>
+        <v>44906.895705521478</v>
       </c>
     </row>
   </sheetData>
@@ -16359,7 +16828,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I9:P9 G9">
-    <cfRule type="colorScale" priority="803">
+    <cfRule type="colorScale" priority="810">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16371,6 +16840,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:P9">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:P10 G10">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:P10">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:P11 G11">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:P11">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:P12 G12">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:P12">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:P13 G13">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -16382,7 +16935,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:P10 G10">
+  <conditionalFormatting sqref="B13:P13">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -16394,7 +16947,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:P10">
+  <conditionalFormatting sqref="I14:P14 G14">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -16406,7 +16959,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:P11 G11">
+  <conditionalFormatting sqref="B14:P14">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -16418,7 +16971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:P11">
+  <conditionalFormatting sqref="I15:P15 G15">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -16430,7 +16983,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:P12 G12">
+  <conditionalFormatting sqref="B15:P15">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -16442,7 +16995,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:P12">
+  <conditionalFormatting sqref="I16:P16 G16">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -16454,7 +17007,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:P13 G13">
+  <conditionalFormatting sqref="B16:P16">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -16466,7 +17019,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:P13">
+  <conditionalFormatting sqref="I17:P17 G17">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -16478,7 +17031,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:P14 G14">
+  <conditionalFormatting sqref="B17:P17">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -16490,7 +17043,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:P14">
+  <conditionalFormatting sqref="I18:P18 G18">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -16502,7 +17055,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:P15 G15">
+  <conditionalFormatting sqref="B18:P18">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -16514,7 +17067,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:P15">
+  <conditionalFormatting sqref="I19:P19 G19">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -16526,7 +17079,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:P16 G16">
+  <conditionalFormatting sqref="B19:P19">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -16538,7 +17091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:P16">
+  <conditionalFormatting sqref="I20:P20 G20">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -16550,7 +17103,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:P17 G17">
+  <conditionalFormatting sqref="B20:P20">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -16562,7 +17115,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:P17">
+  <conditionalFormatting sqref="I21:P21 G21">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -16574,7 +17127,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:P18 G18">
+  <conditionalFormatting sqref="B21:P21">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -16586,7 +17139,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:P18">
+  <conditionalFormatting sqref="I22:P22 G22">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -16598,7 +17151,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:P19 G19">
+  <conditionalFormatting sqref="B22:P22">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -16610,7 +17163,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:P19">
+  <conditionalFormatting sqref="I23:P23 G23">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -16622,7 +17175,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:P20 G20">
+  <conditionalFormatting sqref="B23:P23">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -16634,7 +17187,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:P20">
+  <conditionalFormatting sqref="I24:P24 G24">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -16646,7 +17199,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:P21 G21">
+  <conditionalFormatting sqref="B24:P24">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -16658,7 +17211,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:P21">
+  <conditionalFormatting sqref="I25:P25 G25">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -16670,7 +17223,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:P22 G22">
+  <conditionalFormatting sqref="B25:P25">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -16682,7 +17235,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:P22">
+  <conditionalFormatting sqref="I26:P26 G26">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -16694,7 +17247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:P23 G23">
+  <conditionalFormatting sqref="B26:P26">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -16706,7 +17259,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:P23">
+  <conditionalFormatting sqref="I27:P27 G27">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -16718,7 +17271,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:P24 G24">
+  <conditionalFormatting sqref="B27:P27">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -16730,7 +17283,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:P24">
+  <conditionalFormatting sqref="I28:P28 G28">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -16742,7 +17295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:P25 G25">
+  <conditionalFormatting sqref="B28:P28">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -16754,7 +17307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:P25">
+  <conditionalFormatting sqref="I29:P29 G29">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -16766,7 +17319,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:P26 G26">
+  <conditionalFormatting sqref="B29:P29">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -16778,7 +17331,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:P26">
+  <conditionalFormatting sqref="I30:P30 G30">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -16790,7 +17343,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:P27 G27">
+  <conditionalFormatting sqref="B30:P30">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -16802,7 +17355,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:P27">
+  <conditionalFormatting sqref="I31:P31 G31">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -16814,7 +17367,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:P28 G28">
+  <conditionalFormatting sqref="B31:D31 G31:P31">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -16826,7 +17379,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:P28">
+  <conditionalFormatting sqref="I32:P32 G32">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -16838,7 +17391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:P29 G29">
+  <conditionalFormatting sqref="B32:D32 G32:P32">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -16850,7 +17403,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:P29">
+  <conditionalFormatting sqref="I33:P33 G33">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -16862,7 +17415,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:P30 G30">
+  <conditionalFormatting sqref="B33:P33">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -16874,31 +17427,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:P30">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="4RedToBlack">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:P31 G31">
+  <conditionalFormatting sqref="B37:P37">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:D31 G31:P31">
+  <conditionalFormatting sqref="B38:P38">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -16910,7 +17461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:P32 G32">
+  <conditionalFormatting sqref="B39:P39">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -16922,7 +17473,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:D32 G32:P32">
+  <conditionalFormatting sqref="B42:P42">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -16934,7 +17485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:P33 G33">
+  <conditionalFormatting sqref="B44:P44">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -16946,8 +17497,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:P33">
+  <conditionalFormatting sqref="B43:P43">
     <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:P45">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16958,18 +17521,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="4RedToBlack">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37:P37">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="B46:P46">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16980,27 +17533,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:P38">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:P39">
+  <conditionalFormatting sqref="B40:P40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -37642,10 +38183,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4F0C60-3C05-4452-AF0C-58FF6BE35E31}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L43" sqref="A1:L43"/>
+      <selection activeCell="L45" sqref="A1:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37669,21 +38210,21 @@
     <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -37888,7 +38429,7 @@
       <c r="D7" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="30" t="s">
         <v>158</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -38943,47 +39484,47 @@
       <c r="A36" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="36">
         <f>1/B37</f>
         <v>18.013119675660715</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="36">
         <f t="shared" ref="C36:L36" si="0">1/C37</f>
         <v>12.490160795141895</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="36">
         <f t="shared" si="0"/>
         <v>3.0111815959882735</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="36">
         <f t="shared" si="0"/>
         <v>0.93550463638482351</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="36">
         <f t="shared" si="0"/>
         <v>2.5722632909848606</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="36">
         <f t="shared" si="0"/>
         <v>8.1298010296000793</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="36">
         <f t="shared" si="0"/>
         <v>9.2931245772013185</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="36">
         <f t="shared" si="0"/>
         <v>4.4809004877277774</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="36">
         <f t="shared" si="0"/>
         <v>9.3843412611037493</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="36">
         <f t="shared" si="0"/>
         <v>2.3151436636971092</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -38993,47 +39534,47 @@
         <v>195</v>
       </c>
       <c r="B37" s="2">
-        <f>B33/$L$33</f>
+        <f t="shared" ref="B37:L37" si="1">B33/$L$33</f>
         <v>5.5515092221987382E-2</v>
       </c>
       <c r="C37" s="2">
-        <f>C33/$L$33</f>
+        <f t="shared" si="1"/>
         <v>8.0063020516833908E-2</v>
       </c>
       <c r="D37" s="2">
-        <f>D33/$L$33</f>
+        <f t="shared" si="1"/>
         <v>0.3320955472537015</v>
       </c>
       <c r="E37" s="2">
-        <f>E33/$L$33</f>
+        <f t="shared" si="1"/>
         <v>1.0689417893901769</v>
       </c>
       <c r="F37" s="2">
-        <f>F33/$L$33</f>
+        <f t="shared" si="1"/>
         <v>0.38876269140283964</v>
       </c>
       <c r="G37" s="2">
-        <f>G33/$L$33</f>
+        <f t="shared" si="1"/>
         <v>0.12300424036936018</v>
       </c>
       <c r="H37" s="2">
-        <f>H33/$L$33</f>
+        <f t="shared" si="1"/>
         <v>0.10760643437980857</v>
       </c>
       <c r="I37" s="2">
-        <f>I33/$L$33</f>
+        <f t="shared" si="1"/>
         <v>0.22316942827424643</v>
       </c>
       <c r="J37" s="2">
-        <f>J33/$L$33</f>
+        <f t="shared" si="1"/>
         <v>0.1065604896685507</v>
       </c>
       <c r="K37" s="2">
-        <f>K33/$L$33</f>
+        <f t="shared" si="1"/>
         <v>0.4319386376234966</v>
       </c>
       <c r="L37" s="2">
-        <f>L33/$L$33</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -39042,243 +39583,341 @@
         <v>196</v>
       </c>
       <c r="B38" s="2">
-        <f>B37/(B4/$L$4)</f>
+        <f t="shared" ref="B38:L38" si="2">B37/(B4/$L$4)</f>
         <v>0.19162569904036253</v>
       </c>
       <c r="C38" s="2">
-        <f>C37/(C4/$L$4)</f>
+        <f t="shared" si="2"/>
         <v>0.36295235967631373</v>
       </c>
       <c r="D38" s="2">
-        <f>D37/(D4/$L$4)</f>
+        <f t="shared" si="2"/>
         <v>0.86855758512506553</v>
       </c>
       <c r="E38" s="2">
-        <f>E37/(E4/$L$4)</f>
+        <f t="shared" si="2"/>
         <v>3.0286684032721678</v>
       </c>
       <c r="F38" s="2">
-        <f>F37/(F4/$L$4)</f>
+        <f t="shared" si="2"/>
         <v>0.85276977469009985</v>
       </c>
       <c r="G38" s="2">
-        <f>G37/(G4/$L$4)</f>
+        <f t="shared" si="2"/>
         <v>0.36303334831234779</v>
       </c>
       <c r="H38" s="2">
-        <f>H37/(H4/$L$4)</f>
+        <f t="shared" si="2"/>
         <v>0.13066495603262471</v>
       </c>
       <c r="I38" s="2">
-        <f>I37/(I4/$L$4)</f>
+        <f t="shared" si="2"/>
         <v>0.52692781675863742</v>
       </c>
       <c r="J38" s="2">
-        <f>J37/(J4/$L$4)</f>
+        <f t="shared" si="2"/>
         <v>0.17009655627843773</v>
       </c>
       <c r="K38" s="2">
-        <f>K37/(K4/$L$4)</f>
+        <f t="shared" si="2"/>
         <v>0.5521020180149957</v>
       </c>
       <c r="L38" s="2">
-        <f>L37/(L4/$L$4)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>197</v>
-      </c>
-      <c r="B40" s="12">
-        <f>SUM(B19+B21+B23+B25+B27*20+B29*20+B17/10)</f>
-        <v>12508.233</v>
-      </c>
-      <c r="C40" s="12">
-        <f>SUM(C19+C21+C23+C25+C27*20+C29*20+C17/10)</f>
-        <v>13827.502</v>
-      </c>
-      <c r="D40" s="12">
-        <f>SUM(D19+D21+D23+D25+D27*20+D29*20+D17/10)</f>
-        <v>26225.095000000001</v>
-      </c>
-      <c r="E40" s="12">
-        <f>SUM(E19+E21+E23+E25+E27*20+E29*20+E17/10)</f>
-        <v>23640.059000000001</v>
-      </c>
-      <c r="F40" s="12">
-        <f>SUM(F19+F21+F23+F25+F27*20+F29*20+F17/10)</f>
-        <v>30274.518</v>
-      </c>
-      <c r="G40" s="12">
-        <f>SUM(G19+G21+G23+G25+G27*20+G29*20+G17/10)</f>
-        <v>20358.823</v>
-      </c>
-      <c r="H40" s="12">
-        <f>SUM(H19+H21+H23+H25+H27*20+H29*20+H17/10)</f>
-        <v>36227.722999999998</v>
-      </c>
-      <c r="I40" s="12">
-        <f>SUM(I19+I21+I23+I25+I27*20+I29*20+I17/10)</f>
-        <v>39796.766000000003</v>
-      </c>
-      <c r="J40" s="12">
-        <f>SUM(J19+J21+J23+J25+J27*20+J29*20+J17/10)</f>
-        <v>26605.985999999997</v>
-      </c>
-      <c r="K40" s="12">
-        <f>SUM(K19+K21+K23+K25+K27*20+K29*20+K17/10)</f>
-        <v>113443.75599999999</v>
-      </c>
-      <c r="L40" s="12">
-        <f>SUM(L19+L21+L23+L25+L27*20+L29*20+L17/10)</f>
-        <v>141925.03399999999</v>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="38">
+        <f>1/B38</f>
+        <v>5.2185067295664131</v>
+      </c>
+      <c r="C39" s="38">
+        <f t="shared" ref="C39:L39" si="3">1/C38</f>
+        <v>2.7551825283401237</v>
+      </c>
+      <c r="D39" s="38">
+        <f t="shared" si="3"/>
+        <v>1.1513341396425751</v>
+      </c>
+      <c r="E39" s="38">
+        <f t="shared" si="3"/>
+        <v>0.33017810695934946</v>
+      </c>
+      <c r="F39" s="38">
+        <f t="shared" si="3"/>
+        <v>1.1726494414783923</v>
+      </c>
+      <c r="G39" s="38">
+        <f t="shared" si="3"/>
+        <v>2.7545678782644969</v>
+      </c>
+      <c r="H39" s="38">
+        <f t="shared" si="3"/>
+        <v>7.6531614165187323</v>
+      </c>
+      <c r="I39" s="38">
+        <f t="shared" si="3"/>
+        <v>1.897793147743529</v>
+      </c>
+      <c r="J39" s="38">
+        <f t="shared" si="3"/>
+        <v>5.8790137900444073</v>
+      </c>
+      <c r="K39" s="38">
+        <f t="shared" si="3"/>
+        <v>1.8112594545395031</v>
+      </c>
+      <c r="L39" s="38">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>207</v>
-      </c>
-      <c r="B41" s="19">
-        <f>1/B42</f>
-        <v>11.346529441848419</v>
-      </c>
-      <c r="C41" s="19">
-        <f t="shared" ref="C41:L41" si="1">1/C42</f>
-        <v>10.263967707254716</v>
-      </c>
-      <c r="D41" s="19">
-        <f t="shared" si="1"/>
-        <v>5.4118024739281205</v>
-      </c>
-      <c r="E41" s="19">
-        <f t="shared" si="1"/>
-        <v>6.0035820553578132</v>
-      </c>
-      <c r="F41" s="19">
-        <f t="shared" si="1"/>
-        <v>4.6879370300792234</v>
-      </c>
-      <c r="G41" s="19">
-        <f t="shared" si="1"/>
-        <v>6.9711807013597982</v>
-      </c>
-      <c r="H41" s="19">
-        <f t="shared" si="1"/>
-        <v>3.9175808537566654</v>
-      </c>
-      <c r="I41" s="19">
-        <f t="shared" si="1"/>
-        <v>3.5662454079811403</v>
-      </c>
-      <c r="J41" s="19">
-        <f t="shared" si="1"/>
-        <v>5.3343271698331343</v>
-      </c>
-      <c r="K41" s="19">
-        <f t="shared" si="1"/>
-        <v>1.2510607811680705</v>
-      </c>
-      <c r="L41" s="19">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="B41" s="12">
+        <f t="shared" ref="B41:L41" si="4">SUM(B19+B21+B23+B25+B27*20+B29*20+B17/10)</f>
+        <v>12508.233</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="4"/>
+        <v>13827.502</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="4"/>
+        <v>26225.095000000001</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="4"/>
+        <v>23640.059000000001</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="4"/>
+        <v>30274.518</v>
+      </c>
+      <c r="G41" s="12">
+        <f t="shared" si="4"/>
+        <v>20358.823</v>
+      </c>
+      <c r="H41" s="12">
+        <f t="shared" si="4"/>
+        <v>36227.722999999998</v>
+      </c>
+      <c r="I41" s="12">
+        <f t="shared" si="4"/>
+        <v>39796.766000000003</v>
+      </c>
+      <c r="J41" s="12">
+        <f t="shared" si="4"/>
+        <v>26605.985999999997</v>
+      </c>
+      <c r="K41" s="12">
+        <f t="shared" si="4"/>
+        <v>113443.75599999999</v>
+      </c>
+      <c r="L41" s="12">
+        <f t="shared" si="4"/>
+        <v>141925.03399999999</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>205</v>
-      </c>
-      <c r="B42" s="2">
-        <f>B40/$L$40</f>
-        <v>8.8132675733584825E-2</v>
-      </c>
-      <c r="C42" s="2">
-        <f t="shared" ref="C42:L42" si="2">C40/$L$40</f>
-        <v>9.7428209881563255E-2</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18478131912936518</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="2"/>
-        <v>0.1665672244968425</v>
-      </c>
-      <c r="F42" s="2">
-        <f t="shared" si="2"/>
-        <v>0.21331344546304637</v>
-      </c>
-      <c r="G42" s="2">
-        <f t="shared" si="2"/>
-        <v>0.14344772325367208</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="2"/>
-        <v>0.25525956893552693</v>
-      </c>
-      <c r="I42" s="2">
-        <f t="shared" si="2"/>
-        <v>0.28040695061591464</v>
-      </c>
-      <c r="J42" s="2">
-        <f t="shared" si="2"/>
-        <v>0.18746506694513104</v>
-      </c>
-      <c r="K42" s="2">
-        <f t="shared" si="2"/>
-        <v>0.7993216756953534</v>
-      </c>
-      <c r="L42" s="2">
-        <f t="shared" si="2"/>
+        <v>207</v>
+      </c>
+      <c r="B42" s="36">
+        <f>1/B43</f>
+        <v>11.346529441848419</v>
+      </c>
+      <c r="C42" s="36">
+        <f t="shared" ref="C42:L42" si="5">1/C43</f>
+        <v>10.263967707254716</v>
+      </c>
+      <c r="D42" s="36">
+        <f t="shared" si="5"/>
+        <v>5.4118024739281205</v>
+      </c>
+      <c r="E42" s="36">
+        <f t="shared" si="5"/>
+        <v>6.0035820553578132</v>
+      </c>
+      <c r="F42" s="36">
+        <f t="shared" si="5"/>
+        <v>4.6879370300792234</v>
+      </c>
+      <c r="G42" s="36">
+        <f t="shared" si="5"/>
+        <v>6.9711807013597982</v>
+      </c>
+      <c r="H42" s="36">
+        <f t="shared" si="5"/>
+        <v>3.9175808537566654</v>
+      </c>
+      <c r="I42" s="36">
+        <f t="shared" si="5"/>
+        <v>3.5662454079811403</v>
+      </c>
+      <c r="J42" s="36">
+        <f t="shared" si="5"/>
+        <v>5.3343271698331343</v>
+      </c>
+      <c r="K42" s="36">
+        <f t="shared" si="5"/>
+        <v>1.2510607811680705</v>
+      </c>
+      <c r="L42" s="36">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="2">
+        <f>B41/$L$41</f>
+        <v>8.8132675733584825E-2</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" ref="C43:L43" si="6">C41/$L$41</f>
+        <v>9.7428209881563255E-2</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18478131912936518</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1665672244968425</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="6"/>
+        <v>0.21331344546304637</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="6"/>
+        <v>0.14344772325367208</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="6"/>
+        <v>0.25525956893552693</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="6"/>
+        <v>0.28040695061591464</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18746506694513104</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="6"/>
+        <v>0.7993216756953534</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="2">
-        <f>B42/(B4/$L$4)</f>
+      <c r="B44" s="2">
+        <f t="shared" ref="B44:L44" si="7">B43/(B4/$L$4)</f>
         <v>0.30421431217684097</v>
       </c>
-      <c r="C43" s="2">
-        <f>C42/(C4/$L$4)</f>
+      <c r="C44" s="2">
+        <f t="shared" si="7"/>
         <v>0.44167455146308676</v>
       </c>
-      <c r="D43" s="2">
-        <f>D42/(D4/$L$4)</f>
+      <c r="D44" s="2">
+        <f t="shared" si="7"/>
         <v>0.48327421926141667</v>
       </c>
-      <c r="E43" s="2">
-        <f>E42/(E4/$L$4)</f>
+      <c r="E44" s="2">
+        <f t="shared" si="7"/>
         <v>0.47194046940772039</v>
       </c>
-      <c r="F43" s="2">
-        <f>F42/(F4/$L$4)</f>
+      <c r="F44" s="2">
+        <f t="shared" si="7"/>
         <v>0.46791336424152108</v>
       </c>
-      <c r="G43" s="2">
-        <f>G42/(G4/$L$4)</f>
+      <c r="G44" s="2">
+        <f t="shared" si="7"/>
         <v>0.42337001654729611</v>
       </c>
-      <c r="H43" s="2">
-        <f>H42/(H4/$L$4)</f>
+      <c r="H44" s="2">
+        <f t="shared" si="7"/>
         <v>0.30995804799313986</v>
       </c>
-      <c r="I43" s="2">
-        <f>I42/(I4/$L$4)</f>
+      <c r="I44" s="2">
+        <f t="shared" si="7"/>
         <v>0.66207196673202073</v>
       </c>
-      <c r="J43" s="2">
-        <f>J42/(J4/$L$4)</f>
+      <c r="J44" s="2">
+        <f t="shared" si="7"/>
         <v>0.29924001296405894</v>
       </c>
-      <c r="K43" s="2">
-        <f>K42/(K4/$L$4)</f>
+      <c r="K44" s="2">
+        <f t="shared" si="7"/>
         <v>1.0216893599113539</v>
       </c>
-      <c r="L43" s="2">
-        <f>L42/(L4/$L$4)</f>
+      <c r="L44" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="38">
+        <f>1/B44</f>
+        <v>3.287156323594322</v>
+      </c>
+      <c r="C45" s="38">
+        <f t="shared" ref="C45:L45" si="8">1/C44</f>
+        <v>2.2641105236591281</v>
+      </c>
+      <c r="D45" s="38">
+        <f t="shared" si="8"/>
+        <v>2.0692185929725166</v>
+      </c>
+      <c r="E45" s="38">
+        <f t="shared" si="8"/>
+        <v>2.118911313655699</v>
+      </c>
+      <c r="F45" s="38">
+        <f t="shared" si="8"/>
+        <v>2.1371477637125871</v>
+      </c>
+      <c r="G45" s="38">
+        <f t="shared" si="8"/>
+        <v>2.362000049401908</v>
+      </c>
+      <c r="H45" s="38">
+        <f t="shared" si="8"/>
+        <v>3.2262430560349009</v>
+      </c>
+      <c r="I45" s="38">
+        <f t="shared" si="8"/>
+        <v>1.5104098198508358</v>
+      </c>
+      <c r="J45" s="38">
+        <f t="shared" si="8"/>
+        <v>3.3417990799248756</v>
+      </c>
+      <c r="K45" s="38">
+        <f t="shared" si="8"/>
+        <v>0.97877108173737293</v>
+      </c>
+      <c r="L45" s="38">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -39288,6 +39927,18 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="M8:XFD8 A8">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:XFD8">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -39299,7 +39950,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8:XFD8">
+  <conditionalFormatting sqref="I9:XFD9 A9 G9">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:XFD9 A9">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
@@ -39311,7 +39974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:XFD9 A9 G9">
+  <conditionalFormatting sqref="M10:XFD10 A10">
     <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
@@ -39323,7 +39986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9:XFD9 A9">
+  <conditionalFormatting sqref="M10:XFD10">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
@@ -39335,7 +39998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:XFD10 A10">
+  <conditionalFormatting sqref="M11:XFD11 A11">
     <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
@@ -39347,7 +40010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:XFD10">
+  <conditionalFormatting sqref="M11:XFD11">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
@@ -39359,7 +40022,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:XFD11 A11">
+  <conditionalFormatting sqref="M12:XFD12 A12">
     <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
@@ -39371,7 +40034,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11:XFD11">
+  <conditionalFormatting sqref="M12:XFD12">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -39383,7 +40046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:XFD12 A12">
+  <conditionalFormatting sqref="M13:XFD13 A13">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
@@ -39395,7 +40058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:XFD12">
+  <conditionalFormatting sqref="M13:XFD13">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
@@ -39407,7 +40070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:XFD13 A13">
+  <conditionalFormatting sqref="M14:XFD14 A14">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -39419,7 +40082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:XFD13">
+  <conditionalFormatting sqref="M14:XFD14">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
@@ -39431,7 +40094,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:XFD14 A14">
+  <conditionalFormatting sqref="M15:XFD15 A15">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -39443,7 +40106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:XFD14">
+  <conditionalFormatting sqref="M15:XFD15">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -39455,7 +40118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:XFD15 A15">
+  <conditionalFormatting sqref="M16:XFD16 A16">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -39467,7 +40130,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:XFD15">
+  <conditionalFormatting sqref="M16:XFD16">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -39479,7 +40142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:XFD16 A16">
+  <conditionalFormatting sqref="M17:XFD17 A17">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -39491,7 +40154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:XFD16">
+  <conditionalFormatting sqref="M17:XFD17">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -39503,7 +40166,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:XFD17 A17">
+  <conditionalFormatting sqref="M18:XFD18 A18">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -39515,7 +40178,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:XFD17">
+  <conditionalFormatting sqref="M18:XFD18">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -39527,7 +40190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18:XFD18 A18">
+  <conditionalFormatting sqref="M19:XFD19 A19">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -39539,7 +40202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18:XFD18">
+  <conditionalFormatting sqref="M19:XFD19">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -39551,7 +40214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19:XFD19 A19">
+  <conditionalFormatting sqref="M20:XFD20 A20">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -39563,7 +40226,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M19:XFD19">
+  <conditionalFormatting sqref="M20:XFD20">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -39575,7 +40238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:XFD20 A20">
+  <conditionalFormatting sqref="M21:XFD21 A21">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -39587,7 +40250,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M20:XFD20">
+  <conditionalFormatting sqref="M21:XFD21">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -39599,7 +40262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:XFD21 A21">
+  <conditionalFormatting sqref="M22:XFD22 A22">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -39611,7 +40274,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M21:XFD21">
+  <conditionalFormatting sqref="M22:XFD22">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -39623,7 +40286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:XFD22 A22">
+  <conditionalFormatting sqref="M23:XFD23 A23">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -39635,7 +40298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22:XFD22">
+  <conditionalFormatting sqref="M23:XFD23">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -39647,7 +40310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M23:XFD23 A23">
+  <conditionalFormatting sqref="M24:XFD24 A24">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -39659,7 +40322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M23:XFD23">
+  <conditionalFormatting sqref="M24:XFD24">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -39671,7 +40334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:XFD24 A24">
+  <conditionalFormatting sqref="M25:XFD25 A25">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -39683,7 +40346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24:XFD24">
+  <conditionalFormatting sqref="M25:XFD25">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -39695,7 +40358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25:XFD25 A25">
+  <conditionalFormatting sqref="M26:XFD26 A26">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -39707,7 +40370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M25:XFD25">
+  <conditionalFormatting sqref="M26:XFD26">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -39719,7 +40382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:XFD26 A26">
+  <conditionalFormatting sqref="M27:XFD27 A27">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -39731,7 +40394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:XFD26">
+  <conditionalFormatting sqref="M27:XFD27">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -39743,7 +40406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27:XFD27 A27">
+  <conditionalFormatting sqref="M28:XFD28 A28">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -39755,7 +40418,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27:XFD27">
+  <conditionalFormatting sqref="M28:XFD28">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -39767,7 +40430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M28:XFD28 A28">
+  <conditionalFormatting sqref="M29:XFD29 A29">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -39779,7 +40442,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M28:XFD28">
+  <conditionalFormatting sqref="M29:XFD29">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -39791,7 +40454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29:XFD29 A29">
+  <conditionalFormatting sqref="M30:XFD30 A30">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -39803,7 +40466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29:XFD29">
+  <conditionalFormatting sqref="M30:XFD30">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -39815,7 +40478,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M30:XFD30 A30">
+  <conditionalFormatting sqref="M31:XFD31 A31">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -39827,7 +40490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M30:XFD30">
+  <conditionalFormatting sqref="M31:XFD31">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -39839,7 +40502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M31:XFD31 A31">
+  <conditionalFormatting sqref="M32:XFD32 A32">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -39851,7 +40514,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M31:XFD31">
+  <conditionalFormatting sqref="M32:XFD32">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -39863,7 +40526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32:XFD32 A32">
+  <conditionalFormatting sqref="M33:XFD33 A33">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -39875,7 +40538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32:XFD32">
+  <conditionalFormatting sqref="M33:XFD33">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -39887,7 +40550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:XFD33 A33">
+  <conditionalFormatting sqref="B9:L9">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -39899,7 +40562,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:XFD33">
+  <conditionalFormatting sqref="I10:L10 G10">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -39911,7 +40574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:L9">
+  <conditionalFormatting sqref="G10:L10">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -39923,7 +40586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:L10 G10">
+  <conditionalFormatting sqref="B10:L10">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -39935,7 +40598,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:L10">
+  <conditionalFormatting sqref="I11:L11 G11">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -39947,7 +40610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:L10">
+  <conditionalFormatting sqref="G11:L11">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -39959,7 +40622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:L11 G11">
+  <conditionalFormatting sqref="B11:L11">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -39971,7 +40634,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:L11">
+  <conditionalFormatting sqref="I12:L12 G12">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -39983,7 +40646,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:L11">
+  <conditionalFormatting sqref="G12:L12">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -39995,7 +40658,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:L12 G12">
+  <conditionalFormatting sqref="B12:L12">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -40007,7 +40670,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12:L12">
+  <conditionalFormatting sqref="I13:L13 G13">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -40019,7 +40682,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:L12">
+  <conditionalFormatting sqref="G13:L13">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -40031,7 +40694,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:L13 G13">
+  <conditionalFormatting sqref="B13:L13">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -40043,7 +40706,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:L13">
+  <conditionalFormatting sqref="I14:L14 G14">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -40055,7 +40718,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:L13">
+  <conditionalFormatting sqref="G14:L14">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -40067,7 +40730,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:L14 G14">
+  <conditionalFormatting sqref="B14:L14">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -40079,7 +40742,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:L14">
+  <conditionalFormatting sqref="I15:L15 G15">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -40091,7 +40754,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:L14">
+  <conditionalFormatting sqref="G15:L15">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -40103,7 +40766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:L15 G15">
+  <conditionalFormatting sqref="B15:L15">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -40115,7 +40778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:L15">
+  <conditionalFormatting sqref="I16:L16 G16">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -40127,7 +40790,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:L15">
+  <conditionalFormatting sqref="G16:L16">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -40139,7 +40802,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:L16 G16">
+  <conditionalFormatting sqref="B16:L16">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -40151,7 +40814,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:L16">
+  <conditionalFormatting sqref="I17:L17 G17">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -40163,7 +40826,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:L16">
+  <conditionalFormatting sqref="G17:L17">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -40175,7 +40838,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:L17 G17">
+  <conditionalFormatting sqref="B17:L17">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -40187,7 +40850,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:L17">
+  <conditionalFormatting sqref="I18:L18 G18">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -40199,7 +40862,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:L17">
+  <conditionalFormatting sqref="G18:L18">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -40211,7 +40874,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:L18 G18">
+  <conditionalFormatting sqref="B18:L18">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -40223,7 +40886,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:L18">
+  <conditionalFormatting sqref="I19:L19 G19">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -40235,7 +40898,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:L18">
+  <conditionalFormatting sqref="G19:L19">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -40247,7 +40910,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:L19 G19">
+  <conditionalFormatting sqref="B19:L19">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -40259,7 +40922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:L19">
+  <conditionalFormatting sqref="I20:L20 G20">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -40271,7 +40934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:L19">
+  <conditionalFormatting sqref="G20:L20">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -40283,7 +40946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:L20 G20">
+  <conditionalFormatting sqref="B20:L20">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -40295,7 +40958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:L20">
+  <conditionalFormatting sqref="I21:L21 G21">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -40307,7 +40970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:L20">
+  <conditionalFormatting sqref="G21:L21">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -40319,7 +40982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:L21 G21">
+  <conditionalFormatting sqref="B21:L21">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -40331,7 +40994,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:L21">
+  <conditionalFormatting sqref="I22:L22 G22">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -40343,7 +41006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:L21">
+  <conditionalFormatting sqref="G22:L22">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -40355,7 +41018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:L22 G22">
+  <conditionalFormatting sqref="B22:L22">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -40367,7 +41030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:L22">
+  <conditionalFormatting sqref="I23:L23 G23">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -40379,7 +41042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:L22">
+  <conditionalFormatting sqref="G23:L23">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -40391,7 +41054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23:L23 G23">
+  <conditionalFormatting sqref="B23:L23">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -40403,7 +41066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:L23">
+  <conditionalFormatting sqref="I24:L24 G24">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -40415,7 +41078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:L23">
+  <conditionalFormatting sqref="G24:L24">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -40427,7 +41090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:L24 G24">
+  <conditionalFormatting sqref="B24:L24">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -40439,7 +41102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:L24">
+  <conditionalFormatting sqref="I25:L25 G25">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -40451,7 +41114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:L24">
+  <conditionalFormatting sqref="G25:L25">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -40463,7 +41126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:L25 G25">
+  <conditionalFormatting sqref="B25:L25">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -40475,7 +41138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:L25">
+  <conditionalFormatting sqref="I26:L26 G26">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -40487,7 +41150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:L25">
+  <conditionalFormatting sqref="G26:L26">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -40499,7 +41162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:L26 G26">
+  <conditionalFormatting sqref="B26:L26">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -40511,7 +41174,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26:L26">
+  <conditionalFormatting sqref="I27:L27 G27">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -40523,7 +41186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:L26">
+  <conditionalFormatting sqref="G27:L27">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -40535,7 +41198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27:L27 G27">
+  <conditionalFormatting sqref="B27:L27">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -40547,7 +41210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:L27">
+  <conditionalFormatting sqref="I28:L28 G28">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -40559,7 +41222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:L27">
+  <conditionalFormatting sqref="G28:L28">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -40571,7 +41234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:L28 G28">
+  <conditionalFormatting sqref="B28:L28">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -40583,32 +41246,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:L28">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:L28">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40620,6 +41259,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31:L31 G31">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:L31">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -40631,7 +41294,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:L31 G31">
+  <conditionalFormatting sqref="B31:D31 F31:L31">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -40643,7 +41306,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31:L31">
+  <conditionalFormatting sqref="I32:L32 G32">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -40655,7 +41318,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:D31 F31:L31">
+  <conditionalFormatting sqref="G32:L32">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -40667,7 +41330,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:L32 G32">
+  <conditionalFormatting sqref="B32:D32 F32:L32">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -40679,7 +41342,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:L32">
+  <conditionalFormatting sqref="I33:L33 G33">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -40691,7 +41354,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:D32 F32:L32">
+  <conditionalFormatting sqref="G33:L33">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -40703,7 +41366,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:L33 G33">
+  <conditionalFormatting sqref="B33:L33">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -40715,32 +41378,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:L33">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:L33">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B36:L36">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40752,7 +41391,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:L37">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -40764,6 +41403,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:L38">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:L42">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -40775,7 +41426,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:L41">
+  <conditionalFormatting sqref="B43:L43">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:L44">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -40787,7 +41450,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:L42">
+  <conditionalFormatting sqref="I29:L29 G29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -40799,7 +41462,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:L43">
+  <conditionalFormatting sqref="G29:L29">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -40811,7 +41474,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29:L29 G29">
+  <conditionalFormatting sqref="B29:L29">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -40823,7 +41486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:L29">
+  <conditionalFormatting sqref="I30:L30 G30">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -40835,7 +41498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:L29">
+  <conditionalFormatting sqref="G30:L30">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -40847,7 +41510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:L30 G30">
+  <conditionalFormatting sqref="B30:L30">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -40859,31 +41522,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:L30">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:L30">
+  <conditionalFormatting sqref="B42:L42">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:L41">
+  <conditionalFormatting sqref="B45:L45">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:L39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -42171,10 +42834,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1095FF35-A1CE-4BC9-AC72-9E261534A29A}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N40" sqref="A1:N40"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42204,23 +42867,23 @@
     <col min="24" max="24" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -42282,13 +42945,13 @@
       <c r="E3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="31" t="s">
         <v>138</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="31" t="s">
         <v>138</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -42458,7 +43121,7 @@
       <c r="E7" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="31" t="s">
         <v>158</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -42555,10 +43218,10 @@
       <c r="H9" s="3">
         <v>910787.63</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="27">
         <v>0</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="27">
         <v>0</v>
       </c>
       <c r="K9" s="3">
@@ -42567,10 +43230,10 @@
       <c r="L9" s="3">
         <v>1291706.26</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="27">
         <v>0</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="27">
         <v>0</v>
       </c>
     </row>
@@ -42643,10 +43306,10 @@
       <c r="H11" s="3">
         <v>860322.4</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="27">
         <v>0</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="27">
         <v>0</v>
       </c>
       <c r="K11" s="3">
@@ -42655,10 +43318,10 @@
       <c r="L11" s="3">
         <v>1747787.56</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="27">
         <v>0</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="27">
         <v>0</v>
       </c>
     </row>
@@ -42731,10 +43394,10 @@
       <c r="H13" s="3">
         <v>2739371.71</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="27">
         <v>0</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13" s="27">
         <v>0</v>
       </c>
       <c r="K13" s="3">
@@ -42743,10 +43406,10 @@
       <c r="L13" s="3">
         <v>5263408.78</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="27">
         <v>0</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="27">
         <v>0</v>
       </c>
     </row>
@@ -42819,10 +43482,10 @@
       <c r="H15" s="3">
         <v>5061314.3</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="27">
         <v>0</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="27">
         <v>0</v>
       </c>
       <c r="K15" s="3">
@@ -42831,10 +43494,10 @@
       <c r="L15" s="3">
         <v>9048142.3699999992</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="27">
         <v>0</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="27">
         <v>0</v>
       </c>
     </row>
@@ -42907,10 +43570,10 @@
       <c r="H17" s="3">
         <v>426541.32</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="27">
         <v>0</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="27">
         <v>0</v>
       </c>
       <c r="K17" s="3">
@@ -42919,10 +43582,10 @@
       <c r="L17" s="3">
         <v>1712199.61</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="27">
         <v>0</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="27">
         <v>0</v>
       </c>
     </row>
@@ -42995,10 +43658,10 @@
       <c r="H19" s="3">
         <v>63.77</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="27">
         <v>0</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="27">
         <v>0</v>
       </c>
       <c r="K19" s="3">
@@ -43007,10 +43670,10 @@
       <c r="L19" s="3">
         <v>128.13</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="27">
         <v>0</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="27">
         <v>0</v>
       </c>
     </row>
@@ -43083,10 +43746,10 @@
       <c r="H21" s="3">
         <v>79.28</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="27">
         <v>0</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="27">
         <v>0</v>
       </c>
       <c r="K21" s="3">
@@ -43095,10 +43758,10 @@
       <c r="L21" s="3">
         <v>121.51</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="27">
         <v>0</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="27">
         <v>0</v>
       </c>
     </row>
@@ -43171,10 +43834,10 @@
       <c r="H23" s="3">
         <v>14.49</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="27">
         <v>0</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="27">
         <v>0</v>
       </c>
       <c r="K23" s="3">
@@ -43183,10 +43846,10 @@
       <c r="L23" s="3">
         <v>25.54</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="27">
         <v>0</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="27">
         <v>0</v>
       </c>
       <c r="P23">
@@ -43263,10 +43926,10 @@
       <c r="H25" s="3">
         <v>109.28</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I25" s="27">
         <v>0</v>
       </c>
-      <c r="J25" s="29">
+      <c r="J25" s="27">
         <v>0</v>
       </c>
       <c r="K25" s="3">
@@ -43275,10 +43938,10 @@
       <c r="L25" s="3">
         <v>171.88</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="27">
         <v>0</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="27">
         <v>0</v>
       </c>
       <c r="P25">
@@ -43355,10 +44018,10 @@
       <c r="H27" s="3">
         <v>133.75</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="27">
         <v>0</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="27">
         <v>0</v>
       </c>
       <c r="K27" s="3">
@@ -43367,10 +44030,10 @@
       <c r="L27" s="3">
         <v>246.47</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="27">
         <v>0</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27" s="27">
         <v>0</v>
       </c>
       <c r="P27">
@@ -43447,10 +44110,10 @@
       <c r="H29" s="3">
         <v>12.01</v>
       </c>
-      <c r="I29" s="29">
+      <c r="I29" s="27">
         <v>0</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="27">
         <v>0</v>
       </c>
       <c r="K29" s="3">
@@ -43459,10 +44122,10 @@
       <c r="L29" s="3">
         <v>20.92</v>
       </c>
-      <c r="M29" s="29">
+      <c r="M29" s="27">
         <v>0</v>
       </c>
-      <c r="N29" s="29">
+      <c r="N29" s="27">
         <v>0</v>
       </c>
       <c r="P29">
@@ -43539,10 +44202,10 @@
       <c r="H31" s="3">
         <v>253821.85</v>
       </c>
-      <c r="I31" s="29">
+      <c r="I31" s="27">
         <v>0</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="27">
         <v>0</v>
       </c>
       <c r="K31" s="3">
@@ -43551,10 +44214,10 @@
       <c r="L31" s="3">
         <v>896812.92</v>
       </c>
-      <c r="M31" s="29">
+      <c r="M31" s="27">
         <v>0</v>
       </c>
-      <c r="N31" s="29">
+      <c r="N31" s="27">
         <v>0</v>
       </c>
     </row>
@@ -43647,22 +44310,22 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -43725,55 +44388,55 @@
       <c r="A37" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="39">
         <f>1/B38</f>
         <v>30.307254068165278</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="39">
         <f t="shared" ref="C37:N37" si="1">1/C38</f>
         <v>12.665906958295048</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="39">
         <f t="shared" si="1"/>
         <v>15.659830711368096</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="39">
         <f t="shared" si="1"/>
         <v>9.1185368594631822</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="39">
         <f t="shared" si="1"/>
         <v>7.4800038776752871</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="39">
         <f t="shared" si="1"/>
         <v>7.8357134712130483</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="39">
         <f t="shared" si="1"/>
         <v>5.6208024284177283</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="39">
         <f t="shared" si="1"/>
         <v>6.3938949516804513</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="39">
         <f t="shared" si="1"/>
         <v>6.6630890019127325</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="39">
         <f t="shared" si="1"/>
         <v>2.9294619601689589</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="39">
         <f t="shared" si="1"/>
         <v>1.321998297690155</v>
       </c>
-      <c r="M37" s="21">
+      <c r="M37" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N37" s="21">
+      <c r="N37" s="39">
         <f t="shared" si="1"/>
         <v>1.0178059809754842</v>
       </c>
@@ -43893,12 +44556,69 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F40" s="36">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="38">
+        <f>1/B39</f>
+        <v>4.456949127671364</v>
+      </c>
+      <c r="C40" s="38">
+        <f t="shared" ref="C40:N40" si="4">1/C39</f>
+        <v>3.6693877511531245</v>
+      </c>
+      <c r="D40" s="38">
+        <f t="shared" si="4"/>
+        <v>3.4543744216253152</v>
+      </c>
+      <c r="E40" s="38">
+        <f t="shared" si="4"/>
+        <v>3.4864993874418047</v>
+      </c>
+      <c r="F40" s="38">
+        <f t="shared" si="4"/>
+        <v>2.6400013685912778</v>
+      </c>
+      <c r="G40" s="38">
+        <f t="shared" si="4"/>
+        <v>3.572163494229478</v>
+      </c>
+      <c r="H40" s="38">
+        <f t="shared" si="4"/>
+        <v>2.5624246364845527</v>
+      </c>
+      <c r="I40" s="38">
+        <f t="shared" si="4"/>
+        <v>2.1664020542164351</v>
+      </c>
+      <c r="J40" s="38">
+        <f t="shared" si="4"/>
+        <v>3.9194641187721961</v>
+      </c>
+      <c r="K40" s="38">
+        <f t="shared" si="4"/>
+        <v>2.412498084845025</v>
+      </c>
+      <c r="L40" s="38">
+        <f t="shared" si="4"/>
+        <v>1.0109398747042362</v>
+      </c>
+      <c r="M40" s="38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="38">
+        <f t="shared" si="4"/>
+        <v>0.80825769077464926</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F41" s="32">
         <f>(E37/F37)-1</f>
         <v>0.21905509790953959</v>
       </c>
-      <c r="G40" s="37"/>
-      <c r="H40" s="36">
+      <c r="G41" s="33"/>
+      <c r="H41" s="32">
         <f>(G37/H37)-1</f>
         <v>0.39405602153833819</v>
       </c>
@@ -43910,7 +44630,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I8:J8 L8:N8">
-    <cfRule type="colorScale" priority="329">
+    <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -43922,6 +44642,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:N8">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -43933,7 +44665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+  <conditionalFormatting sqref="B9:H9 K9:L9">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -43945,7 +44677,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:H9 K9:L9">
+  <conditionalFormatting sqref="I10:J10 L10:N10">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -43957,7 +44689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J10 L10:N10">
+  <conditionalFormatting sqref="B10:N10">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -43969,7 +44701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:N10">
+  <conditionalFormatting sqref="L11">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -43981,7 +44713,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
+  <conditionalFormatting sqref="B11:H11 K11:L11">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -43993,7 +44725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:H11 K11:L11">
+  <conditionalFormatting sqref="I12:J12 L12:N12">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -44005,7 +44737,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:J12 L12:N12">
+  <conditionalFormatting sqref="B12:N12">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -44017,7 +44749,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:N12">
+  <conditionalFormatting sqref="L13">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -44029,7 +44761,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="B13:H13 K13:L13">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -44041,7 +44773,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:H13 K13:L13">
+  <conditionalFormatting sqref="I14:J14 L14:N14">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -44053,7 +44785,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:J14 L14:N14">
+  <conditionalFormatting sqref="B14:N14">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -44065,7 +44797,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:N14">
+  <conditionalFormatting sqref="L15">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -44077,7 +44809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+  <conditionalFormatting sqref="B15:H15 K15:L15">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -44089,7 +44821,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:H15 K15:L15">
+  <conditionalFormatting sqref="I16:J16 L16:N16">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -44101,7 +44833,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:J16 L16:N16">
+  <conditionalFormatting sqref="B16:N16">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -44113,7 +44845,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:N16">
+  <conditionalFormatting sqref="L17">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -44125,7 +44857,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="B17:H17 K17:L17">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -44137,7 +44869,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:H17 K17:L17">
+  <conditionalFormatting sqref="I18:J18 L18:N18">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -44149,7 +44881,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:J18 L18:N18">
+  <conditionalFormatting sqref="B18:N18">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -44161,7 +44893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:N18">
+  <conditionalFormatting sqref="L19">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -44173,7 +44905,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
+  <conditionalFormatting sqref="B19:H19 K19:L19">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -44185,7 +44917,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:H19 K19:L19">
+  <conditionalFormatting sqref="I20:J20 L20:N20">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -44197,7 +44929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:J20 L20:N20">
+  <conditionalFormatting sqref="B20:N20">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -44209,7 +44941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:N20">
+  <conditionalFormatting sqref="L21">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -44221,7 +44953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="B21:H21 K21:L21">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -44233,7 +44965,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:H21 K21:L21">
+  <conditionalFormatting sqref="I22:J22 L22:N22">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -44245,7 +44977,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:J22 L22:N22">
+  <conditionalFormatting sqref="B22:N22">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -44257,7 +44989,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:N22">
+  <conditionalFormatting sqref="L23">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -44269,7 +45001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
+  <conditionalFormatting sqref="B23:H23 K23:L23">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -44281,7 +45013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:H23 K23:L23">
+  <conditionalFormatting sqref="I24:J24 L24:N24">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -44293,7 +45025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:J24 L24:N24">
+  <conditionalFormatting sqref="B24:N24">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -44305,7 +45037,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:N24">
+  <conditionalFormatting sqref="L25">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -44317,7 +45049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+  <conditionalFormatting sqref="B25:H25 K25:L25">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -44329,7 +45061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:H25 K25:L25">
+  <conditionalFormatting sqref="I26:J26 L26:N26">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -44341,7 +45073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:J26 L26:N26">
+  <conditionalFormatting sqref="B26:N26">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -44353,7 +45085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:N26">
+  <conditionalFormatting sqref="L27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -44365,7 +45097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
+  <conditionalFormatting sqref="B27:H27 K27:L27">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -44377,7 +45109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:H27 K27:L27">
+  <conditionalFormatting sqref="I28:J28 L28:N28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -44389,7 +45121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:J28 L28:N28">
+  <conditionalFormatting sqref="B28:N28">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -44401,7 +45133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:N28">
+  <conditionalFormatting sqref="L29">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -44413,7 +45145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="B29:H29 K29:L29">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -44425,7 +45157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:H29 K29:L29">
+  <conditionalFormatting sqref="I30:J30 L30:N30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -44437,7 +45169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:J30 L30:N30">
+  <conditionalFormatting sqref="B30:N30">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -44449,7 +45181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:N30">
+  <conditionalFormatting sqref="L31">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -44461,7 +45193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
+  <conditionalFormatting sqref="B31:H31 K31:L31">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -44473,7 +45205,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:H31 K31:L31">
+  <conditionalFormatting sqref="I32:J32 L32:N32">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -44485,7 +45217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:J32 L32:N32">
+  <conditionalFormatting sqref="B32:N32">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -44497,20 +45229,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:N32">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="iconSet" priority="5">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="4RedToBlack">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="25"/>
@@ -44520,7 +45240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:N37">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44532,6 +45252,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:N38">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:N39">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -44543,7 +45275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:N39">
+  <conditionalFormatting sqref="B36:N36">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -44555,15 +45287,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:N36">
+  <conditionalFormatting sqref="B40:N40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -46001,10 +46733,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6943B46B-7DC1-42AB-B08E-6206B3D08DF1}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46034,24 +46766,24 @@
     <col min="23" max="23" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -46116,13 +46848,13 @@
       <c r="E3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="31" t="s">
         <v>138</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="31" t="s">
         <v>138</v>
       </c>
       <c r="I3" s="14" t="s">
@@ -46219,25 +46951,25 @@
       <c r="H5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="25" t="s">
         <v>96</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="25" t="s">
         <v>186</v>
       </c>
     </row>
@@ -46266,25 +46998,25 @@
       <c r="H6" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="25" t="s">
         <v>57</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="25" t="s">
         <v>56</v>
       </c>
     </row>
@@ -46304,7 +47036,7 @@
       <c r="E7" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="29" t="s">
         <v>158</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -46313,7 +47045,7 @@
       <c r="H7" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="22">
         <v>1</v>
       </c>
       <c r="J7" s="14" t="s">
@@ -46339,46 +47071,46 @@
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <v>1042200</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>0</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="24">
         <v>911016</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="24">
         <v>819832</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="24">
         <v>1043720</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>819352</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>1042848</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <v>600536</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="24">
         <v>820040</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="24">
         <v>910328</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="24">
         <v>762584</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="24">
         <v>922704</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="24">
         <v>999032</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="24">
         <v>822640</v>
       </c>
     </row>
@@ -46386,46 +47118,46 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="23">
         <v>142719.59</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="23">
         <v>319560.17</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="23">
         <v>383991.32</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <v>617263.05000000005</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="23">
         <v>384343.89</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="23">
         <v>749256.74</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="23">
         <v>465076.93</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="23">
         <v>178783.97</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="23">
         <v>450323.43</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="23">
         <v>729296.64</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="23">
         <v>1137386.1200000001</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="23">
         <v>2173444.16</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="23">
         <v>2267184.86</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="23">
         <v>2179780.4300000002</v>
       </c>
     </row>
@@ -46433,46 +47165,46 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <v>36318.5</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="23">
         <v>89813.61</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="23">
         <v>181949.77</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <v>286350.25</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="23">
         <v>114181.32</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="23">
         <v>324610.74</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <v>134177.15</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="23">
         <v>50534.36</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="23">
         <v>221437.45</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="23">
         <v>256723.48</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="23">
         <v>509040.06</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="23">
         <v>1302354.33</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="23">
         <v>860180.42</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="23">
         <v>1361139.41</v>
       </c>
     </row>
@@ -46480,46 +47212,46 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="23">
         <v>303213.7</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="23">
         <v>634800.4</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>1149620.29</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <v>1659325.34</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="23">
         <v>726704.27</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="23">
         <v>1931974.93</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="23">
         <v>876784.95</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>396104.81</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="23">
         <v>1575234.52</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="23">
         <v>2631036.85</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="23">
         <v>5817901.3700000001</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="23">
         <v>15927623.800000001</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="23">
         <v>6820440.5199999996</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="23">
         <v>10520494.07</v>
       </c>
     </row>
@@ -46527,46 +47259,46 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <v>420612.72</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="23">
         <v>767508.47</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="23">
         <v>1041343.04</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <v>1817852.75</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="23">
         <v>716329.48</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="23">
         <v>2154097.36</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="23">
         <v>882191.14</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="23">
         <v>620425.44999999995</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="23">
         <v>1553030.63</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="23">
         <v>2216811.6</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <v>3621300.15</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="23">
         <v>10571385.98</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="23">
         <v>6119118.1799999997</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="23">
         <v>6566458.7699999996</v>
       </c>
     </row>
@@ -46574,46 +47306,46 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="23">
         <v>18702.54</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="23">
         <v>44317.84</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="23">
         <v>88912.44</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="23">
         <v>148213.59</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="23">
         <v>52147.26</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="23">
         <v>145364.68</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="23">
         <v>61546.62</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="23">
         <v>25724.06</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="23">
         <v>110947.27</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="23">
         <v>158212.78</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="23">
         <v>184990.53</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="23">
         <v>500103.5</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="23">
         <v>230714.99</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="23">
         <v>181838.74</v>
       </c>
     </row>
@@ -46621,46 +47353,46 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <v>6.45</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="23">
         <v>10.74</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="23">
         <v>19.309999999999999</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="23">
         <v>30.7</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="23">
         <v>11.34</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="23">
         <v>35.72</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="23">
         <v>14.01</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="23">
         <v>4.71</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="23">
         <v>37.4</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="23">
         <v>52.69</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="23">
         <v>62.38</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="23">
         <v>243.83</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="23">
         <v>79.959999999999994</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="23">
         <v>230.96</v>
       </c>
     </row>
@@ -46668,46 +47400,46 @@
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="23">
         <v>4.32</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="23">
         <v>7.31</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="23">
         <v>12.14</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="23">
         <v>20.91</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="23">
         <v>8.1300000000000008</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="23">
         <v>24.12</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="23">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="23">
         <v>3.28</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="23">
         <v>18.559999999999999</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="23">
         <v>25.61</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="23">
         <v>25.14</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="23">
         <v>113.67</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="23">
         <v>24.96</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="23">
         <v>134.79</v>
       </c>
     </row>
@@ -46715,46 +47447,46 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="23">
         <v>0.82</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="23">
         <v>1.61</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="23">
         <v>2.59</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <v>3.93</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="23">
         <v>1.54</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="23">
         <v>4.62</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="23">
         <v>1.97</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="23">
         <v>1.3</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="23">
         <v>3.76</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="23">
         <v>6.13</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="23">
         <v>13.09</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="23">
         <v>29.56</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="23">
         <v>14.58</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="23">
         <v>19.829999999999998</v>
       </c>
     </row>
@@ -46762,46 +47494,46 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="23">
         <v>3.63</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="23">
         <v>9.26</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>19.16</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <v>29.23</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="23">
         <v>7.2</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="23">
         <v>34.200000000000003</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="23">
         <v>8.91</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="23">
         <v>4.99</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="23">
         <v>21.82</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="23">
         <v>30.46</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="23">
         <v>58.27</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="23">
         <v>148.27000000000001</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="23">
         <v>73.87</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="23">
         <v>98.99</v>
       </c>
     </row>
@@ -46809,46 +47541,46 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>5.97</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="23">
         <v>12.48</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="23">
         <v>19.98</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <v>33.92</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="23">
         <v>11.46</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="23">
         <v>40</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="23">
         <v>14.29</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="23">
         <v>8.31</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="23">
         <v>29.98</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="23">
         <v>40.46</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="23">
         <v>97.93</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="23">
         <v>197.07</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="23">
         <v>108.57</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18" s="23">
         <v>157.55000000000001</v>
       </c>
     </row>
@@ -46856,46 +47588,46 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="23">
         <v>0.86</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="23">
         <v>1.08</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="23">
         <v>2.29</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <v>3.26</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="23">
         <v>1.41</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="23">
         <v>3.76</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="23">
         <v>1.78</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="23">
         <v>1.23</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="23">
         <v>3.73</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="23">
         <v>5.78</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="23">
         <v>13.84</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="23">
         <v>33.22</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="23">
         <v>13.97</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="23">
         <v>21.76</v>
       </c>
     </row>
@@ -46903,46 +47635,46 @@
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="23">
         <v>34283.550000000003</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="23">
         <v>59558.080000000002</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="23">
         <v>116083.42</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="23">
         <v>183900.25</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="23">
         <v>67243.25</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="23">
         <v>208151.41</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="23">
         <v>77501.570000000007</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="23">
         <v>38454.620000000003</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="23">
         <v>132814.13</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="23">
         <v>164294.12</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="23">
         <v>253137.6</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20" s="23">
         <v>484949.78</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="23">
         <v>579292.15</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20" s="23">
         <v>682330.72</v>
       </c>
     </row>
@@ -46950,46 +47682,46 @@
       <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="23">
         <v>611.84</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="23">
         <v>1209.27</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="23">
         <v>2363.35</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <v>3812.85</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="23">
         <v>1374.27</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="23">
         <v>4105.3599999999997</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="23">
         <v>1609.16</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="23">
         <v>747.45</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="23">
         <v>2859.81</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="23">
         <v>3809.13</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="23">
         <v>5477.32</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="23">
         <v>12720.96</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="23">
         <v>9547.0300000000007</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="23">
         <v>11028.5</v>
       </c>
     </row>
@@ -46997,46 +47729,46 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="23">
         <v>9801959</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="23">
         <v>1779432.31</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="23">
         <v>3494809</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="23">
         <v>2423102</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="23">
         <v>5576106</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="23">
         <v>2115720</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="23">
         <v>4493153</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="23">
         <v>6927020</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="23">
         <v>2290488</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="23">
         <v>1566910</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="23">
         <v>807552</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22" s="23">
         <v>421390</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="23">
         <v>732254</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="23">
         <v>476142</v>
       </c>
     </row>
@@ -47044,59 +47776,59 @@
       <c r="A24" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="38">
         <f>1/B25</f>
-        <v>18.025137290794977</v>
-      </c>
-      <c r="C24" s="2">
+        <v>15.603801647489538</v>
+      </c>
+      <c r="C24" s="38">
         <f t="shared" ref="C24:O24" si="0">1/C25</f>
-        <v>9.1199649375242906</v>
-      </c>
-      <c r="D24" s="2">
+        <v>7.8948704590372714</v>
+      </c>
+      <c r="D24" s="38">
         <f t="shared" si="0"/>
         <v>4.6664692068462141</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="38">
         <f t="shared" si="0"/>
         <v>2.8924557745518444</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="38">
         <f t="shared" si="0"/>
-        <v>8.024987811710945</v>
-      </c>
-      <c r="G24" s="2">
+        <v>6.9469827617571518</v>
+      </c>
+      <c r="G24" s="38">
         <f t="shared" si="0"/>
         <v>2.6863661164916111</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="38">
         <f t="shared" si="0"/>
-        <v>6.853575778667131</v>
-      </c>
-      <c r="I24" s="2">
+        <v>5.9329277386959651</v>
+      </c>
+      <c r="I24" s="38">
         <f t="shared" si="0"/>
-        <v>14.75483309920396</v>
-      </c>
-      <c r="J24" s="2">
+        <v>12.772800856244565</v>
+      </c>
+      <c r="J24" s="38">
         <f t="shared" si="0"/>
         <v>3.8563750738685441</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="38">
         <f t="shared" si="0"/>
         <v>2.8952805496268175</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="38">
         <f t="shared" si="0"/>
         <v>2.0134846968955622</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="38">
         <f t="shared" si="0"/>
         <v>0.86695500968480366</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="38">
         <f t="shared" si="0"/>
         <v>1.1551760076170285</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -47134,15 +47866,15 @@
         <v>195</v>
       </c>
       <c r="B25" s="2">
-        <f>B21/$O$21</f>
-        <v>5.5478079521240425E-2</v>
+        <f>B21/$N$21</f>
+        <v>6.4086946411606546E-2</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:O25" si="1">C21/$O$21</f>
-        <v>0.10964954436233396</v>
+        <f>C21/$N$21</f>
+        <v>0.12666452289350719</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C25:O25" si="1">D21/$O$21</f>
         <v>0.21429478170195401</v>
       </c>
       <c r="E25" s="2">
@@ -47150,20 +47882,20 @@
         <v>0.34572698009702135</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.12461078115790905</v>
+        <f>F21/$N$21</f>
+        <v>0.14394738468403262</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>0.37225007933989207</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.14590923516344018</v>
+        <f>H21/$N$21</f>
+        <v>0.16855084775055698</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="1"/>
-        <v>6.7774402683955209E-2</v>
+        <f>I21/$N$21</f>
+        <v>7.82913639110802E-2</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="1"/>
@@ -47196,11 +47928,11 @@
       </c>
       <c r="B26" s="2">
         <f>B25/(B4/$O$4)</f>
-        <v>0.37725094074443488</v>
+        <v>0.43579123559892452</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ref="C26:O26" si="2">C25/(C4/$O$4)</f>
-        <v>0.37848573688521364</v>
+        <v>0.43721764247505013</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="2"/>
@@ -47212,7 +47944,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="2"/>
-        <v>0.35306387994740895</v>
+        <v>0.40785092327142575</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="2"/>
@@ -47220,11 +47952,11 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" si="2"/>
-        <v>0.32005896745528811</v>
+        <v>0.36972444022702822</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="2"/>
-        <v>0.2304329691254477</v>
+        <v>0.26619063729767267</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="2"/>
@@ -47248,6 +47980,67 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="38">
+        <f>1/B26</f>
+        <v>2.2946767128661087</v>
+      </c>
+      <c r="C27" s="38">
+        <f t="shared" ref="C27:O27" si="3">1/C26</f>
+        <v>2.2871904123975626</v>
+      </c>
+      <c r="D27" s="38">
+        <f t="shared" si="3"/>
+        <v>1.0293682073925472</v>
+      </c>
+      <c r="E27" s="38">
+        <f t="shared" si="3"/>
+        <v>1.105938972622764</v>
+      </c>
+      <c r="F27" s="38">
+        <f t="shared" si="3"/>
+        <v>2.4518762688554654</v>
+      </c>
+      <c r="G27" s="38">
+        <f t="shared" si="3"/>
+        <v>1.2246669060476463</v>
+      </c>
+      <c r="H27" s="38">
+        <f t="shared" si="3"/>
+        <v>2.7047170573466901</v>
+      </c>
+      <c r="I27" s="38">
+        <f t="shared" si="3"/>
+        <v>3.756706134189578</v>
+      </c>
+      <c r="J27" s="38">
+        <f t="shared" si="3"/>
+        <v>1.3066306132636949</v>
+      </c>
+      <c r="K27" s="38">
+        <f t="shared" si="3"/>
+        <v>1.7031062056628339</v>
+      </c>
+      <c r="L27" s="38">
+        <f t="shared" si="3"/>
+        <v>1.6581638680316393</v>
+      </c>
+      <c r="M27" s="38">
+        <f t="shared" si="3"/>
+        <v>0.6629655956413204</v>
+      </c>
+      <c r="N27" s="38">
+        <f t="shared" si="3"/>
+        <v>1.1551760076170285</v>
+      </c>
+      <c r="O27" s="38">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -47257,7 +48050,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I9:K9 M9:O9">
-    <cfRule type="colorScale" priority="918">
+    <cfRule type="colorScale" priority="919">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47269,6 +48062,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:O9">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:K10 M10:O10">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -47280,7 +48085,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:K10 M10:O10">
+  <conditionalFormatting sqref="B10:O10">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -47292,7 +48097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:O10">
+  <conditionalFormatting sqref="I11:K11 M11:O11">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -47304,7 +48109,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:K11 M11:O11">
+  <conditionalFormatting sqref="B11:O11">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -47316,7 +48121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:O11">
+  <conditionalFormatting sqref="I12:K12 M12:O12">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -47328,7 +48133,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:K12 M12:O12">
+  <conditionalFormatting sqref="B12:O12">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -47340,7 +48145,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:O12">
+  <conditionalFormatting sqref="I13:K13 M13:O13">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -47352,7 +48157,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13:K13 M13:O13">
+  <conditionalFormatting sqref="B13:O13">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -47364,7 +48169,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:O13">
+  <conditionalFormatting sqref="I14:K14 M14:O14">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -47376,7 +48181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:K14 M14:O14">
+  <conditionalFormatting sqref="B14:O14">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -47388,7 +48193,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:O14">
+  <conditionalFormatting sqref="I15:K15 M15:O15">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -47400,7 +48205,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:K15 M15:O15">
+  <conditionalFormatting sqref="B15:O15">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -47412,7 +48217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:O15">
+  <conditionalFormatting sqref="I16:K16 M16:O16">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -47424,7 +48229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:K16 M16:O16">
+  <conditionalFormatting sqref="B16:O16">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -47436,7 +48241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:O16">
+  <conditionalFormatting sqref="I17:K17 M17:O17">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -47448,7 +48253,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:K17 M17:O17">
+  <conditionalFormatting sqref="B17:O17">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -47460,7 +48265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:O17">
+  <conditionalFormatting sqref="I18:K18 M18:O18">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -47472,7 +48277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:K18 M18:O18">
+  <conditionalFormatting sqref="B18:O18">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -47484,7 +48289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:O18">
+  <conditionalFormatting sqref="I19:K19 M19:O19">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -47496,7 +48301,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:K19 M19:O19">
+  <conditionalFormatting sqref="B19:O19">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -47508,7 +48313,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:O19">
+  <conditionalFormatting sqref="I20:K20 M20:O20">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -47520,7 +48325,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:K20 M20:O20">
+  <conditionalFormatting sqref="B20:O20">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -47532,7 +48337,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:O20">
+  <conditionalFormatting sqref="I21:K21 M21:O21">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -47544,7 +48349,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21:K21 M21:O21">
+  <conditionalFormatting sqref="B21:O21">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -47556,20 +48361,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:O21">
+  <conditionalFormatting sqref="B24:O24">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:O24">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -47581,6 +48374,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:O25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:O26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -47592,15 +48397,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:O26">
+  <conditionalFormatting sqref="B27:O27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -48657,25 +49462,25 @@
     <col min="16" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -48743,13 +49548,13 @@
       <c r="E3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="31" t="s">
         <v>177</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="31" t="s">
         <v>177</v>
       </c>
       <c r="I3" s="11" t="s">

--- a/results/compare-color.xlsx
+++ b/results/compare-color.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyWork\SimpleNetBenchmark\SimpleNetBenchmark\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7F57F7-B013-44DA-8493-8ECEC80A8816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8BBCDF-09A6-48FE-B005-0119D10C362C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28470" windowHeight="14610" tabRatio="756" activeTab="6" xr2:uid="{6D5D6AF7-C440-418D-AE3B-EB5F9AC8D2BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28470" windowHeight="14610" tabRatio="756" activeTab="13" xr2:uid="{6D5D6AF7-C440-418D-AE3B-EB5F9AC8D2BD}"/>
   </bookViews>
   <sheets>
     <sheet name="js-transpose" sheetId="13" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="dotnet-transpose" sheetId="11" r:id="rId11"/>
     <sheet name="dotnet" sheetId="1" r:id="rId12"/>
     <sheet name="All lang" sheetId="9" r:id="rId13"/>
+    <sheet name="Lang Compare" sheetId="19" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="11" hidden="1">dotnet!$A$1:$AG$16</definedName>
@@ -100,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="223">
   <si>
     <t>Cpu</t>
   </si>
@@ -732,7 +733,43 @@
     <t>Single threaded Slower than Core i7 2600 same freq</t>
   </si>
   <si>
+    <t>Relative Core i7 2600 same freq</t>
+  </si>
+  <si>
     <t>Slower than Core i7 2600 same freq</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Php</t>
+  </si>
+  <si>
+    <t>Lua</t>
+  </si>
+  <si>
+    <t>Single-thread</t>
+  </si>
+  <si>
+    <t>Multi-thread</t>
+  </si>
+  <si>
+    <t>Elbrus 8C 1300 RTC</t>
+  </si>
+  <si>
+    <t>Elbrus 8CB 1550 RTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Core i7-2600 </t>
+  </si>
+  <si>
+    <t>Slower than Core i7 2600 (3.4 GHz) [n times]</t>
+  </si>
+  <si>
+    <t>Slower than Core i7 2600 [n times] running with same frequency</t>
   </si>
 </sst>
 </file>
@@ -814,7 +851,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,8 +874,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -870,13 +913,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -918,6 +1072,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -957,19 +1112,364 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="173">
+  <dxfs count="186">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3417,7 +3917,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'python-transpose'!$B$38:$N$38</c:f>
+              <c:f>'python-transpose'!$B$44:$N$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3921,7 +4421,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'python-transpose'!$B$39:$N$39</c:f>
+              <c:f>'python-transpose'!$B$45:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -10222,7 +10722,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>851086</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>160526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10736,18 +11236,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5B9BCE27-9D49-4F16-B344-1D640CB38DE9}" name="js_transpose" displayName="js_transpose" ref="A2:M22" tableType="queryTable" totalsRowShown="0">
   <tableColumns count="13">
     <tableColumn id="11" xr3:uid="{02DE20CB-DD18-47ED-9FAB-678B7614F858}" uniqueName="11" name="Cpu" queryTableFieldId="11"/>
-    <tableColumn id="14" xr3:uid="{6E34C2A0-E8D4-4301-B07F-ED90BF9D679C}" uniqueName="14" name="Elbrus 1C+ 1000" queryTableFieldId="25" dataDxfId="172"/>
-    <tableColumn id="15" xr3:uid="{486C40C0-FC70-4178-A73C-E15D918B4512}" uniqueName="15" name="Elbrus 4C 750" queryTableFieldId="26" dataDxfId="171"/>
-    <tableColumn id="16" xr3:uid="{0FE25191-0143-41E1-B5F8-EEC907FDD25B}" uniqueName="16" name="Elbrus 8C 1300" queryTableFieldId="27" dataDxfId="170"/>
-    <tableColumn id="3" xr3:uid="{387E1F08-5E0C-4161-9155-94E2956471F6}" uniqueName="3" name="Mediatek MT6589" queryTableFieldId="3" dataDxfId="169"/>
-    <tableColumn id="4" xr3:uid="{59B07C5F-F178-4850-A814-30FAE8F861B8}" uniqueName="4" name="Qualcomm 625" queryTableFieldId="4" dataDxfId="168"/>
-    <tableColumn id="9" xr3:uid="{90BB7566-91FA-4EDD-A079-7FAFCD7E0B7A}" uniqueName="9" name="Intel Pentium 4 2800" queryTableFieldId="22" dataDxfId="167"/>
-    <tableColumn id="5" xr3:uid="{A12C176B-DAB2-407E-80CC-A2DB37088C5E}" uniqueName="5" name="Intel Atom x5 Z8350" queryTableFieldId="5" dataDxfId="166"/>
-    <tableColumn id="7" xr3:uid="{F2E5272A-A507-4B05-A3AB-BBFAB9C80476}" uniqueName="7" name="Intel Core i3 M330" queryTableFieldId="7" dataDxfId="165"/>
-    <tableColumn id="6" xr3:uid="{D502A3FD-02D1-425C-A998-74123FC65D7F}" uniqueName="6" name="Intel Core i3 M330_1" queryTableFieldId="20" dataDxfId="164"/>
-    <tableColumn id="8" xr3:uid="{AC088300-5524-42D5-A382-3D32A5565ADA}" uniqueName="8" name="AMD A6 3650" queryTableFieldId="8" dataDxfId="163"/>
-    <tableColumn id="10" xr3:uid="{09A5DAD3-6C38-4E72-98A5-7793CC936B98}" uniqueName="10" name="Intel Core i7 2600" queryTableFieldId="10" dataDxfId="162"/>
-    <tableColumn id="13" xr3:uid="{F2452E3A-3F79-4B95-A430-818D2E45EAA1}" uniqueName="13" name="Intel Core i7 2601" queryTableFieldId="24" dataDxfId="161"/>
+    <tableColumn id="14" xr3:uid="{6E34C2A0-E8D4-4301-B07F-ED90BF9D679C}" uniqueName="14" name="Elbrus 1C+ 1000" queryTableFieldId="25" dataDxfId="185"/>
+    <tableColumn id="15" xr3:uid="{486C40C0-FC70-4178-A73C-E15D918B4512}" uniqueName="15" name="Elbrus 4C 750" queryTableFieldId="26" dataDxfId="184"/>
+    <tableColumn id="16" xr3:uid="{0FE25191-0143-41E1-B5F8-EEC907FDD25B}" uniqueName="16" name="Elbrus 8C 1300" queryTableFieldId="27" dataDxfId="183"/>
+    <tableColumn id="3" xr3:uid="{387E1F08-5E0C-4161-9155-94E2956471F6}" uniqueName="3" name="Mediatek MT6589" queryTableFieldId="3" dataDxfId="182"/>
+    <tableColumn id="4" xr3:uid="{59B07C5F-F178-4850-A814-30FAE8F861B8}" uniqueName="4" name="Qualcomm 625" queryTableFieldId="4" dataDxfId="181"/>
+    <tableColumn id="9" xr3:uid="{90BB7566-91FA-4EDD-A079-7FAFCD7E0B7A}" uniqueName="9" name="Intel Pentium 4 2800" queryTableFieldId="22" dataDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{A12C176B-DAB2-407E-80CC-A2DB37088C5E}" uniqueName="5" name="Intel Atom x5 Z8350" queryTableFieldId="5" dataDxfId="179"/>
+    <tableColumn id="7" xr3:uid="{F2E5272A-A507-4B05-A3AB-BBFAB9C80476}" uniqueName="7" name="Intel Core i3 M330" queryTableFieldId="7" dataDxfId="178"/>
+    <tableColumn id="6" xr3:uid="{D502A3FD-02D1-425C-A998-74123FC65D7F}" uniqueName="6" name="Intel Core i3 M330_1" queryTableFieldId="20" dataDxfId="177"/>
+    <tableColumn id="8" xr3:uid="{AC088300-5524-42D5-A382-3D32A5565ADA}" uniqueName="8" name="AMD A6 3650" queryTableFieldId="8" dataDxfId="176"/>
+    <tableColumn id="10" xr3:uid="{09A5DAD3-6C38-4E72-98A5-7793CC936B98}" uniqueName="10" name="Intel Core i7 2600" queryTableFieldId="10" dataDxfId="175"/>
+    <tableColumn id="13" xr3:uid="{F2452E3A-3F79-4B95-A430-818D2E45EAA1}" uniqueName="13" name="Intel Core i7 2601" queryTableFieldId="24" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10757,12 +11257,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{70B3545B-2D35-4A88-8D16-80EE29D85B5E}" name="lua" displayName="lua" ref="A1:T16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:T16" xr:uid="{74CED8AF-8815-4BD8-9407-0B0207FA0FEE}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{601F4DF0-18DD-40B4-99F1-FB55A7A00AF0}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{0454B43A-DAD6-496C-AA49-4C834F7144B8}" uniqueName="2" name="Architecture" queryTableFieldId="2" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{28AAC64D-5193-4C2E-A79D-377F72E0DA8C}" uniqueName="3" name="Frequency (MHz)" queryTableFieldId="3" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{D6076484-057F-439D-A510-CB694043CE06}" uniqueName="4" name="Operating System" queryTableFieldId="4" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{3C5BA69E-2AB4-4873-B09E-AFFB83793624}" uniqueName="5" name="Runtime" queryTableFieldId="5" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{E0E7C3F5-A846-4E7F-9CB2-3A152F65ABE2}" uniqueName="6" name="Threads Count" queryTableFieldId="6" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{601F4DF0-18DD-40B4-99F1-FB55A7A00AF0}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{0454B43A-DAD6-496C-AA49-4C834F7144B8}" uniqueName="2" name="Architecture" queryTableFieldId="2" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{28AAC64D-5193-4C2E-A79D-377F72E0DA8C}" uniqueName="3" name="Frequency (MHz)" queryTableFieldId="3" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{D6076484-057F-439D-A510-CB694043CE06}" uniqueName="4" name="Operating System" queryTableFieldId="4" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{3C5BA69E-2AB4-4873-B09E-AFFB83793624}" uniqueName="5" name="Runtime" queryTableFieldId="5" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{E0E7C3F5-A846-4E7F-9CB2-3A152F65ABE2}" uniqueName="6" name="Threads Count" queryTableFieldId="6" dataDxfId="45"/>
     <tableColumn id="7" xr3:uid="{6D34E652-ACA8-40B2-9409-C1D512541903}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{9A85CF28-23EB-44C2-A0A7-5596A043A66A}" uniqueName="8" name="MathBenchmark (Iter/s)" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{F45FD42B-D5A5-4349-AECC-EE53B59E39D8}" uniqueName="9" name="CallBenchmark (Iter/s)" queryTableFieldId="9"/>
@@ -10810,38 +11310,38 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C8CC26AC-580E-499D-BCEA-76641BBE97E5}" name="dotnet" displayName="dotnet" ref="A1:AG16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AG16" xr:uid="{F0C8A6DF-5C96-45F0-AE3A-B75C974674C7}"/>
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{F2AE1A27-78FA-4F9D-98F5-8B1E9E371B4A}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{2A0FA3EF-7053-47AC-A516-E533D71EBE68}" uniqueName="2" name="Architecture" queryTableFieldId="33" dataDxfId="30"/>
-    <tableColumn id="32" xr3:uid="{C13612D8-8689-45A6-A1A2-19F35063EB4D}" uniqueName="32" name="Frequency (MHz)" queryTableFieldId="34" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{21D8D8A4-F90C-467B-ABA8-71AB58111F15}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{D9F0F554-802F-4103-89AC-2240E8CF9E37}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{439658BB-929E-41B8-9820-E085070E2E10}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{B90E7137-711D-4CDB-AD6F-5C306798B833}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{FD0B73CB-8BE9-4EA4-9528-5BAC5BF7036D}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{6E23F401-96AE-4BE7-BC67-529D7E2C606D}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{16DCBD17-32C8-455E-A4A5-A1B64591D84C}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{463372DD-3AAE-4F46-A006-EAAC2AE31A50}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{8406D654-20F9-4B19-9502-1557175739FE}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{0FDE5C79-084E-4702-993B-44A779D8639E}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{9728B219-1E75-47D9-AD1B-6BD6D39A9ACD}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{A6EE0E61-00E6-47C8-80FD-243884465CD1}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{5D93B34E-26E7-4381-B562-5E1954DB8295}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{4C1ABBB4-4D49-4D2A-A3DE-E53562B8D4D4}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{7525ADFF-7CF4-40B9-9242-261C499B9DE2}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{74F0D8A0-0D18-4447-817F-528AFB144081}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{A407E0B3-32C4-442D-8E56-3110608E35B6}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{70FCF7D3-D5E1-41B7-A26F-C858C8496267}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{C08703D3-CB6F-455F-8BD4-1E5C1606619A}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{8FBD4D69-DCB1-4A21-AD2F-0FCAD1697E96}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{8F1BAADC-B3BB-42C4-B179-2111F536C9A8}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{3BBDE142-E60A-4296-9D9A-467C1CE7F85D}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="7"/>
-    <tableColumn id="25" xr3:uid="{D181DDDB-171A-4847-A610-135BCF84E55E}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="6"/>
-    <tableColumn id="26" xr3:uid="{FDF2B15D-8669-407D-B532-0B9D19202972}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="5"/>
-    <tableColumn id="27" xr3:uid="{99C03734-75D7-408F-B0B2-BD5B969F81D1}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="4"/>
-    <tableColumn id="28" xr3:uid="{EBE02E9F-44EE-4A92-9602-7CEADAE490A7}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="3"/>
-    <tableColumn id="29" xr3:uid="{06682450-69A6-465D-B163-6F0305112F59}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="2"/>
-    <tableColumn id="30" xr3:uid="{21DD5B0D-A893-470E-8929-54574789755A}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="1"/>
-    <tableColumn id="31" xr3:uid="{F1DD6A7F-D083-462A-B21B-A47CD44B7DB1}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F2AE1A27-78FA-4F9D-98F5-8B1E9E371B4A}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{2A0FA3EF-7053-47AC-A516-E533D71EBE68}" uniqueName="2" name="Architecture" queryTableFieldId="33" dataDxfId="43"/>
+    <tableColumn id="32" xr3:uid="{C13612D8-8689-45A6-A1A2-19F35063EB4D}" uniqueName="32" name="Frequency (MHz)" queryTableFieldId="34" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{21D8D8A4-F90C-467B-ABA8-71AB58111F15}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{D9F0F554-802F-4103-89AC-2240E8CF9E37}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{439658BB-929E-41B8-9820-E085070E2E10}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{B90E7137-711D-4CDB-AD6F-5C306798B833}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{FD0B73CB-8BE9-4EA4-9528-5BAC5BF7036D}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{6E23F401-96AE-4BE7-BC67-529D7E2C606D}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{16DCBD17-32C8-455E-A4A5-A1B64591D84C}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{463372DD-3AAE-4F46-A006-EAAC2AE31A50}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{8406D654-20F9-4B19-9502-1557175739FE}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{0FDE5C79-084E-4702-993B-44A779D8639E}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{9728B219-1E75-47D9-AD1B-6BD6D39A9ACD}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{A6EE0E61-00E6-47C8-80FD-243884465CD1}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{5D93B34E-26E7-4381-B562-5E1954DB8295}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{4C1ABBB4-4D49-4D2A-A3DE-E53562B8D4D4}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{7525ADFF-7CF4-40B9-9242-261C499B9DE2}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{74F0D8A0-0D18-4447-817F-528AFB144081}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{A407E0B3-32C4-442D-8E56-3110608E35B6}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{70FCF7D3-D5E1-41B7-A26F-C858C8496267}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{C08703D3-CB6F-455F-8BD4-1E5C1606619A}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{8FBD4D69-DCB1-4A21-AD2F-0FCAD1697E96}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{8F1BAADC-B3BB-42C4-B179-2111F536C9A8}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{3BBDE142-E60A-4296-9D9A-467C1CE7F85D}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{D181DDDB-171A-4847-A610-135BCF84E55E}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="19"/>
+    <tableColumn id="26" xr3:uid="{FDF2B15D-8669-407D-B532-0B9D19202972}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{99C03734-75D7-408F-B0B2-BD5B969F81D1}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{EBE02E9F-44EE-4A92-9602-7CEADAE490A7}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{06682450-69A6-465D-B163-6F0305112F59}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{21DD5B0D-A893-470E-8929-54574789755A}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{F1DD6A7F-D083-462A-B21B-A47CD44B7DB1}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="13"/>
     <tableColumn id="33" xr3:uid="{080583BA-6376-4A9B-A86F-85671A36CE58}" uniqueName="33" name="Total Time (ms)" queryTableFieldId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10870,31 +11370,79 @@
 </table>
 </file>
 
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{68097AF7-D882-4F9F-8EF1-C79F0D77ABCC}" name="Table14" displayName="Table14" ref="A2:G20" totalsRowShown="0">
+  <autoFilter ref="A2:G20" xr:uid="{27ABAC8F-CD4A-4110-AC08-FC2F30B11831}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C90B5BBB-2A65-487A-ADFE-0AD5BD5AECF1}" name="Cpu" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2D06ADAB-F95A-4F73-B9B2-C192FBC7547F}" name="Java"/>
+    <tableColumn id="3" xr3:uid="{996DF087-EDF3-4C4F-81B6-7958BDDE7B64}" name="C#"/>
+    <tableColumn id="4" xr3:uid="{CA021677-3D2F-4374-9456-5E014851B477}" name="JavaScript"/>
+    <tableColumn id="5" xr3:uid="{286B493D-F290-4146-9981-66961EDE1ADA}" name="Php"/>
+    <tableColumn id="6" xr3:uid="{F2B76973-CC2E-4571-957D-F2BAFAEB07D0}" name="Python"/>
+    <tableColumn id="7" xr3:uid="{EFD6036C-555D-4610-B2F9-AC026CCFE40D}" name="Lua"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C6B673B7-20A2-4F91-9FE0-F829206AE06A}" name="Table15" displayName="Table15" ref="I2:O20" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="I2:O20" xr:uid="{80DB5A8A-5F7A-4D8D-BFAB-D92B774AA97C}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3F5C51CD-44BE-473E-80D5-4A7242A5B88E}" name="Cpu" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{400ED87C-FA5D-471D-BCF6-04E132282C3E}" name="Java" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E06B83D8-4DCB-4FC2-B5A5-4830320BD89E}" name="C#" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BE43EE8A-98C3-45A6-8F8F-FFB0E419379C}" name="JavaScript" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{FA28F9AC-10B8-4DD5-96B1-FD81A39CA36F}" name="Php" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{45C7DE5C-0C37-4C6E-B47B-A65D2693A267}" name="Python" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A03BA986-43CF-4317-8324-E40337F50976}" name="Lua" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{563EECB0-0198-4676-8E69-3153FC36C0B4}" name="js" displayName="js" ref="A1:U12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:U12" xr:uid="{366EF5F4-F755-4FEA-BEF2-86BE4446F01E}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{8627286C-395B-48DD-878B-BD078FDCDC9F}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="160"/>
-    <tableColumn id="21" xr3:uid="{F6514F17-9752-4DDA-ABC4-D5A340BA87BD}" uniqueName="21" name="Architecture" queryTableFieldId="21" dataDxfId="159"/>
-    <tableColumn id="22" xr3:uid="{38C53262-66F5-42D0-A5DF-CD212070640E}" uniqueName="22" name="Frequency (MHz)" queryTableFieldId="23" dataDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{2BD635E6-8701-45BA-BC84-B7A24020C9AB}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{07A89B8F-D9E5-4484-A7B8-6FAA0382F48F}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="156"/>
-    <tableColumn id="5" xr3:uid="{EA7767AB-995F-4AB5-A776-A9D7118EB8F8}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="155"/>
-    <tableColumn id="7" xr3:uid="{CC1A1237-F537-49DE-84CF-1049B89E1718}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="154"/>
-    <tableColumn id="8" xr3:uid="{913C68C2-7310-42DD-BBA7-D61B63B97990}" uniqueName="8" name="MathBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="153"/>
-    <tableColumn id="9" xr3:uid="{110B67BC-2A48-4732-A3CA-2ED23998463C}" uniqueName="9" name="CallBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="152"/>
-    <tableColumn id="10" xr3:uid="{8FD51F15-462C-48C4-9E2D-AE7EB6B86CA2}" uniqueName="10" name="IfElseBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="151"/>
-    <tableColumn id="11" xr3:uid="{D1ACE193-CC1B-4FF7-BB3C-A195AB237078}" uniqueName="11" name="StringManipulation (Iter/s)" queryTableFieldId="11" dataDxfId="150"/>
-    <tableColumn id="12" xr3:uid="{1E39219A-8BB2-4BA4-BA43-EA923CE0887F}" uniqueName="12" name="MemoryBenchmark (MB/s)" queryTableFieldId="12" dataDxfId="149"/>
-    <tableColumn id="13" xr3:uid="{9B182F75-8F52-40C2-A462-77AF0B021CE6}" uniqueName="13" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="13" dataDxfId="148"/>
-    <tableColumn id="14" xr3:uid="{D8A29D0A-8DC4-49D8-9590-67CD2273E621}" uniqueName="14" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="14" dataDxfId="147"/>
-    <tableColumn id="15" xr3:uid="{A1366C9F-D151-4087-882A-1372690C061E}" uniqueName="15" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="15" dataDxfId="146"/>
-    <tableColumn id="16" xr3:uid="{83A4B4BD-6E10-4618-8209-30971FE17E44}" uniqueName="16" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="16" dataDxfId="145"/>
-    <tableColumn id="17" xr3:uid="{F874A9D3-04AE-4418-98DF-C7CA93BD2C38}" uniqueName="17" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="17" dataDxfId="144"/>
-    <tableColumn id="18" xr3:uid="{3745349F-183F-47D9-A34E-A7C2420A6278}" uniqueName="18" name="HashBenchmark (Iter/s)" queryTableFieldId="18" dataDxfId="143"/>
-    <tableColumn id="19" xr3:uid="{5A830EFA-CD88-4D7A-BE06-A3B5C01C31AE}" uniqueName="19" name="Total Points" queryTableFieldId="19" dataDxfId="142"/>
-    <tableColumn id="20" xr3:uid="{4B07ABB8-583B-44FB-B2C5-8AD822BCF64F}" uniqueName="20" name="Total Time (ms)" queryTableFieldId="20" dataDxfId="141"/>
-    <tableColumn id="23" xr3:uid="{57EE1673-7C5F-4397-82EB-4982CB3A06C2}" uniqueName="23" name="Column1" queryTableFieldId="25" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{8627286C-395B-48DD-878B-BD078FDCDC9F}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="173"/>
+    <tableColumn id="21" xr3:uid="{F6514F17-9752-4DDA-ABC4-D5A340BA87BD}" uniqueName="21" name="Architecture" queryTableFieldId="21" dataDxfId="172"/>
+    <tableColumn id="22" xr3:uid="{38C53262-66F5-42D0-A5DF-CD212070640E}" uniqueName="22" name="Frequency (MHz)" queryTableFieldId="23" dataDxfId="171"/>
+    <tableColumn id="3" xr3:uid="{2BD635E6-8701-45BA-BC84-B7A24020C9AB}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{07A89B8F-D9E5-4484-A7B8-6FAA0382F48F}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="169"/>
+    <tableColumn id="5" xr3:uid="{EA7767AB-995F-4AB5-A776-A9D7118EB8F8}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="168"/>
+    <tableColumn id="7" xr3:uid="{CC1A1237-F537-49DE-84CF-1049B89E1718}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="167"/>
+    <tableColumn id="8" xr3:uid="{913C68C2-7310-42DD-BBA7-D61B63B97990}" uniqueName="8" name="MathBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="166"/>
+    <tableColumn id="9" xr3:uid="{110B67BC-2A48-4732-A3CA-2ED23998463C}" uniqueName="9" name="CallBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="165"/>
+    <tableColumn id="10" xr3:uid="{8FD51F15-462C-48C4-9E2D-AE7EB6B86CA2}" uniqueName="10" name="IfElseBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="164"/>
+    <tableColumn id="11" xr3:uid="{D1ACE193-CC1B-4FF7-BB3C-A195AB237078}" uniqueName="11" name="StringManipulation (Iter/s)" queryTableFieldId="11" dataDxfId="163"/>
+    <tableColumn id="12" xr3:uid="{1E39219A-8BB2-4BA4-BA43-EA923CE0887F}" uniqueName="12" name="MemoryBenchmark (MB/s)" queryTableFieldId="12" dataDxfId="162"/>
+    <tableColumn id="13" xr3:uid="{9B182F75-8F52-40C2-A462-77AF0B021CE6}" uniqueName="13" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="13" dataDxfId="161"/>
+    <tableColumn id="14" xr3:uid="{D8A29D0A-8DC4-49D8-9590-67CD2273E621}" uniqueName="14" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="14" dataDxfId="160"/>
+    <tableColumn id="15" xr3:uid="{A1366C9F-D151-4087-882A-1372690C061E}" uniqueName="15" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="15" dataDxfId="159"/>
+    <tableColumn id="16" xr3:uid="{83A4B4BD-6E10-4618-8209-30971FE17E44}" uniqueName="16" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="16" dataDxfId="158"/>
+    <tableColumn id="17" xr3:uid="{F874A9D3-04AE-4418-98DF-C7CA93BD2C38}" uniqueName="17" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="17" dataDxfId="157"/>
+    <tableColumn id="18" xr3:uid="{3745349F-183F-47D9-A34E-A7C2420A6278}" uniqueName="18" name="HashBenchmark (Iter/s)" queryTableFieldId="18" dataDxfId="156"/>
+    <tableColumn id="19" xr3:uid="{5A830EFA-CD88-4D7A-BE06-A3B5C01C31AE}" uniqueName="19" name="Total Points" queryTableFieldId="19" dataDxfId="155"/>
+    <tableColumn id="20" xr3:uid="{4B07ABB8-583B-44FB-B2C5-8AD822BCF64F}" uniqueName="20" name="Total Time (ms)" queryTableFieldId="20" dataDxfId="154"/>
+    <tableColumn id="23" xr3:uid="{57EE1673-7C5F-4397-82EB-4982CB3A06C2}" uniqueName="23" name="Column1" queryTableFieldId="25" dataDxfId="153"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10909,12 +11457,12 @@
     <tableColumn id="15" xr3:uid="{B3DBDF77-7573-40AE-B39D-4F3C9447C286}" uniqueName="15" name="Elbrus 8C 1300" queryTableFieldId="18"/>
     <tableColumn id="16" xr3:uid="{CE15D0E7-9C42-4702-BDDB-69728973EA63}" uniqueName="16" name="Elbrus 8C 1200 (4 cpu)" queryTableFieldId="19"/>
     <tableColumn id="17" xr3:uid="{C5741D52-58D9-4D92-AC45-56D0C1E1B4BC}" uniqueName="17" name="Elbrus 8CB 1550" queryTableFieldId="20"/>
-    <tableColumn id="5" xr3:uid="{C3F11301-0E48-44E0-BF04-47E143A3650B}" uniqueName="5" name="Allwinner A64" queryTableFieldId="5" dataDxfId="139"/>
-    <tableColumn id="12" xr3:uid="{17025DBB-4142-41F1-9671-434CBDDD4A15}" uniqueName="12" name="Intel Pentium 4 2800" queryTableFieldId="14" dataDxfId="138"/>
-    <tableColumn id="6" xr3:uid="{317325B9-83E1-4B8B-877C-54E6B87139EB}" uniqueName="6" name="Intel Atom X5 Z8350" queryTableFieldId="6" dataDxfId="137"/>
-    <tableColumn id="7" xr3:uid="{B8289E0E-ED9B-41CF-A2F5-D722CCA017D4}" uniqueName="7" name="Intel Core i3 M330" queryTableFieldId="7" dataDxfId="136"/>
-    <tableColumn id="8" xr3:uid="{E2645244-4077-431E-A407-DEB149FA48F7}" uniqueName="8" name="Amd A6 3650" queryTableFieldId="8" dataDxfId="135"/>
-    <tableColumn id="9" xr3:uid="{E26EB1E9-7D5A-48E6-ADDC-011820B10453}" uniqueName="9" name="Intel Core i7 2600" queryTableFieldId="9" dataDxfId="134"/>
+    <tableColumn id="5" xr3:uid="{C3F11301-0E48-44E0-BF04-47E143A3650B}" uniqueName="5" name="Allwinner A64" queryTableFieldId="5" dataDxfId="152"/>
+    <tableColumn id="12" xr3:uid="{17025DBB-4142-41F1-9671-434CBDDD4A15}" uniqueName="12" name="Intel Pentium 4 2800" queryTableFieldId="14" dataDxfId="151"/>
+    <tableColumn id="6" xr3:uid="{317325B9-83E1-4B8B-877C-54E6B87139EB}" uniqueName="6" name="Intel Atom X5 Z8350" queryTableFieldId="6" dataDxfId="150"/>
+    <tableColumn id="7" xr3:uid="{B8289E0E-ED9B-41CF-A2F5-D722CCA017D4}" uniqueName="7" name="Intel Core i3 M330" queryTableFieldId="7" dataDxfId="149"/>
+    <tableColumn id="8" xr3:uid="{E2645244-4077-431E-A407-DEB149FA48F7}" uniqueName="8" name="Amd A6 3650" queryTableFieldId="8" dataDxfId="148"/>
+    <tableColumn id="9" xr3:uid="{E26EB1E9-7D5A-48E6-ADDC-011820B10453}" uniqueName="9" name="Intel Core i7 2600" queryTableFieldId="9" dataDxfId="147"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10924,39 +11472,39 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{781D1473-7D90-4B56-8BA5-AB3537A3D378}" name="java" displayName="java" ref="A1:AG12" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AG12" xr:uid="{D0F80230-1A9C-40AD-81A4-B8DB6F5ED3B2}"/>
   <tableColumns count="33">
-    <tableColumn id="1" xr3:uid="{E0609799-4A3F-40DA-B43C-045264126CC3}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="133"/>
-    <tableColumn id="33" xr3:uid="{3538615A-D028-4FCA-A940-2AC87B448A8A}" uniqueName="33" name="Architecture" queryTableFieldId="33" dataDxfId="132"/>
-    <tableColumn id="34" xr3:uid="{329EB196-432C-46A5-B354-1759B313F77D}" uniqueName="34" name="Frequency (MHz)" queryTableFieldId="35" dataDxfId="131"/>
-    <tableColumn id="3" xr3:uid="{3AD09F36-0CDB-4A9B-8CA4-B877EB89711E}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{E06D317C-1EA7-4C45-B3F6-CFCC93F75BF0}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="129"/>
-    <tableColumn id="5" xr3:uid="{A0753479-486B-4CCC-BEDF-9A76175BDF37}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="128"/>
-    <tableColumn id="6" xr3:uid="{1062FF48-7E3A-4678-A499-524C8DE3A8BB}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="127"/>
-    <tableColumn id="7" xr3:uid="{C7500052-0EFD-4D26-A906-8C35DEBD7D6C}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="126"/>
-    <tableColumn id="8" xr3:uid="{8FE86DCC-B526-4B8D-A8B3-6FD696C0F7CE}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="125"/>
-    <tableColumn id="9" xr3:uid="{C758C3BD-041D-4BD4-8A1A-44E72A2D9264}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="124"/>
-    <tableColumn id="10" xr3:uid="{FE06B681-E28A-4798-B03B-5151A0B2C709}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="123"/>
-    <tableColumn id="11" xr3:uid="{EC40D492-FB97-47D1-9B7C-8B99081944B0}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="122"/>
-    <tableColumn id="12" xr3:uid="{FED51D4D-3C31-4DDB-B29C-71E9BEA9FA42}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="121"/>
-    <tableColumn id="13" xr3:uid="{3E3EFAA0-9D29-47BA-BC7A-7B7890CA3BBE}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="120"/>
-    <tableColumn id="14" xr3:uid="{CB856013-30B7-42EE-929D-FD75AE1FC2D0}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="119"/>
-    <tableColumn id="15" xr3:uid="{FEBFC30B-5787-4CA4-9F50-AAAA2E30066D}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="118"/>
-    <tableColumn id="16" xr3:uid="{8F210294-6CEC-4A81-803B-E05109782FCB}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="117"/>
-    <tableColumn id="17" xr3:uid="{C081F7B8-54F9-4BCC-ACDD-38ADC45E99B7}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="116"/>
-    <tableColumn id="18" xr3:uid="{CC38F4A6-5600-49A1-A63A-29256DAC5B21}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="115"/>
-    <tableColumn id="19" xr3:uid="{C3841642-5995-4D66-BF73-5C4251970B42}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="114"/>
-    <tableColumn id="20" xr3:uid="{F39C05B3-E4A6-407F-BEE8-75731F66CD21}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="113"/>
-    <tableColumn id="21" xr3:uid="{9E221172-DE44-4602-8835-8742FE9A122E}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="112"/>
-    <tableColumn id="22" xr3:uid="{D3BAAFFE-3E1F-473D-9655-1ABE18CB4AE7}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="111"/>
-    <tableColumn id="23" xr3:uid="{E665C219-13F4-4AB1-A111-6C380496CBB5}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="110"/>
-    <tableColumn id="24" xr3:uid="{7C4B6181-6188-4708-AB88-D28893B3CE2C}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="109"/>
-    <tableColumn id="25" xr3:uid="{EE6BCC66-C7D3-4D4C-B66B-DBA0FF6D3FBF}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="108"/>
-    <tableColumn id="26" xr3:uid="{CE692E45-2FDC-4C03-825B-8DEE5F6F241A}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="107"/>
-    <tableColumn id="27" xr3:uid="{68169F73-8FA8-4810-B873-988D6B5C96E9}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="106"/>
-    <tableColumn id="28" xr3:uid="{60B647AE-5AE6-4956-91A0-C0F7B0DF576C}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="105"/>
-    <tableColumn id="29" xr3:uid="{6586F2F8-657B-4946-BE58-3B990E4F08C3}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="104"/>
-    <tableColumn id="30" xr3:uid="{6589D025-16DD-4080-989E-D1F63A6A38C5}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="103"/>
-    <tableColumn id="31" xr3:uid="{5913099E-E5CD-4B3B-BDCE-901CD125B8FE}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="102"/>
-    <tableColumn id="32" xr3:uid="{4EA0ADCB-BCC4-4485-BDF1-1E92E23E5366}" uniqueName="32" name="Total Time (ms)" queryTableFieldId="32" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{E0609799-4A3F-40DA-B43C-045264126CC3}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="146"/>
+    <tableColumn id="33" xr3:uid="{3538615A-D028-4FCA-A940-2AC87B448A8A}" uniqueName="33" name="Architecture" queryTableFieldId="33" dataDxfId="145"/>
+    <tableColumn id="34" xr3:uid="{329EB196-432C-46A5-B354-1759B313F77D}" uniqueName="34" name="Frequency (MHz)" queryTableFieldId="35" dataDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{3AD09F36-0CDB-4A9B-8CA4-B877EB89711E}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{E06D317C-1EA7-4C45-B3F6-CFCC93F75BF0}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="142"/>
+    <tableColumn id="5" xr3:uid="{A0753479-486B-4CCC-BEDF-9A76175BDF37}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{1062FF48-7E3A-4678-A499-524C8DE3A8BB}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="140"/>
+    <tableColumn id="7" xr3:uid="{C7500052-0EFD-4D26-A906-8C35DEBD7D6C}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="139"/>
+    <tableColumn id="8" xr3:uid="{8FE86DCC-B526-4B8D-A8B3-6FD696C0F7CE}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="138"/>
+    <tableColumn id="9" xr3:uid="{C758C3BD-041D-4BD4-8A1A-44E72A2D9264}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="137"/>
+    <tableColumn id="10" xr3:uid="{FE06B681-E28A-4798-B03B-5151A0B2C709}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="136"/>
+    <tableColumn id="11" xr3:uid="{EC40D492-FB97-47D1-9B7C-8B99081944B0}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="135"/>
+    <tableColumn id="12" xr3:uid="{FED51D4D-3C31-4DDB-B29C-71E9BEA9FA42}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="134"/>
+    <tableColumn id="13" xr3:uid="{3E3EFAA0-9D29-47BA-BC7A-7B7890CA3BBE}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="133"/>
+    <tableColumn id="14" xr3:uid="{CB856013-30B7-42EE-929D-FD75AE1FC2D0}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="132"/>
+    <tableColumn id="15" xr3:uid="{FEBFC30B-5787-4CA4-9F50-AAAA2E30066D}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="131"/>
+    <tableColumn id="16" xr3:uid="{8F210294-6CEC-4A81-803B-E05109782FCB}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="130"/>
+    <tableColumn id="17" xr3:uid="{C081F7B8-54F9-4BCC-ACDD-38ADC45E99B7}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="129"/>
+    <tableColumn id="18" xr3:uid="{CC38F4A6-5600-49A1-A63A-29256DAC5B21}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="128"/>
+    <tableColumn id="19" xr3:uid="{C3841642-5995-4D66-BF73-5C4251970B42}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="127"/>
+    <tableColumn id="20" xr3:uid="{F39C05B3-E4A6-407F-BEE8-75731F66CD21}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="126"/>
+    <tableColumn id="21" xr3:uid="{9E221172-DE44-4602-8835-8742FE9A122E}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="125"/>
+    <tableColumn id="22" xr3:uid="{D3BAAFFE-3E1F-473D-9655-1ABE18CB4AE7}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="124"/>
+    <tableColumn id="23" xr3:uid="{E665C219-13F4-4AB1-A111-6C380496CBB5}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="123"/>
+    <tableColumn id="24" xr3:uid="{7C4B6181-6188-4708-AB88-D28893B3CE2C}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="122"/>
+    <tableColumn id="25" xr3:uid="{EE6BCC66-C7D3-4D4C-B66B-DBA0FF6D3FBF}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="121"/>
+    <tableColumn id="26" xr3:uid="{CE692E45-2FDC-4C03-825B-8DEE5F6F241A}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="120"/>
+    <tableColumn id="27" xr3:uid="{68169F73-8FA8-4810-B873-988D6B5C96E9}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="119"/>
+    <tableColumn id="28" xr3:uid="{60B647AE-5AE6-4956-91A0-C0F7B0DF576C}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="118"/>
+    <tableColumn id="29" xr3:uid="{6586F2F8-657B-4946-BE58-3B990E4F08C3}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="117"/>
+    <tableColumn id="30" xr3:uid="{6589D025-16DD-4080-989E-D1F63A6A38C5}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="116"/>
+    <tableColumn id="31" xr3:uid="{5913099E-E5CD-4B3B-BDCE-901CD125B8FE}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="115"/>
+    <tableColumn id="32" xr3:uid="{4EA0ADCB-BCC4-4485-BDF1-1E92E23E5366}" uniqueName="32" name="Total Time (ms)" queryTableFieldId="32" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10973,12 +11521,12 @@
     <tableColumn id="19" xr3:uid="{1F7CF20D-546D-48AA-859A-E5976ED00FA1}" uniqueName="19" name="Elbrus 8C RTC 1200 (4 cpu)" queryTableFieldId="30"/>
     <tableColumn id="20" xr3:uid="{414D22A7-39CF-43BF-9951-426F1E592618}" uniqueName="20" name="Elbrus 8CB 1550" queryTableFieldId="31"/>
     <tableColumn id="21" xr3:uid="{E2F76127-062A-48B3-8297-33C9036150D7}" uniqueName="21" name="Elbrus 8CB RTC 1550" queryTableFieldId="32"/>
-    <tableColumn id="4" xr3:uid="{BE5B609A-C63D-4782-8ED6-3EDC1078B14E}" uniqueName="4" name="Allwinner A64" queryTableFieldId="4" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{AF2296F4-B42F-4F4E-A10A-5EE2A87C6C04}" uniqueName="5" name="Qualcomm 625" queryTableFieldId="5" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{BE5B609A-C63D-4782-8ED6-3EDC1078B14E}" uniqueName="4" name="Allwinner A64" queryTableFieldId="4" dataDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{AF2296F4-B42F-4F4E-A10A-5EE2A87C6C04}" uniqueName="5" name="Qualcomm 625" queryTableFieldId="5" dataDxfId="112"/>
     <tableColumn id="14" xr3:uid="{6EAA2227-91CA-48EC-B5A5-506FE8827B1E}" uniqueName="14" name="Pentium 4 2800" queryTableFieldId="22"/>
-    <tableColumn id="6" xr3:uid="{4E2177AA-50A7-47E7-9104-315AB2A72157}" uniqueName="6" name="Amd A6 3650" queryTableFieldId="6" dataDxfId="98"/>
-    <tableColumn id="12" xr3:uid="{58B5D1B4-840F-4A84-B434-254D6CC4358A}" uniqueName="12" name="Intel Core i7 2600" queryTableFieldId="15" dataDxfId="97"/>
-    <tableColumn id="13" xr3:uid="{81181CD8-992F-410F-BAAC-D6DE50EA9D8C}" uniqueName="13" name="Intel Core i5 5257u" queryTableFieldId="16" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{4E2177AA-50A7-47E7-9104-315AB2A72157}" uniqueName="6" name="Amd A6 3650" queryTableFieldId="6" dataDxfId="111"/>
+    <tableColumn id="12" xr3:uid="{58B5D1B4-840F-4A84-B434-254D6CC4358A}" uniqueName="12" name="Intel Core i7 2600" queryTableFieldId="15" dataDxfId="110"/>
+    <tableColumn id="13" xr3:uid="{81181CD8-992F-410F-BAAC-D6DE50EA9D8C}" uniqueName="13" name="Intel Core i5 5257u" queryTableFieldId="16" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10988,38 +11536,38 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79315AD2-9F08-46D2-9617-5CCA470ECEA7}" name="python" displayName="python" ref="A1:AF14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:AF14" xr:uid="{AAF939F7-60E2-494F-87BE-0833F8EDE7B1}"/>
   <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{0CBE2F5D-D38A-491C-8102-09931E202FE4}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="95"/>
-    <tableColumn id="6" xr3:uid="{412B66FD-D5C7-4145-8997-A0F6F35193B4}" uniqueName="6" name="Architecture" queryTableFieldId="33" dataDxfId="94"/>
-    <tableColumn id="33" xr3:uid="{932AEEDA-613C-4C79-9FB0-33101EED0EB3}" uniqueName="33" name="Frequency (MHz)" queryTableFieldId="35" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{53BF56A4-8796-4108-9CB7-EC03C6018AE8}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{72093BDA-CE47-4A8A-9D1F-DE8864B89A8D}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="91"/>
-    <tableColumn id="5" xr3:uid="{499AD4D4-0D45-4244-8139-ACC4D76ED53F}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{BB9E7F94-0FB7-42C6-BC8F-9B456A226975}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{A69DCF32-11C1-4672-8F33-4A2A3A877DA7}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{4F1AD33D-A1B9-4484-BACD-4D8A2DFE3649}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{042B9F5F-7E22-4E14-BDE7-0E28D955AB8E}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="86"/>
-    <tableColumn id="11" xr3:uid="{3A0A17BC-2EF3-489A-9F5E-8AEBE5FCFA26}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="85"/>
-    <tableColumn id="12" xr3:uid="{63C6EF9E-23E3-4EBE-B605-CDA3A5FA099B}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="84"/>
-    <tableColumn id="13" xr3:uid="{FFAE2658-8266-4817-A3D0-B94F79EE9459}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="83"/>
-    <tableColumn id="14" xr3:uid="{AB0B39DD-7831-4F70-9997-D8EF3C91CAE8}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="82"/>
-    <tableColumn id="15" xr3:uid="{80655C9C-0F4E-4C7B-9C77-AA815868C805}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="81"/>
-    <tableColumn id="16" xr3:uid="{C81B238A-0DAC-4748-906A-150177D6A917}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="80"/>
-    <tableColumn id="17" xr3:uid="{C760D728-8BD0-4DA0-877E-32C2487A57EB}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="79"/>
-    <tableColumn id="18" xr3:uid="{73A386D1-2989-4697-A06C-C2A19E07527E}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="78"/>
-    <tableColumn id="19" xr3:uid="{7DB68E5D-3F06-445E-8E8D-CAF34C39CFAF}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="77"/>
-    <tableColumn id="20" xr3:uid="{84DBC248-A72B-40E4-87A0-9ABFB077D038}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="76"/>
-    <tableColumn id="21" xr3:uid="{D5751CF6-F97C-48AD-9483-84B4FAC25232}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="75"/>
-    <tableColumn id="22" xr3:uid="{0383E0B4-B75B-4C6A-ABF6-DB2151BD8F84}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="74"/>
-    <tableColumn id="23" xr3:uid="{D5AEE349-31DB-4CEE-A75D-3F8A33CCBFE8}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="73"/>
-    <tableColumn id="24" xr3:uid="{8CD0E4EA-1D4E-4A6C-B55D-1166924DF2E0}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="72"/>
-    <tableColumn id="25" xr3:uid="{5B36E0D0-FB94-4655-810F-25993207EB5B}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="71"/>
-    <tableColumn id="26" xr3:uid="{58F6C676-5BCA-45F5-86C9-146FD7E9E153}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="70"/>
-    <tableColumn id="27" xr3:uid="{79BDE0E9-FF61-483F-A16E-980710F1D581}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="69"/>
-    <tableColumn id="28" xr3:uid="{A8CCF80C-5516-43C2-BFE1-108982BADE7E}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="68"/>
-    <tableColumn id="29" xr3:uid="{7ED1CB53-4B4D-4960-87F0-E350444A8AF5}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="67"/>
-    <tableColumn id="30" xr3:uid="{59332E20-9856-43FC-974F-40D32650E2AE}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="66"/>
-    <tableColumn id="31" xr3:uid="{988B1FFC-3E0F-4682-8AFE-4711C8347DF5}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="65"/>
-    <tableColumn id="32" xr3:uid="{61FD7B92-6F91-4486-A616-F980161B36A2}" uniqueName="32" name="Total Time (ms)" queryTableFieldId="32" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{0CBE2F5D-D38A-491C-8102-09931E202FE4}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="108"/>
+    <tableColumn id="6" xr3:uid="{412B66FD-D5C7-4145-8997-A0F6F35193B4}" uniqueName="6" name="Architecture" queryTableFieldId="33" dataDxfId="107"/>
+    <tableColumn id="33" xr3:uid="{932AEEDA-613C-4C79-9FB0-33101EED0EB3}" uniqueName="33" name="Frequency (MHz)" queryTableFieldId="35" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{53BF56A4-8796-4108-9CB7-EC03C6018AE8}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{72093BDA-CE47-4A8A-9D1F-DE8864B89A8D}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{499AD4D4-0D45-4244-8139-ACC4D76ED53F}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{BB9E7F94-0FB7-42C6-BC8F-9B456A226975}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{A69DCF32-11C1-4672-8F33-4A2A3A877DA7}" uniqueName="8" name="ParallelArithemticsBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{4F1AD33D-A1B9-4484-BACD-4D8A2DFE3649}" uniqueName="9" name="MathBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{042B9F5F-7E22-4E14-BDE7-0E28D955AB8E}" uniqueName="10" name="ParallelMathBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="99"/>
+    <tableColumn id="11" xr3:uid="{3A0A17BC-2EF3-489A-9F5E-8AEBE5FCFA26}" uniqueName="11" name="CallBenchmark (Iter/s)" queryTableFieldId="11" dataDxfId="98"/>
+    <tableColumn id="12" xr3:uid="{63C6EF9E-23E3-4EBE-B605-CDA3A5FA099B}" uniqueName="12" name="ParallelCallBenchmark (Iter/s)" queryTableFieldId="12" dataDxfId="97"/>
+    <tableColumn id="13" xr3:uid="{FFAE2658-8266-4817-A3D0-B94F79EE9459}" uniqueName="13" name="IfElseBenchmark (Iter/s)" queryTableFieldId="13" dataDxfId="96"/>
+    <tableColumn id="14" xr3:uid="{AB0B39DD-7831-4F70-9997-D8EF3C91CAE8}" uniqueName="14" name="ParallelIfElseBenchmark (Iter/s)" queryTableFieldId="14" dataDxfId="95"/>
+    <tableColumn id="15" xr3:uid="{80655C9C-0F4E-4C7B-9C77-AA815868C805}" uniqueName="15" name="StringManipulation (Iter/s)" queryTableFieldId="15" dataDxfId="94"/>
+    <tableColumn id="16" xr3:uid="{C81B238A-0DAC-4748-906A-150177D6A917}" uniqueName="16" name="ParallelStringManipulation (Iter/s)" queryTableFieldId="16" dataDxfId="93"/>
+    <tableColumn id="17" xr3:uid="{C760D728-8BD0-4DA0-877E-32C2487A57EB}" uniqueName="17" name="MemoryBenchmark (MB/s)" queryTableFieldId="17" dataDxfId="92"/>
+    <tableColumn id="18" xr3:uid="{73A386D1-2989-4697-A06C-C2A19E07527E}" uniqueName="18" name="ParallelMemoryBenchmark (MB/s)" queryTableFieldId="18" dataDxfId="91"/>
+    <tableColumn id="19" xr3:uid="{7DB68E5D-3F06-445E-8E8D-CAF34C39CFAF}" uniqueName="19" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="19" dataDxfId="90"/>
+    <tableColumn id="20" xr3:uid="{84DBC248-A72B-40E4-87A0-9ABFB077D038}" uniqueName="20" name="ParallelRandomMemoryBenchmark (MB/s)" queryTableFieldId="20" dataDxfId="89"/>
+    <tableColumn id="21" xr3:uid="{D5751CF6-F97C-48AD-9483-84B4FAC25232}" uniqueName="21" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="21" dataDxfId="88"/>
+    <tableColumn id="22" xr3:uid="{0383E0B4-B75B-4C6A-ABF6-DB2151BD8F84}" uniqueName="22" name="ParallelScimark2Benchmark (CompositeScore)" queryTableFieldId="22" dataDxfId="87"/>
+    <tableColumn id="23" xr3:uid="{D5AEE349-31DB-4CEE-A75D-3F8A33CCBFE8}" uniqueName="23" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="23" dataDxfId="86"/>
+    <tableColumn id="24" xr3:uid="{8CD0E4EA-1D4E-4A6C-B55D-1166924DF2E0}" uniqueName="24" name="ParallelDhrystoneBenchmark (DMIPS)" queryTableFieldId="24" dataDxfId="85"/>
+    <tableColumn id="25" xr3:uid="{5B36E0D0-FB94-4655-810F-25993207EB5B}" uniqueName="25" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="25" dataDxfId="84"/>
+    <tableColumn id="26" xr3:uid="{58F6C676-5BCA-45F5-86C9-146FD7E9E153}" uniqueName="26" name="ParallelWhetstoneBenchmark (MWIPS)" queryTableFieldId="26" dataDxfId="83"/>
+    <tableColumn id="27" xr3:uid="{79BDE0E9-FF61-483F-A16E-980710F1D581}" uniqueName="27" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="27" dataDxfId="82"/>
+    <tableColumn id="28" xr3:uid="{A8CCF80C-5516-43C2-BFE1-108982BADE7E}" uniqueName="28" name="ParallelLinpackBenchmark (MFLOPS)" queryTableFieldId="28" dataDxfId="81"/>
+    <tableColumn id="29" xr3:uid="{7ED1CB53-4B4D-4960-87F0-E350444A8AF5}" uniqueName="29" name="HashBenchmark (Iter/s)" queryTableFieldId="29" dataDxfId="80"/>
+    <tableColumn id="30" xr3:uid="{59332E20-9856-43FC-974F-40D32650E2AE}" uniqueName="30" name="ParallelHashBenchmark (Iter/s)" queryTableFieldId="30" dataDxfId="79"/>
+    <tableColumn id="31" xr3:uid="{988B1FFC-3E0F-4682-8AFE-4711C8347DF5}" uniqueName="31" name="Total Points" queryTableFieldId="31" dataDxfId="78"/>
+    <tableColumn id="32" xr3:uid="{61FD7B92-6F91-4486-A616-F980161B36A2}" uniqueName="32" name="Total Time (ms)" queryTableFieldId="32" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11036,13 +11584,13 @@
     <tableColumn id="10" xr3:uid="{85B2A7F5-E4B8-4011-A4E3-EBC115AEF789}" uniqueName="10" name="Elbrus 8C RTC 1200 (4 cpu)" queryTableFieldId="26"/>
     <tableColumn id="11" xr3:uid="{FD919AE2-42FD-4D34-AF52-F5884097C7A5}" uniqueName="11" name="Elbrus 8CB 1550" queryTableFieldId="27"/>
     <tableColumn id="12" xr3:uid="{64BE09DC-BA71-4CF7-82A8-7A116D0E645F}" uniqueName="12" name="Elbrus 8CB RTC 1550" queryTableFieldId="28"/>
-    <tableColumn id="13" xr3:uid="{862EFB49-2F31-4CEC-B26A-563C54C49AD0}" uniqueName="13" name="Elbrus R1000" queryTableFieldId="16" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{419F133A-5E52-4C3D-92A5-86C06EAEC165}" uniqueName="4" name="Allwinner A64" queryTableFieldId="4" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{AB92DA8B-300D-4898-AAA4-B3FD0FDAC9C2}" uniqueName="5" name="Qualcomm 625" queryTableFieldId="5" dataDxfId="61"/>
+    <tableColumn id="13" xr3:uid="{862EFB49-2F31-4CEC-B26A-563C54C49AD0}" uniqueName="13" name="Elbrus R1000" queryTableFieldId="16" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{419F133A-5E52-4C3D-92A5-86C06EAEC165}" uniqueName="4" name="Allwinner A64" queryTableFieldId="4" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{AB92DA8B-300D-4898-AAA4-B3FD0FDAC9C2}" uniqueName="5" name="Qualcomm 625" queryTableFieldId="5" dataDxfId="74"/>
     <tableColumn id="15" xr3:uid="{152625CE-010B-4C05-9F73-72A5735B3306}" uniqueName="15" name="Intel Pentium 4 2800" queryTableFieldId="29"/>
-    <tableColumn id="6" xr3:uid="{B159C197-78A4-46C9-881E-F7EF7FCC01B2}" uniqueName="6" name="AMD A6 3650" queryTableFieldId="6" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{59C057B0-1218-4CF5-97D5-276B552ED04F}" uniqueName="7" name="Intel Core i7 2600" queryTableFieldId="7" dataDxfId="59"/>
-    <tableColumn id="14" xr3:uid="{CA100650-43D9-4C48-B902-0707F6F0713F}" uniqueName="14" name="Intel Core i7 2600_2" queryTableFieldId="17" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{B159C197-78A4-46C9-881E-F7EF7FCC01B2}" uniqueName="6" name="AMD A6 3650" queryTableFieldId="6" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{59C057B0-1218-4CF5-97D5-276B552ED04F}" uniqueName="7" name="Intel Core i7 2600" queryTableFieldId="7" dataDxfId="72"/>
+    <tableColumn id="14" xr3:uid="{CA100650-43D9-4C48-B902-0707F6F0713F}" uniqueName="14" name="Intel Core i7 2600_2" queryTableFieldId="17" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11052,26 +11600,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CA40C47D-1F9E-4D00-9535-7D04F9552F14}" name="php" displayName="php" ref="A1:U15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:U15" xr:uid="{10B9A723-7A90-4843-AD81-45910A09B900}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{F7AA7EF2-8AE9-44E6-8F05-E702241680C2}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{630D2DC4-659D-4D64-889B-28B30A8D96ED}" uniqueName="2" name="Architecture" queryTableFieldId="21" dataDxfId="56"/>
-    <tableColumn id="20" xr3:uid="{E5A71597-3360-4F01-AF99-AD9A1AF6312B}" uniqueName="20" name="Frequency (MHz)" queryTableFieldId="22" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{6963F32D-AF13-425E-ABF4-FF7C830BB41B}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{DDFEB16D-35BC-44B6-8556-CD69042CA3FA}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{B7118387-EE1E-42DA-B26B-E046A58F968B}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{28958910-1B3A-4E3A-8715-5CE4D680E0D0}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{D59BE03B-F1E5-4B0D-90FF-F0F8EA78311A}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{02F43B6F-F604-4617-947A-E1EA8A190308}" uniqueName="8" name="MathBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{CFCB9E76-075D-4584-B2DC-726236CC0783}" uniqueName="9" name="CallBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{83E2181A-FB43-435A-9DD5-63E7F93AE09B}" uniqueName="10" name="IfElseBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="47"/>
-    <tableColumn id="11" xr3:uid="{959F1F7E-73E5-48AB-8F9E-F05EA71A70B9}" uniqueName="11" name="StringManipulation (Iter/s)" queryTableFieldId="11" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{4610B89F-2DDC-4A9E-80AC-7B431525A9FD}" uniqueName="12" name="MemoryBenchmark (MB/s)" queryTableFieldId="12" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{6D3F7585-74F5-4CD0-BD39-E4F3B2BE6BC0}" uniqueName="13" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="13" dataDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{279333B0-EB8E-4B78-98DC-444545FA88DB}" uniqueName="14" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="14" dataDxfId="43"/>
-    <tableColumn id="15" xr3:uid="{09C8CDCF-C632-4BE4-AF34-51DF6EB0A94D}" uniqueName="15" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="15" dataDxfId="42"/>
-    <tableColumn id="16" xr3:uid="{5F08EEF9-1ABD-41DF-A679-5821B9C899FB}" uniqueName="16" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="16" dataDxfId="41"/>
-    <tableColumn id="17" xr3:uid="{CB4EF000-B248-4B44-81B5-EBFE80350AB0}" uniqueName="17" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="17" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{423AE940-3B85-417F-AEA9-E089F03668E7}" uniqueName="18" name="HashBenchmark (Iter/s)" queryTableFieldId="18" dataDxfId="39"/>
-    <tableColumn id="19" xr3:uid="{D3B0783C-96AB-4590-8458-8EECE3AA439B}" uniqueName="19" name="Total Points" queryTableFieldId="19" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{F7AA7EF2-8AE9-44E6-8F05-E702241680C2}" uniqueName="1" name="Cpu" queryTableFieldId="1" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{630D2DC4-659D-4D64-889B-28B30A8D96ED}" uniqueName="2" name="Architecture" queryTableFieldId="21" dataDxfId="69"/>
+    <tableColumn id="20" xr3:uid="{E5A71597-3360-4F01-AF99-AD9A1AF6312B}" uniqueName="20" name="Frequency (MHz)" queryTableFieldId="22" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{6963F32D-AF13-425E-ABF4-FF7C830BB41B}" uniqueName="3" name="Operating System" queryTableFieldId="3" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{DDFEB16D-35BC-44B6-8556-CD69042CA3FA}" uniqueName="4" name="Runtime" queryTableFieldId="4" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{B7118387-EE1E-42DA-B26B-E046A58F968B}" uniqueName="5" name="Threads Count" queryTableFieldId="5" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{28958910-1B3A-4E3A-8715-5CE4D680E0D0}" uniqueName="6" name="Memory Used" queryTableFieldId="6" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{D59BE03B-F1E5-4B0D-90FF-F0F8EA78311A}" uniqueName="7" name="ArithemticsBenchmark (Iter/s)" queryTableFieldId="7" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{02F43B6F-F604-4617-947A-E1EA8A190308}" uniqueName="8" name="MathBenchmark (Iter/s)" queryTableFieldId="8" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{CFCB9E76-075D-4584-B2DC-726236CC0783}" uniqueName="9" name="CallBenchmark (Iter/s)" queryTableFieldId="9" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{83E2181A-FB43-435A-9DD5-63E7F93AE09B}" uniqueName="10" name="IfElseBenchmark (Iter/s)" queryTableFieldId="10" dataDxfId="60"/>
+    <tableColumn id="11" xr3:uid="{959F1F7E-73E5-48AB-8F9E-F05EA71A70B9}" uniqueName="11" name="StringManipulation (Iter/s)" queryTableFieldId="11" dataDxfId="59"/>
+    <tableColumn id="12" xr3:uid="{4610B89F-2DDC-4A9E-80AC-7B431525A9FD}" uniqueName="12" name="MemoryBenchmark (MB/s)" queryTableFieldId="12" dataDxfId="58"/>
+    <tableColumn id="13" xr3:uid="{6D3F7585-74F5-4CD0-BD39-E4F3B2BE6BC0}" uniqueName="13" name="RandomMemoryBenchmark (MB/s)" queryTableFieldId="13" dataDxfId="57"/>
+    <tableColumn id="14" xr3:uid="{279333B0-EB8E-4B78-98DC-444545FA88DB}" uniqueName="14" name="Scimark2Benchmark (CompositeScore)" queryTableFieldId="14" dataDxfId="56"/>
+    <tableColumn id="15" xr3:uid="{09C8CDCF-C632-4BE4-AF34-51DF6EB0A94D}" uniqueName="15" name="DhrystoneBenchmark (DMIPS)" queryTableFieldId="15" dataDxfId="55"/>
+    <tableColumn id="16" xr3:uid="{5F08EEF9-1ABD-41DF-A679-5821B9C899FB}" uniqueName="16" name="WhetstoneBenchmark (MWIPS)" queryTableFieldId="16" dataDxfId="54"/>
+    <tableColumn id="17" xr3:uid="{CB4EF000-B248-4B44-81B5-EBFE80350AB0}" uniqueName="17" name="LinpackBenchmark (MFLOPS)" queryTableFieldId="17" dataDxfId="53"/>
+    <tableColumn id="18" xr3:uid="{423AE940-3B85-417F-AEA9-E089F03668E7}" uniqueName="18" name="HashBenchmark (Iter/s)" queryTableFieldId="18" dataDxfId="52"/>
+    <tableColumn id="19" xr3:uid="{D3B0783C-96AB-4590-8458-8EECE3AA439B}" uniqueName="19" name="Total Points" queryTableFieldId="19" dataDxfId="51"/>
     <tableColumn id="21" xr3:uid="{346D9C2A-4204-48F9-815A-8ECF3856980B}" uniqueName="21" name="Total Time (ms)" queryTableFieldId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11399,10 +11947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1723FD-C4F4-4934-9B26-E4B66DAD2A8F}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11427,21 +11975,21 @@
     <col min="19" max="19" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -12194,37 +12742,37 @@
       <c r="A21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="22">
         <v>7345270</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="22">
         <v>5306444</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="22">
         <v>3114290</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="22">
         <v>1955843</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="22">
         <v>1830463</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="22">
         <v>1405446</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="22">
         <v>2095475</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="22">
         <v>1018819</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="22">
         <v>450947</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="22">
         <v>381312</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="22">
         <v>442546</v>
       </c>
       <c r="M21" s="3"/>
@@ -12233,37 +12781,37 @@
       <c r="A22" t="s">
         <v>170</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="20" t="s">
         <v>170</v>
       </c>
       <c r="M22" s="3"/>
@@ -12272,51 +12820,51 @@
       <c r="A24" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="40">
         <f>1/B25</f>
         <v>16.831633606643969</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="40">
         <f t="shared" ref="C24:L24" si="0">1/C25</f>
         <v>12.502468763203959</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="40">
         <f t="shared" si="0"/>
         <v>6.4960773275333503</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="40">
         <f t="shared" si="0"/>
         <v>9.0759806499106119</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="40">
         <f t="shared" si="0"/>
         <v>4.7521009849334774</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="40">
         <f t="shared" si="0"/>
         <v>3.4389601850906404</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="40">
         <f t="shared" si="0"/>
         <v>2.9511712947824429</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="40">
         <f t="shared" si="0"/>
         <v>1.6460068549050397</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="40">
         <f t="shared" si="0"/>
         <v>1.6865128413071411</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="40">
         <f t="shared" si="0"/>
         <v>1.4262949030204248</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="40">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M24" s="26"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -12426,53 +12974,417 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="38">
+        <v>211</v>
+      </c>
+      <c r="B27" s="41">
         <f>1/B26</f>
         <v>4.9504804725423437</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="41">
         <f t="shared" ref="C27:L27" si="3">1/C26</f>
         <v>2.757897521294991</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="41">
         <f t="shared" si="3"/>
         <v>2.4837942722921635</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="41">
         <f t="shared" si="3"/>
         <v>3.2032872882037453</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="41">
         <f t="shared" si="3"/>
         <v>2.7953535205491042</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="41">
         <f t="shared" si="3"/>
         <v>2.8320848583099392</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="41">
         <f t="shared" si="3"/>
         <v>1.2499078424960937</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="41">
         <f t="shared" si="3"/>
         <v>1.0326272416213087</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="41">
         <f t="shared" si="3"/>
         <v>1.058038791325921</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="41">
         <f t="shared" si="3"/>
         <v>1.0906961023097366</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="41">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M27" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <f>B8/$L8</f>
+        <v>0.12696301103655441</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" ref="C29:G29" si="4">C8/$L8</f>
+        <v>0.13522479871701476</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27060857531977939</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.16053662643051722</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.26783025323355669</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.34314026393246566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <f t="shared" ref="B30:G38" si="5">B9/$L9</f>
+        <v>7.5904675769127322E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="5"/>
+        <v>8.8254845188553407E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1903922178855311</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="5"/>
+        <v>5.0449725349518491E-2</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10072343189415206</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="5"/>
+        <v>0.22799703004594693</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <f t="shared" si="5"/>
+        <v>4.0931204825451012E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="5"/>
+        <v>4.6897151679551566E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="5"/>
+        <v>9.4402646278690217E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.39878533267151384</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.2035095078120861</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="5"/>
+        <v>0.24756909994622789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <f t="shared" si="5"/>
+        <v>8.8226332296474752E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.10353273501508138</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.208699726105401</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14967691909078534</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19163440219606664</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="5"/>
+        <v>0.43423815237120228</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <f t="shared" si="5"/>
+        <v>3.1404790293835971E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="5"/>
+        <v>4.107652123910456E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="5"/>
+        <v>7.8529139421460864E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14035628061452077</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21322639788253747</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="5"/>
+        <v>0.3153836843763147</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <f t="shared" si="5"/>
+        <v>4.5522141814286293E-2</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="5"/>
+        <v>4.7833430515941723E-2</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="5"/>
+        <v>9.887916058333672E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="5"/>
+        <v>6.0735363470488885E-2</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.26158544762008079</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.44524852380371227</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <f t="shared" si="5"/>
+        <v>4.8796717311744488E-2</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="5"/>
+        <v>6.8980814017966061E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.11378507264056781</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.45880004436065208</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23466784961738937</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.29699456582011757</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <f t="shared" si="5"/>
+        <v>9.074407247959905E-2</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.12857418235558699</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.22280408661569104</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="5"/>
+        <v>8.4495277260168353E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19658806142774529</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.31581314656557219</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <f t="shared" si="5"/>
+        <v>8.2192065720376448E-2</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.12442156709821661</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.20992044922788958</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14823480476264755</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23857952477512609</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23442000727915563</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <f t="shared" si="5"/>
+        <v>8.7105817660089215E-3</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="5"/>
+        <v>3.3719736581441839E-2</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="5"/>
+        <v>0.1009551023838539</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="5"/>
+        <v>4.214216677972614E-2</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="5"/>
+        <v>0.30171270088066321</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="5"/>
+        <v>2.5585457950882164E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <f>B18/$L18</f>
+        <v>4.3625657953430284E-2</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" ref="C39:G39" si="6">C18/$L18</f>
+        <v>7.1371219555714169E-2</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13670562345734083</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="6"/>
+        <v>6.876914384274542E-2</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1640199839414756</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="6"/>
+        <v>0.23222410562940496</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <f>B19/$L19</f>
+        <v>6.348877183878518E-2</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" ref="C40:G40" si="7">C19/$L19</f>
+        <v>8.9879578707662847E-2</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.14369879686307463</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15243198775709935</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.25579210936443492</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23053965945152963</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <f>GEOMEAN(B29:B40)</f>
+        <v>5.2484189392850607E-2</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" ref="C41:G41" si="8">GEOMEAN(C29:C40)</f>
+        <v>7.40484307526795E-2</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="8"/>
+        <v>0.14454573496676199</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="8"/>
+        <v>0.12160910485575024</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="8"/>
+        <v>0.2118574253389659</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="8"/>
+        <v>0.23947336129887198</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="19">
+        <f>1/B41</f>
+        <v>19.053357050346669</v>
+      </c>
+      <c r="C42" s="19">
+        <f t="shared" ref="C42:G42" si="9">1/C41</f>
+        <v>13.504675113777671</v>
+      </c>
+      <c r="D42" s="19">
+        <f t="shared" si="9"/>
+        <v>6.9182255722034833</v>
+      </c>
+      <c r="E42" s="19">
+        <f t="shared" si="9"/>
+        <v>8.2230685045019918</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" si="9"/>
+        <v>4.7201555404538134</v>
+      </c>
+      <c r="G42" s="19">
+        <f t="shared" si="9"/>
+        <v>4.1758298066061785</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14487,25 +15399,25 @@
     <col min="20" max="21" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -15970,10 +16882,10 @@
       <c r="D31" s="3">
         <v>40086.89</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="28">
         <v>0</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="28">
         <v>0</v>
       </c>
       <c r="G31" s="3">
@@ -16008,7 +16920,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="3">
@@ -16020,10 +16932,10 @@
       <c r="D32" s="3">
         <v>17235.169999999998</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="28">
         <v>0</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="28">
         <v>0</v>
       </c>
       <c r="G32" s="3">
@@ -16158,24 +17070,24 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T36">
@@ -16187,63 +17099,63 @@
       <c r="A37" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="39">
         <f>1/B38</f>
         <v>23.760015162903628</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="39">
         <f t="shared" ref="C37:P37" si="1">1/C38</f>
         <v>12.590506829241496</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="39">
         <f t="shared" si="1"/>
         <v>4.3053235016546356</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="39">
         <f t="shared" si="1"/>
         <v>1.791371146677027</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="39">
         <f t="shared" si="1"/>
         <v>1.500955563527812</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="39">
         <f t="shared" si="1"/>
         <v>12.300555509663265</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="39">
         <f t="shared" si="1"/>
         <v>10.697894553434693</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="39">
         <f t="shared" si="1"/>
         <v>4.3760421293442908</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="39">
         <f t="shared" si="1"/>
         <v>4.1703577734512454</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="39">
         <f t="shared" si="1"/>
         <v>3.602919743547202</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="39">
         <f t="shared" si="1"/>
         <v>3.5784128352053761</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="39">
         <f t="shared" si="1"/>
         <v>4.5924587670670256</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="39">
         <f t="shared" si="1"/>
         <v>2.8035534313685715</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="39">
         <f t="shared" si="1"/>
         <v>0.99897892921919429</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -16549,63 +17461,63 @@
       <c r="A43" t="s">
         <v>207</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="39">
         <f>1/B44</f>
         <v>15.407725910004384</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="39">
         <f t="shared" ref="C43:P43" si="8">1/C44</f>
         <v>19.211506184180312</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="39">
         <f t="shared" si="8"/>
         <v>10.597322452613522</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="39">
         <f t="shared" si="8"/>
         <v>3.549872294952106</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="39">
         <f t="shared" si="8"/>
         <v>3.048418881571934</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="39">
         <f t="shared" si="8"/>
         <v>17.053920738226999</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="39">
         <f t="shared" si="8"/>
         <v>5.0618197553703368</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="39">
         <f t="shared" si="8"/>
         <v>4.2071871059259545</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="39">
         <f t="shared" si="8"/>
         <v>3.7674054973532307</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="39">
         <f t="shared" si="8"/>
         <v>2.1500481863231911</v>
       </c>
-      <c r="L43" s="36">
+      <c r="L43" s="39">
         <f t="shared" si="8"/>
         <v>2.1299492320795528</v>
       </c>
-      <c r="M43" s="36">
+      <c r="M43" s="39">
         <f t="shared" si="8"/>
         <v>4.7940751142222409</v>
       </c>
-      <c r="N43" s="36">
+      <c r="N43" s="39">
         <f t="shared" si="8"/>
         <v>1.7497776868338974</v>
       </c>
-      <c r="O43" s="36">
+      <c r="O43" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P43" s="36">
+      <c r="P43" s="39">
         <f t="shared" si="8"/>
         <v>0.98458535383310852</v>
       </c>
@@ -19230,8 +20142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531F244C-4F5F-4C4D-9F7D-8F636C12095B}">
   <dimension ref="A1:XFD52"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P82" sqref="P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37358,6 +38270,869 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD6A118-BBFD-417B-9323-9CEA93B74A29}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="I1" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="47"/>
+      <c r="J3" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+      <c r="O4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>15.5</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>12.5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5">
+        <v>3.5</v>
+      </c>
+      <c r="K5">
+        <v>4.5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N5">
+        <v>3.6</v>
+      </c>
+      <c r="O5">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>12.5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>15.5</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6">
+        <v>2.5</v>
+      </c>
+      <c r="K6">
+        <v>4.2</v>
+      </c>
+      <c r="L6">
+        <v>2.75</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <v>3.5</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7">
+        <v>5.5</v>
+      </c>
+      <c r="C7">
+        <v>10.5</v>
+      </c>
+      <c r="D7">
+        <v>6.5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>2.5</v>
+      </c>
+      <c r="M7">
+        <v>1.5</v>
+      </c>
+      <c r="N7">
+        <v>3.5</v>
+      </c>
+      <c r="O7">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7.5</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8">
+        <v>1.3</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+      <c r="N8">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9">
+        <v>4.5</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>2.5</v>
+      </c>
+      <c r="F9">
+        <v>7.8</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2.25</v>
+      </c>
+      <c r="M9">
+        <v>1.5</v>
+      </c>
+      <c r="N9">
+        <v>3.5</v>
+      </c>
+      <c r="O9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>5.6</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="K10">
+        <v>1.2</v>
+      </c>
+      <c r="M10">
+        <v>2.7</v>
+      </c>
+      <c r="N10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="I12" s="47"/>
+      <c r="J12" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="48"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13">
+        <v>58</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13">
+        <v>8.5</v>
+      </c>
+      <c r="O13" s="49"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14">
+        <v>7.4</v>
+      </c>
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15">
+        <v>12.5</v>
+      </c>
+      <c r="C15">
+        <v>12.5</v>
+      </c>
+      <c r="F15">
+        <v>13.5</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15">
+        <v>2.75</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" s="49"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4.5</v>
+      </c>
+      <c r="F16">
+        <v>4.2</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K16">
+        <v>1.5</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16">
+        <v>1.5</v>
+      </c>
+      <c r="O16" s="48"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="K17">
+        <v>0.8</v>
+      </c>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17">
+        <v>2.8</v>
+      </c>
+      <c r="O17" s="49"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18">
+        <v>2.5</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>3.8</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K18">
+        <v>1.2</v>
+      </c>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18">
+        <v>1.35</v>
+      </c>
+      <c r="O18" s="48"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19">
+        <v>1.5</v>
+      </c>
+      <c r="F19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I19" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O19" s="55"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B5:B11">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C11">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D11">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E11">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G11">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B20">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C20">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K11">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J20">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:K20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81711599-2442-4B7D-B9BE-084E07C0CD01}">
   <dimension ref="A1:U12"/>
@@ -38185,8 +39960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4F0C60-3C05-4452-AF0C-58FF6BE35E31}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L45" sqref="A1:L45"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38210,21 +39985,21 @@
     <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -38429,7 +40204,7 @@
       <c r="D7" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="31" t="s">
         <v>158</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -39484,47 +41259,47 @@
       <c r="A36" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="39">
         <f>1/B37</f>
         <v>18.013119675660715</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="39">
         <f t="shared" ref="C36:L36" si="0">1/C37</f>
         <v>12.490160795141895</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="39">
         <f t="shared" si="0"/>
         <v>3.0111815959882735</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="39">
         <f t="shared" si="0"/>
         <v>0.93550463638482351</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="39">
         <f t="shared" si="0"/>
         <v>2.5722632909848606</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="39">
         <f t="shared" si="0"/>
         <v>8.1298010296000793</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="39">
         <f t="shared" si="0"/>
         <v>9.2931245772013185</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="39">
         <f t="shared" si="0"/>
         <v>4.4809004877277774</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="39">
         <f t="shared" si="0"/>
         <v>9.3843412611037493</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="39">
         <f t="shared" si="0"/>
         <v>2.3151436636971092</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -39629,49 +41404,49 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" s="38">
+        <v>211</v>
+      </c>
+      <c r="B39" s="41">
         <f>1/B38</f>
         <v>5.2185067295664131</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="41">
         <f t="shared" ref="C39:L39" si="3">1/C38</f>
         <v>2.7551825283401237</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="41">
         <f t="shared" si="3"/>
         <v>1.1513341396425751</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="41">
         <f t="shared" si="3"/>
         <v>0.33017810695934946</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="41">
         <f t="shared" si="3"/>
         <v>1.1726494414783923</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="41">
         <f t="shared" si="3"/>
         <v>2.7545678782644969</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="41">
         <f t="shared" si="3"/>
         <v>7.6531614165187323</v>
       </c>
-      <c r="I39" s="38">
+      <c r="I39" s="41">
         <f t="shared" si="3"/>
         <v>1.897793147743529</v>
       </c>
-      <c r="J39" s="38">
+      <c r="J39" s="41">
         <f t="shared" si="3"/>
         <v>5.8790137900444073</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="41">
         <f t="shared" si="3"/>
         <v>1.8112594545395031</v>
       </c>
-      <c r="L39" s="38">
+      <c r="L39" s="41">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -39729,47 +41504,47 @@
       <c r="A42" t="s">
         <v>207</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="39">
         <f>1/B43</f>
         <v>11.346529441848419</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="39">
         <f t="shared" ref="C42:L42" si="5">1/C43</f>
         <v>10.263967707254716</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="39">
         <f t="shared" si="5"/>
         <v>5.4118024739281205</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="39">
         <f t="shared" si="5"/>
         <v>6.0035820553578132</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="39">
         <f t="shared" si="5"/>
         <v>4.6879370300792234</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="39">
         <f t="shared" si="5"/>
         <v>6.9711807013597982</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42" s="39">
         <f t="shared" si="5"/>
         <v>3.9175808537566654</v>
       </c>
-      <c r="I42" s="36">
+      <c r="I42" s="39">
         <f t="shared" si="5"/>
         <v>3.5662454079811403</v>
       </c>
-      <c r="J42" s="36">
+      <c r="J42" s="39">
         <f t="shared" si="5"/>
         <v>5.3343271698331343</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="39">
         <f t="shared" si="5"/>
         <v>1.2510607811680705</v>
       </c>
-      <c r="L42" s="36">
+      <c r="L42" s="39">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -39876,47 +41651,47 @@
       <c r="A45" t="s">
         <v>209</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="41">
         <f>1/B44</f>
         <v>3.287156323594322</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="41">
         <f t="shared" ref="C45:L45" si="8">1/C44</f>
         <v>2.2641105236591281</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="41">
         <f t="shared" si="8"/>
         <v>2.0692185929725166</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="41">
         <f t="shared" si="8"/>
         <v>2.118911313655699</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="41">
         <f t="shared" si="8"/>
         <v>2.1371477637125871</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="41">
         <f t="shared" si="8"/>
         <v>2.362000049401908</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="41">
         <f t="shared" si="8"/>
         <v>3.2262430560349009</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="41">
         <f t="shared" si="8"/>
         <v>1.5104098198508358</v>
       </c>
-      <c r="J45" s="38">
+      <c r="J45" s="41">
         <f t="shared" si="8"/>
         <v>3.3417990799248756</v>
       </c>
-      <c r="K45" s="38">
+      <c r="K45" s="41">
         <f t="shared" si="8"/>
         <v>0.97877108173737293</v>
       </c>
-      <c r="L45" s="38">
+      <c r="L45" s="41">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -42834,10 +44609,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1095FF35-A1CE-4BC9-AC72-9E261534A29A}">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42867,23 +44642,23 @@
     <col min="24" max="24" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -42945,13 +44720,13 @@
       <c r="E3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>138</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="32" t="s">
         <v>138</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -43121,7 +44896,7 @@
       <c r="E7" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="32" t="s">
         <v>158</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -43218,10 +44993,10 @@
       <c r="H9" s="3">
         <v>910787.63</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="28">
         <v>0</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="28">
         <v>0</v>
       </c>
       <c r="K9" s="3">
@@ -43230,10 +45005,10 @@
       <c r="L9" s="3">
         <v>1291706.26</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="28">
         <v>0</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="28">
         <v>0</v>
       </c>
     </row>
@@ -43306,10 +45081,10 @@
       <c r="H11" s="3">
         <v>860322.4</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="28">
         <v>0</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="28">
         <v>0</v>
       </c>
       <c r="K11" s="3">
@@ -43318,10 +45093,10 @@
       <c r="L11" s="3">
         <v>1747787.56</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="28">
         <v>0</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="28">
         <v>0</v>
       </c>
     </row>
@@ -43394,10 +45169,10 @@
       <c r="H13" s="3">
         <v>2739371.71</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="28">
         <v>0</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="28">
         <v>0</v>
       </c>
       <c r="K13" s="3">
@@ -43406,10 +45181,10 @@
       <c r="L13" s="3">
         <v>5263408.78</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="28">
         <v>0</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="28">
         <v>0</v>
       </c>
     </row>
@@ -43482,10 +45257,10 @@
       <c r="H15" s="3">
         <v>5061314.3</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="28">
         <v>0</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="28">
         <v>0</v>
       </c>
       <c r="K15" s="3">
@@ -43494,10 +45269,10 @@
       <c r="L15" s="3">
         <v>9048142.3699999992</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="28">
         <v>0</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="28">
         <v>0</v>
       </c>
     </row>
@@ -43570,10 +45345,10 @@
       <c r="H17" s="3">
         <v>426541.32</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="28">
         <v>0</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="28">
         <v>0</v>
       </c>
       <c r="K17" s="3">
@@ -43582,10 +45357,10 @@
       <c r="L17" s="3">
         <v>1712199.61</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="28">
         <v>0</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="28">
         <v>0</v>
       </c>
     </row>
@@ -43658,10 +45433,10 @@
       <c r="H19" s="3">
         <v>63.77</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="28">
         <v>0</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="28">
         <v>0</v>
       </c>
       <c r="K19" s="3">
@@ -43670,10 +45445,10 @@
       <c r="L19" s="3">
         <v>128.13</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="28">
         <v>0</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="28">
         <v>0</v>
       </c>
     </row>
@@ -43746,10 +45521,10 @@
       <c r="H21" s="3">
         <v>79.28</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="28">
         <v>0</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="28">
         <v>0</v>
       </c>
       <c r="K21" s="3">
@@ -43758,10 +45533,10 @@
       <c r="L21" s="3">
         <v>121.51</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="28">
         <v>0</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="28">
         <v>0</v>
       </c>
     </row>
@@ -43834,10 +45609,10 @@
       <c r="H23" s="3">
         <v>14.49</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="28">
         <v>0</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="28">
         <v>0</v>
       </c>
       <c r="K23" s="3">
@@ -43846,10 +45621,10 @@
       <c r="L23" s="3">
         <v>25.54</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="28">
         <v>0</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="28">
         <v>0</v>
       </c>
       <c r="P23">
@@ -43926,10 +45701,10 @@
       <c r="H25" s="3">
         <v>109.28</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="28">
         <v>0</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="28">
         <v>0</v>
       </c>
       <c r="K25" s="3">
@@ -43938,10 +45713,10 @@
       <c r="L25" s="3">
         <v>171.88</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="28">
         <v>0</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="28">
         <v>0</v>
       </c>
       <c r="P25">
@@ -44018,10 +45793,10 @@
       <c r="H27" s="3">
         <v>133.75</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="28">
         <v>0</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="28">
         <v>0</v>
       </c>
       <c r="K27" s="3">
@@ -44030,10 +45805,10 @@
       <c r="L27" s="3">
         <v>246.47</v>
       </c>
-      <c r="M27" s="27">
+      <c r="M27" s="28">
         <v>0</v>
       </c>
-      <c r="N27" s="27">
+      <c r="N27" s="28">
         <v>0</v>
       </c>
       <c r="P27">
@@ -44110,10 +45885,10 @@
       <c r="H29" s="3">
         <v>12.01</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="28">
         <v>0</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="28">
         <v>0</v>
       </c>
       <c r="K29" s="3">
@@ -44122,10 +45897,10 @@
       <c r="L29" s="3">
         <v>20.92</v>
       </c>
-      <c r="M29" s="27">
+      <c r="M29" s="28">
         <v>0</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="28">
         <v>0</v>
       </c>
       <c r="P29">
@@ -44202,10 +45977,10 @@
       <c r="H31" s="3">
         <v>253821.85</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="28">
         <v>0</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="28">
         <v>0</v>
       </c>
       <c r="K31" s="3">
@@ -44214,10 +45989,10 @@
       <c r="L31" s="3">
         <v>896812.92</v>
       </c>
-      <c r="M31" s="27">
+      <c r="M31" s="28">
         <v>0</v>
       </c>
-      <c r="N31" s="27">
+      <c r="N31" s="28">
         <v>0</v>
       </c>
     </row>
@@ -44310,316 +46085,534 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B36" s="3">
-        <f>SUM(B18+B20+B22+B24+B26+B28+B16/10000)</f>
-        <v>11.084910999999998</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" ref="C36:N36" si="0">SUM(C18+C20+C22+C24+C26+C28+C16/10000)</f>
-        <v>26.524213000000003</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="0"/>
-        <v>21.453183000000003</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="0"/>
-        <v>36.842886</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="0"/>
-        <v>44.913508</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="0"/>
-        <v>42.874617000000001</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="0"/>
-        <v>59.769618000000008</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="0"/>
-        <v>52.542810999999993</v>
-      </c>
-      <c r="J36" s="3">
-        <f t="shared" si="0"/>
-        <v>50.420039999999993</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="0"/>
-        <v>114.680859</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="0"/>
-        <v>254.12530000000004</v>
-      </c>
-      <c r="M36" s="3">
-        <f t="shared" si="0"/>
-        <v>335.953214</v>
-      </c>
-      <c r="N36" s="3">
-        <f t="shared" si="0"/>
-        <v>330.07588899999996</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B36" s="39">
+        <f>1/B37</f>
+        <v>58.823432399512789</v>
+      </c>
+      <c r="C36" s="39">
+        <f>1/C37</f>
+        <v>25.578249977490479</v>
+      </c>
+      <c r="D36" s="39">
+        <f>1/D37</f>
+        <v>13.471478502947077</v>
+      </c>
+      <c r="E36" s="39">
+        <f>1/E37</f>
+        <v>4.2076773890011845</v>
+      </c>
+      <c r="F36" s="39">
+        <f>1/F37</f>
+        <v>1.9759969787654343</v>
+      </c>
+      <c r="G36" s="39">
+        <f>1/G37</f>
+        <v>3.7537834335890836</v>
+      </c>
+      <c r="H36" s="39">
+        <f>1/H37</f>
+        <v>5.05966935221951</v>
+      </c>
+      <c r="I36" s="39">
+        <f>1/I37</f>
+        <v>24.461347312971689</v>
+      </c>
+      <c r="J36" s="39">
+        <f>1/J37</f>
+        <v>23.884055548411986</v>
+      </c>
+      <c r="K36" s="39">
+        <f>1/K37</f>
+        <v>8.395546508029776</v>
+      </c>
+      <c r="L36" s="39">
+        <f>1/L37</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="M36" s="39">
+        <f>1/M37</f>
+        <v>1</v>
+      </c>
+      <c r="N36" s="19"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B37" s="39">
-        <f>1/B38</f>
-        <v>30.307254068165278</v>
-      </c>
-      <c r="C37" s="39">
-        <f t="shared" ref="C37:N37" si="1">1/C38</f>
-        <v>12.665906958295048</v>
-      </c>
-      <c r="D37" s="39">
-        <f t="shared" si="1"/>
-        <v>15.659830711368096</v>
-      </c>
-      <c r="E37" s="39">
-        <f t="shared" si="1"/>
-        <v>9.1185368594631822</v>
-      </c>
-      <c r="F37" s="39">
-        <f t="shared" si="1"/>
-        <v>7.4800038776752871</v>
-      </c>
-      <c r="G37" s="39">
-        <f t="shared" si="1"/>
-        <v>7.8357134712130483</v>
-      </c>
-      <c r="H37" s="39">
-        <f t="shared" si="1"/>
-        <v>5.6208024284177283</v>
-      </c>
-      <c r="I37" s="39">
-        <f t="shared" si="1"/>
-        <v>6.3938949516804513</v>
-      </c>
-      <c r="J37" s="39">
-        <f t="shared" si="1"/>
-        <v>6.6630890019127325</v>
-      </c>
-      <c r="K37" s="39">
-        <f t="shared" si="1"/>
-        <v>2.9294619601689589</v>
-      </c>
-      <c r="L37" s="39">
-        <f t="shared" si="1"/>
-        <v>1.321998297690155</v>
-      </c>
-      <c r="M37" s="39">
-        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="B37" s="44">
+        <f>B32/($L$32+$L$32*0.3)</f>
+        <v>1.7000028036587043E-2</v>
+      </c>
+      <c r="C37" s="44">
+        <f>C32/($L$32+$L$32*0.3)</f>
+        <v>3.9095716121315016E-2</v>
+      </c>
+      <c r="D37" s="44">
+        <f>D32/($L$32+$L$32*0.3)</f>
+        <v>7.4230901959368142E-2</v>
+      </c>
+      <c r="E37" s="44">
+        <f>E32/($L$32+$L$32*0.3)</f>
+        <v>0.23766080608128068</v>
+      </c>
+      <c r="F37" s="44">
+        <f>F32/($L$32+$L$32*0.3)</f>
+        <v>0.50607364826275247</v>
+      </c>
+      <c r="G37" s="44">
+        <f>G32/($L$32+$L$32*0.3)</f>
+        <v>0.26639789366960781</v>
+      </c>
+      <c r="H37" s="44">
+        <f>H32/($L$32+$L$32*0.3)</f>
+        <v>0.19764137345483515</v>
+      </c>
+      <c r="I37" s="44">
+        <f>I32/($L$32+$L$32*0.3)</f>
+        <v>4.0880822597605108E-2</v>
+      </c>
+      <c r="J37" s="44">
+        <f>J32/($L$32+$L$32*0.3)</f>
+        <v>4.1868936285675673E-2</v>
+      </c>
+      <c r="K37" s="44">
+        <f>K32/($L$32+$L$32*0.3)</f>
+        <v>0.11911076891106104</v>
+      </c>
+      <c r="L37" s="44">
+        <f>L32/($L$32+$L$32*0.3)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="M37">
         <v>1</v>
       </c>
-      <c r="N37" s="39">
-        <f t="shared" si="1"/>
-        <v>1.0178059809754842</v>
-      </c>
+      <c r="N37" s="44"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B38" s="2">
-        <f>B36/$M$36</f>
+        <f>B37/(B4/$M$4)</f>
+        <v>0.11560019064879189</v>
+      </c>
+      <c r="C38" s="2">
+        <f>C37/(C4/$M$4)</f>
+        <v>0.13494968001266094</v>
+      </c>
+      <c r="D38" s="2">
+        <f>D37/(D4/$M$4)</f>
+        <v>0.33651342221580227</v>
+      </c>
+      <c r="E38" s="2">
+        <f>E37/(E4/$M$4)</f>
+        <v>0.62157441590488793</v>
+      </c>
+      <c r="F38" s="2">
+        <f>F37/(F4/$M$4)</f>
+        <v>1.4338753367444652</v>
+      </c>
+      <c r="G38" s="2">
+        <f>G37/(G4/$M$4)</f>
+        <v>0.58435666998494618</v>
+      </c>
+      <c r="H38" s="2">
+        <f>H37/(H4/$M$4)</f>
+        <v>0.43353591596544483</v>
+      </c>
+      <c r="I38" s="2">
+        <f>I37/(I4/$M$4)</f>
+        <v>0.12065520558320952</v>
+      </c>
+      <c r="J38" s="2">
+        <f>J37/(J4/$M$4)</f>
+        <v>7.1177191685648636E-2</v>
+      </c>
+      <c r="K38" s="2">
+        <f>K37/(K4/$M$4)</f>
+        <v>0.14463450510628842</v>
+      </c>
+      <c r="L38" s="2">
+        <f>L37/(L4/$M$4)</f>
+        <v>1.0059171597633136</v>
+      </c>
+      <c r="M38" s="2">
+        <f>M37/(M4/$M$4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="41">
+        <f>1/B38</f>
+        <v>8.650504764634233</v>
+      </c>
+      <c r="C39" s="41">
+        <f t="shared" ref="C39:M39" si="0">1/C38</f>
+        <v>7.4101694787729784</v>
+      </c>
+      <c r="D39" s="41">
+        <f t="shared" si="0"/>
+        <v>2.9716496697677375</v>
+      </c>
+      <c r="E39" s="41">
+        <f t="shared" si="0"/>
+        <v>1.6088178252063354</v>
+      </c>
+      <c r="F39" s="41">
+        <f t="shared" si="0"/>
+        <v>0.69741069838780045</v>
+      </c>
+      <c r="G39" s="41">
+        <f t="shared" si="0"/>
+        <v>1.7112836241361999</v>
+      </c>
+      <c r="H39" s="41">
+        <f t="shared" si="0"/>
+        <v>2.3066139693941885</v>
+      </c>
+      <c r="I39" s="41">
+        <f t="shared" si="0"/>
+        <v>8.2880800307480538</v>
+      </c>
+      <c r="J39" s="41">
+        <f t="shared" si="0"/>
+        <v>14.049444440242347</v>
+      </c>
+      <c r="K39" s="41">
+        <f t="shared" si="0"/>
+        <v>6.9139794772009902</v>
+      </c>
+      <c r="L39" s="41">
+        <f t="shared" si="0"/>
+        <v>0.99411764705882355</v>
+      </c>
+      <c r="M39" s="41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G40" s="34"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="3">
+        <f>SUM(B18+B20+B22+B24+B26+B28+B16/10000)</f>
+        <v>11.084910999999998</v>
+      </c>
+      <c r="C42" s="3">
+        <f>SUM(C18+C20+C22+C24+C26+C28+C16/10000)</f>
+        <v>26.524213000000003</v>
+      </c>
+      <c r="D42" s="3">
+        <f>SUM(D18+D20+D22+D24+D26+D28+D16/10000)</f>
+        <v>21.453183000000003</v>
+      </c>
+      <c r="E42" s="3">
+        <f>SUM(E18+E20+E22+E24+E26+E28+E16/10000)</f>
+        <v>36.842886</v>
+      </c>
+      <c r="F42" s="3">
+        <f>SUM(F18+F20+F22+F24+F26+F28+F16/10000)</f>
+        <v>44.913508</v>
+      </c>
+      <c r="G42" s="3">
+        <f>SUM(G18+G20+G22+G24+G26+G28+G16/10000)</f>
+        <v>42.874617000000001</v>
+      </c>
+      <c r="H42" s="3">
+        <f>SUM(H18+H20+H22+H24+H26+H28+H16/10000)</f>
+        <v>59.769618000000008</v>
+      </c>
+      <c r="I42" s="3">
+        <f>SUM(I18+I20+I22+I24+I26+I28+I16/10000)</f>
+        <v>52.542810999999993</v>
+      </c>
+      <c r="J42" s="3">
+        <f>SUM(J18+J20+J22+J24+J26+J28+J16/10000)</f>
+        <v>50.420039999999993</v>
+      </c>
+      <c r="K42" s="3">
+        <f>SUM(K18+K20+K22+K24+K26+K28+K16/10000)</f>
+        <v>114.680859</v>
+      </c>
+      <c r="L42" s="3">
+        <f>SUM(L18+L20+L22+L24+L26+L28+L16/10000)</f>
+        <v>254.12530000000004</v>
+      </c>
+      <c r="M42" s="3">
+        <f>SUM(M18+M20+M22+M24+M26+M28+M16/10000)</f>
+        <v>335.953214</v>
+      </c>
+      <c r="N42" s="3">
+        <f>SUM(N18+N20+N22+N24+N26+N28+N16/10000)</f>
+        <v>330.07588899999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="43">
+        <f>1/B44</f>
+        <v>30.307254068165278</v>
+      </c>
+      <c r="C43" s="43">
+        <f t="shared" ref="C43:N43" si="1">1/C44</f>
+        <v>12.665906958295048</v>
+      </c>
+      <c r="D43" s="43">
+        <f t="shared" si="1"/>
+        <v>15.659830711368096</v>
+      </c>
+      <c r="E43" s="43">
+        <f t="shared" si="1"/>
+        <v>9.1185368594631822</v>
+      </c>
+      <c r="F43" s="43">
+        <f t="shared" si="1"/>
+        <v>7.4800038776752871</v>
+      </c>
+      <c r="G43" s="43">
+        <f t="shared" si="1"/>
+        <v>7.8357134712130483</v>
+      </c>
+      <c r="H43" s="43">
+        <f t="shared" si="1"/>
+        <v>5.6208024284177283</v>
+      </c>
+      <c r="I43" s="43">
+        <f t="shared" si="1"/>
+        <v>6.3938949516804513</v>
+      </c>
+      <c r="J43" s="43">
+        <f t="shared" si="1"/>
+        <v>6.6630890019127325</v>
+      </c>
+      <c r="K43" s="43">
+        <f t="shared" si="1"/>
+        <v>2.9294619601689589</v>
+      </c>
+      <c r="L43" s="43">
+        <f t="shared" si="1"/>
+        <v>1.321998297690155</v>
+      </c>
+      <c r="M43" s="43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N43" s="43">
+        <f t="shared" si="1"/>
+        <v>1.0178059809754842</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="2">
+        <f>B42/$M$42</f>
         <v>3.2995400960801641E-2</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" ref="C38:N38" si="2">C36/$M$36</f>
+      <c r="C44" s="2">
+        <f>C42/$M$42</f>
         <v>7.8952103729538967E-2</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D44" s="2">
+        <f>D42/$M$42</f>
+        <v>6.3857650726330012E-2</v>
+      </c>
+      <c r="E44" s="2">
+        <f>E42/$M$42</f>
+        <v>0.10966671686611695</v>
+      </c>
+      <c r="F44" s="2">
+        <f>F42/$M$42</f>
+        <v>0.13368977026664194</v>
+      </c>
+      <c r="G44" s="2">
+        <f>G42/$M$42</f>
+        <v>0.12762079722207986</v>
+      </c>
+      <c r="H44" s="2">
+        <f>H42/$M$42</f>
+        <v>0.17791054084096367</v>
+      </c>
+      <c r="I44" s="2">
+        <f>I42/$M$42</f>
+        <v>0.15639919134692365</v>
+      </c>
+      <c r="J44" s="2">
+        <f>J42/$M$42</f>
+        <v>0.15008054067909585</v>
+      </c>
+      <c r="K44" s="2">
+        <f>K42/$M$42</f>
+        <v>0.3413596126513021</v>
+      </c>
+      <c r="L44" s="2">
+        <f>L42/$M$42</f>
+        <v>0.75643062608116629</v>
+      </c>
+      <c r="M44" s="2">
+        <f>M42/$M$42</f>
+        <v>1</v>
+      </c>
+      <c r="N44" s="2">
+        <f>N42/$M$42</f>
+        <v>0.98250552530805657</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="2">
+        <f>B44/(B4/$M$4)</f>
+        <v>0.22436872653345116</v>
+      </c>
+      <c r="C45" s="2">
+        <f>C44/(C4/$M$4)</f>
+        <v>0.27252502810196189</v>
+      </c>
+      <c r="D45" s="2">
+        <f>D44/(D4/$M$4)</f>
+        <v>0.28948801662602941</v>
+      </c>
+      <c r="E45" s="2">
+        <f>E44/(E4/$M$4)</f>
+        <v>0.28682064411138281</v>
+      </c>
+      <c r="F45" s="2">
+        <f>F44/(F4/$M$4)</f>
+        <v>0.37878768242215216</v>
+      </c>
+      <c r="G45" s="2">
+        <f>G44/(G4/$M$4)</f>
+        <v>0.27994239390649778</v>
+      </c>
+      <c r="H45" s="2">
+        <f>H44/(H4/$M$4)</f>
+        <v>0.39025537990921061</v>
+      </c>
+      <c r="I45" s="2">
+        <f>I44/(I4/$M$4)</f>
+        <v>0.46159483557251774</v>
+      </c>
+      <c r="J45" s="2">
+        <f>J44/(J4/$M$4)</f>
+        <v>0.2551369191544629</v>
+      </c>
+      <c r="K45" s="2">
+        <f>K44/(K4/$M$4)</f>
+        <v>0.41450810107658115</v>
+      </c>
+      <c r="L45" s="2">
+        <f>L44/(L4/$M$4)</f>
+        <v>0.9891785110292175</v>
+      </c>
+      <c r="M45" s="2">
+        <f>M44/(M4/$M$4)</f>
+        <v>1</v>
+      </c>
+      <c r="N45" s="2">
+        <f>N44/(N4/$M$4)</f>
+        <v>1.2372291800175528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="41">
+        <f>1/B45</f>
+        <v>4.456949127671364</v>
+      </c>
+      <c r="C46" s="41">
+        <f t="shared" ref="C46:N46" si="2">1/C45</f>
+        <v>3.6693877511531245</v>
+      </c>
+      <c r="D46" s="41">
         <f t="shared" si="2"/>
-        <v>6.3857650726330012E-2</v>
-      </c>
-      <c r="E38" s="2">
+        <v>3.4543744216253152</v>
+      </c>
+      <c r="E46" s="41">
         <f t="shared" si="2"/>
-        <v>0.10966671686611695</v>
-      </c>
-      <c r="F38" s="2">
+        <v>3.4864993874418047</v>
+      </c>
+      <c r="F46" s="41">
         <f t="shared" si="2"/>
-        <v>0.13368977026664194</v>
-      </c>
-      <c r="G38" s="2">
+        <v>2.6400013685912778</v>
+      </c>
+      <c r="G46" s="41">
         <f t="shared" si="2"/>
-        <v>0.12762079722207986</v>
-      </c>
-      <c r="H38" s="2">
+        <v>3.572163494229478</v>
+      </c>
+      <c r="H46" s="41">
         <f t="shared" si="2"/>
-        <v>0.17791054084096367</v>
-      </c>
-      <c r="I38" s="2">
+        <v>2.5624246364845527</v>
+      </c>
+      <c r="I46" s="41">
         <f t="shared" si="2"/>
-        <v>0.15639919134692365</v>
-      </c>
-      <c r="J38" s="2">
+        <v>2.1664020542164351</v>
+      </c>
+      <c r="J46" s="41">
         <f t="shared" si="2"/>
-        <v>0.15008054067909585</v>
-      </c>
-      <c r="K38" s="2">
+        <v>3.9194641187721961</v>
+      </c>
+      <c r="K46" s="41">
         <f t="shared" si="2"/>
-        <v>0.3413596126513021</v>
-      </c>
-      <c r="L38" s="2">
+        <v>2.412498084845025</v>
+      </c>
+      <c r="L46" s="41">
         <f t="shared" si="2"/>
-        <v>0.75643062608116629</v>
-      </c>
-      <c r="M38" s="2">
+        <v>1.0109398747042362</v>
+      </c>
+      <c r="M46" s="41">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N46" s="41">
         <f t="shared" si="2"/>
-        <v>0.98250552530805657</v>
+        <v>0.80825769077464926</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" s="2">
-        <f>B38/(B4/$M$4)</f>
-        <v>0.22436872653345116</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" ref="C39:N39" si="3">C38/(C4/$M$4)</f>
-        <v>0.27252502810196189</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.28948801662602941</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.28682064411138281</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.37878768242215216</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.27994239390649778</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.39025537990921061</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.46159483557251774</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.2551369191544629</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.41450810107658115</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="3"/>
-        <v>0.9891785110292175</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="3"/>
-        <v>1.2372291800175528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" s="38">
-        <f>1/B39</f>
-        <v>4.456949127671364</v>
-      </c>
-      <c r="C40" s="38">
-        <f t="shared" ref="C40:N40" si="4">1/C39</f>
-        <v>3.6693877511531245</v>
-      </c>
-      <c r="D40" s="38">
-        <f t="shared" si="4"/>
-        <v>3.4543744216253152</v>
-      </c>
-      <c r="E40" s="38">
-        <f t="shared" si="4"/>
-        <v>3.4864993874418047</v>
-      </c>
-      <c r="F40" s="38">
-        <f t="shared" si="4"/>
-        <v>2.6400013685912778</v>
-      </c>
-      <c r="G40" s="38">
-        <f t="shared" si="4"/>
-        <v>3.572163494229478</v>
-      </c>
-      <c r="H40" s="38">
-        <f t="shared" si="4"/>
-        <v>2.5624246364845527</v>
-      </c>
-      <c r="I40" s="38">
-        <f t="shared" si="4"/>
-        <v>2.1664020542164351</v>
-      </c>
-      <c r="J40" s="38">
-        <f t="shared" si="4"/>
-        <v>3.9194641187721961</v>
-      </c>
-      <c r="K40" s="38">
-        <f t="shared" si="4"/>
-        <v>2.412498084845025</v>
-      </c>
-      <c r="L40" s="38">
-        <f t="shared" si="4"/>
-        <v>1.0109398747042362</v>
-      </c>
-      <c r="M40" s="38">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="N40" s="38">
-        <f t="shared" si="4"/>
-        <v>0.80825769077464926</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F41" s="32">
-        <f>(E37/F37)-1</f>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F47" s="33">
+        <f>(E43/F43)-1</f>
         <v>0.21905509790953959</v>
       </c>
-      <c r="G41" s="33"/>
-      <c r="H41" s="32">
-        <f>(G37/H37)-1</f>
+      <c r="H47" s="33">
+        <f>(G43/H43)-1</f>
         <v>0.39405602153833819</v>
       </c>
     </row>
@@ -44630,7 +46623,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I8:J8 L8:N8">
-    <cfRule type="colorScale" priority="330">
+    <cfRule type="colorScale" priority="334">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44642,6 +46635,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:N8">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:H9 K9:L9">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:J10 L10:N10">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:N10">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -44653,7 +46694,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
+  <conditionalFormatting sqref="L11">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -44665,7 +46706,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:H9 K9:L9">
+  <conditionalFormatting sqref="B11:H11 K11:L11">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -44677,7 +46718,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:J10 L10:N10">
+  <conditionalFormatting sqref="I12:J12 L12:N12">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -44689,7 +46730,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:N10">
+  <conditionalFormatting sqref="B12:N12">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -44701,7 +46742,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
+  <conditionalFormatting sqref="L13">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -44713,7 +46754,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:H11 K11:L11">
+  <conditionalFormatting sqref="B13:H13 K13:L13">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -44725,7 +46766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:J12 L12:N12">
+  <conditionalFormatting sqref="I14:J14 L14:N14">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -44737,7 +46778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:N12">
+  <conditionalFormatting sqref="B14:N14">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -44749,7 +46790,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13">
+  <conditionalFormatting sqref="L15">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -44761,7 +46802,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:H13 K13:L13">
+  <conditionalFormatting sqref="B15:H15 K15:L15">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -44773,7 +46814,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:J14 L14:N14">
+  <conditionalFormatting sqref="I16:J16 L16:N16">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -44785,7 +46826,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:N14">
+  <conditionalFormatting sqref="B16:N16">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -44797,7 +46838,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
+  <conditionalFormatting sqref="L17">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -44809,7 +46850,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:H15 K15:L15">
+  <conditionalFormatting sqref="B17:H17 K17:L17">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -44821,7 +46862,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:J16 L16:N16">
+  <conditionalFormatting sqref="I18:J18 L18:N18">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -44833,7 +46874,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:N16">
+  <conditionalFormatting sqref="B18:N18">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -44845,7 +46886,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="L19">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -44857,7 +46898,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:H17 K17:L17">
+  <conditionalFormatting sqref="B19:H19 K19:L19">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -44869,7 +46910,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:J18 L18:N18">
+  <conditionalFormatting sqref="I20:J20 L20:N20">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -44881,7 +46922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:N18">
+  <conditionalFormatting sqref="B20:N20">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -44893,7 +46934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
+  <conditionalFormatting sqref="L21">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -44905,7 +46946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:H19 K19:L19">
+  <conditionalFormatting sqref="B21:H21 K21:L21">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -44917,7 +46958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:J20 L20:N20">
+  <conditionalFormatting sqref="I22:J22 L22:N22">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -44929,7 +46970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:N20">
+  <conditionalFormatting sqref="B22:N22">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -44941,7 +46982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="L23">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -44953,7 +46994,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:H21 K21:L21">
+  <conditionalFormatting sqref="B23:H23 K23:L23">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -44965,7 +47006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:J22 L22:N22">
+  <conditionalFormatting sqref="I24:J24 L24:N24">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -44977,7 +47018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:N22">
+  <conditionalFormatting sqref="B24:N24">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -44989,7 +47030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
+  <conditionalFormatting sqref="L25">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -45001,7 +47042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:H23 K23:L23">
+  <conditionalFormatting sqref="B25:H25 K25:L25">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -45013,7 +47054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24:J24 L24:N24">
+  <conditionalFormatting sqref="I26:J26 L26:N26">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -45025,7 +47066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:N24">
+  <conditionalFormatting sqref="B26:N26">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -45037,7 +47078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
+  <conditionalFormatting sqref="L27">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -45049,7 +47090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:H25 K25:L25">
+  <conditionalFormatting sqref="B27:H27 K27:L27">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -45061,7 +47102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:J26 L26:N26">
+  <conditionalFormatting sqref="I28:J28 L28:N28">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -45073,7 +47114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:N26">
+  <conditionalFormatting sqref="B28:N28">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -45085,7 +47126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
+  <conditionalFormatting sqref="L29">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -45097,7 +47138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:H27 K27:L27">
+  <conditionalFormatting sqref="B29:H29 K29:L29">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -45109,7 +47150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28:J28 L28:N28">
+  <conditionalFormatting sqref="I30:J30 L30:N30">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -45121,7 +47162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:N28">
+  <conditionalFormatting sqref="B30:N30">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -45133,7 +47174,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="L31">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -45145,7 +47186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:H29 K29:L29">
+  <conditionalFormatting sqref="B31:H31 K31:L31">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -45157,7 +47198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:J30 L30:N30">
+  <conditionalFormatting sqref="I32:J32 L32:N32">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -45169,7 +47210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30:N30">
+  <conditionalFormatting sqref="B32:N32">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -45181,31 +47222,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="4RedToBlack">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:H31 K31:L31">
+  <conditionalFormatting sqref="B43:N43">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:J32 L32:N32">
+  <conditionalFormatting sqref="B44:N44">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -45217,7 +47256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:N32">
+  <conditionalFormatting sqref="B45:N45">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -45229,17 +47268,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="iconSet" priority="6">
-      <iconSet iconSet="4RedToBlack">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="25"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="75"/>
-      </iconSet>
+  <conditionalFormatting sqref="B42:N42">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:N37">
+  <conditionalFormatting sqref="B46:N46">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -45251,31 +47292,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:N38">
+  <conditionalFormatting sqref="B36:M36">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:N39">
+  <conditionalFormatting sqref="B39:M39">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:N36">
+  <conditionalFormatting sqref="B37:M37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -45287,15 +47328,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40:N40">
+  <conditionalFormatting sqref="B38:M38">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -46733,10 +48774,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6943B46B-7DC1-42AB-B08E-6206B3D08DF1}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46766,24 +48807,24 @@
     <col min="23" max="23" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -46848,13 +48889,13 @@
       <c r="E3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>138</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="32" t="s">
         <v>138</v>
       </c>
       <c r="I3" s="14" t="s">
@@ -46951,25 +48992,25 @@
       <c r="H5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="26" t="s">
         <v>96</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="26" t="s">
         <v>186</v>
       </c>
     </row>
@@ -46998,25 +49039,25 @@
       <c r="H6" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="26" t="s">
         <v>57</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="26" t="s">
         <v>56</v>
       </c>
     </row>
@@ -47036,7 +49077,7 @@
       <c r="E7" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="30" t="s">
         <v>158</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -47045,7 +49086,7 @@
       <c r="H7" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="23">
         <v>1</v>
       </c>
       <c r="J7" s="14" t="s">
@@ -47071,46 +49112,46 @@
       <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="25">
         <v>1042200</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="25">
         <v>0</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="25">
         <v>911016</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="25">
         <v>819832</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="25">
         <v>1043720</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="25">
         <v>819352</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="25">
         <v>1042848</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="25">
         <v>600536</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="25">
         <v>820040</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="25">
         <v>910328</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="25">
         <v>762584</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="25">
         <v>922704</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="25">
         <v>999032</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="25">
         <v>822640</v>
       </c>
     </row>
@@ -47118,46 +49159,46 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="24">
         <v>142719.59</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="24">
         <v>319560.17</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="24">
         <v>383991.32</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="24">
         <v>617263.05000000005</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="24">
         <v>384343.89</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="24">
         <v>749256.74</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="24">
         <v>465076.93</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="24">
         <v>178783.97</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="24">
         <v>450323.43</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="24">
         <v>729296.64</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="24">
         <v>1137386.1200000001</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="24">
         <v>2173444.16</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="24">
         <v>2267184.86</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O9" s="24">
         <v>2179780.4300000002</v>
       </c>
     </row>
@@ -47165,46 +49206,46 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="24">
         <v>36318.5</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="24">
         <v>89813.61</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="24">
         <v>181949.77</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="24">
         <v>286350.25</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="24">
         <v>114181.32</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="24">
         <v>324610.74</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="24">
         <v>134177.15</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="24">
         <v>50534.36</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="24">
         <v>221437.45</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="24">
         <v>256723.48</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="24">
         <v>509040.06</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="24">
         <v>1302354.33</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="24">
         <v>860180.42</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O10" s="24">
         <v>1361139.41</v>
       </c>
     </row>
@@ -47212,46 +49253,46 @@
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="24">
         <v>303213.7</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="24">
         <v>634800.4</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="24">
         <v>1149620.29</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="24">
         <v>1659325.34</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="24">
         <v>726704.27</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="24">
         <v>1931974.93</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="24">
         <v>876784.95</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="24">
         <v>396104.81</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="24">
         <v>1575234.52</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="24">
         <v>2631036.85</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="24">
         <v>5817901.3700000001</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="24">
         <v>15927623.800000001</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="24">
         <v>6820440.5199999996</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O11" s="24">
         <v>10520494.07</v>
       </c>
     </row>
@@ -47259,46 +49300,46 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="24">
         <v>420612.72</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="24">
         <v>767508.47</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="24">
         <v>1041343.04</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="24">
         <v>1817852.75</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="24">
         <v>716329.48</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="24">
         <v>2154097.36</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="24">
         <v>882191.14</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="24">
         <v>620425.44999999995</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="24">
         <v>1553030.63</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="24">
         <v>2216811.6</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="24">
         <v>3621300.15</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="24">
         <v>10571385.98</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="24">
         <v>6119118.1799999997</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="24">
         <v>6566458.7699999996</v>
       </c>
     </row>
@@ -47306,46 +49347,46 @@
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="24">
         <v>18702.54</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="24">
         <v>44317.84</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="24">
         <v>88912.44</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="24">
         <v>148213.59</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="24">
         <v>52147.26</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="24">
         <v>145364.68</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="24">
         <v>61546.62</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="24">
         <v>25724.06</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="24">
         <v>110947.27</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="24">
         <v>158212.78</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="24">
         <v>184990.53</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="24">
         <v>500103.5</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="24">
         <v>230714.99</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="24">
         <v>181838.74</v>
       </c>
     </row>
@@ -47353,46 +49394,46 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="24">
         <v>6.45</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="24">
         <v>10.74</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="24">
         <v>19.309999999999999</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="24">
         <v>30.7</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="24">
         <v>11.34</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="24">
         <v>35.72</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="24">
         <v>14.01</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="24">
         <v>4.71</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="24">
         <v>37.4</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="24">
         <v>52.69</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="24">
         <v>62.38</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="24">
         <v>243.83</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="24">
         <v>79.959999999999994</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="24">
         <v>230.96</v>
       </c>
     </row>
@@ -47400,46 +49441,46 @@
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="24">
         <v>4.32</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="24">
         <v>7.31</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="24">
         <v>12.14</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="24">
         <v>20.91</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="24">
         <v>8.1300000000000008</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="24">
         <v>24.12</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="24">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="24">
         <v>3.28</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="24">
         <v>18.559999999999999</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="24">
         <v>25.61</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="24">
         <v>25.14</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="24">
         <v>113.67</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="24">
         <v>24.96</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="24">
         <v>134.79</v>
       </c>
     </row>
@@ -47447,46 +49488,46 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="24">
         <v>0.82</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="24">
         <v>1.61</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="24">
         <v>2.59</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="24">
         <v>3.93</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="24">
         <v>1.54</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="24">
         <v>4.62</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="24">
         <v>1.97</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="24">
         <v>1.3</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="24">
         <v>3.76</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="24">
         <v>6.13</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="24">
         <v>13.09</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="24">
         <v>29.56</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N16" s="24">
         <v>14.58</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="24">
         <v>19.829999999999998</v>
       </c>
     </row>
@@ -47494,46 +49535,46 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="24">
         <v>3.63</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="24">
         <v>9.26</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="24">
         <v>19.16</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="24">
         <v>29.23</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="24">
         <v>7.2</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="24">
         <v>34.200000000000003</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="24">
         <v>8.91</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="24">
         <v>4.99</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="24">
         <v>21.82</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="24">
         <v>30.46</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="24">
         <v>58.27</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="24">
         <v>148.27000000000001</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="24">
         <v>73.87</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="24">
         <v>98.99</v>
       </c>
     </row>
@@ -47541,46 +49582,46 @@
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="24">
         <v>5.97</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="24">
         <v>12.48</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="24">
         <v>19.98</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="24">
         <v>33.92</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="24">
         <v>11.46</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="24">
         <v>40</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="24">
         <v>14.29</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="24">
         <v>8.31</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="24">
         <v>29.98</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="24">
         <v>40.46</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="24">
         <v>97.93</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="24">
         <v>197.07</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="24">
         <v>108.57</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="24">
         <v>157.55000000000001</v>
       </c>
     </row>
@@ -47588,46 +49629,46 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="24">
         <v>0.86</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="24">
         <v>1.08</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="24">
         <v>2.29</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="24">
         <v>3.26</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="24">
         <v>1.41</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="24">
         <v>3.76</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="24">
         <v>1.78</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="24">
         <v>1.23</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="24">
         <v>3.73</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="24">
         <v>5.78</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="24">
         <v>13.84</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="24">
         <v>33.22</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="24">
         <v>13.97</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="24">
         <v>21.76</v>
       </c>
     </row>
@@ -47635,46 +49676,46 @@
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="24">
         <v>34283.550000000003</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="24">
         <v>59558.080000000002</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="24">
         <v>116083.42</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="24">
         <v>183900.25</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="24">
         <v>67243.25</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="24">
         <v>208151.41</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="24">
         <v>77501.570000000007</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="24">
         <v>38454.620000000003</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="24">
         <v>132814.13</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="24">
         <v>164294.12</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="24">
         <v>253137.6</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="24">
         <v>484949.78</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="24">
         <v>579292.15</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="24">
         <v>682330.72</v>
       </c>
     </row>
@@ -47682,46 +49723,46 @@
       <c r="A21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="24">
         <v>611.84</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="24">
         <v>1209.27</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="24">
         <v>2363.35</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="24">
         <v>3812.85</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="24">
         <v>1374.27</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="24">
         <v>4105.3599999999997</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="24">
         <v>1609.16</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="24">
         <v>747.45</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="24">
         <v>2859.81</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="24">
         <v>3809.13</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="24">
         <v>5477.32</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="24">
         <v>12720.96</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="24">
         <v>9547.0300000000007</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="24">
         <v>11028.5</v>
       </c>
     </row>
@@ -47729,46 +49770,46 @@
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="24">
         <v>9801959</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="24">
         <v>1779432.31</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="24">
         <v>3494809</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="24">
         <v>2423102</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="24">
         <v>5576106</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="24">
         <v>2115720</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="24">
         <v>4493153</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="24">
         <v>6927020</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="24">
         <v>2290488</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="24">
         <v>1566910</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="24">
         <v>807552</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="24">
         <v>421390</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N22" s="24">
         <v>732254</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="24">
         <v>476142</v>
       </c>
     </row>
@@ -47776,59 +49817,59 @@
       <c r="A24" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="41">
         <f>1/B25</f>
         <v>15.603801647489538</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="41">
         <f t="shared" ref="C24:O24" si="0">1/C25</f>
         <v>7.8948704590372714</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="41">
         <f t="shared" si="0"/>
         <v>4.6664692068462141</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="41">
         <f t="shared" si="0"/>
         <v>2.8924557745518444</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="41">
         <f t="shared" si="0"/>
         <v>6.9469827617571518</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="41">
         <f t="shared" si="0"/>
         <v>2.6863661164916111</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="41">
         <f t="shared" si="0"/>
         <v>5.9329277386959651</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="41">
         <f t="shared" si="0"/>
         <v>12.772800856244565</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="41">
         <f t="shared" si="0"/>
         <v>3.8563750738685441</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="41">
         <f t="shared" si="0"/>
         <v>2.8952805496268175</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="41">
         <f t="shared" si="0"/>
         <v>2.0134846968955622</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="41">
         <f t="shared" si="0"/>
         <v>0.86695500968480366</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="41">
         <f t="shared" si="0"/>
         <v>1.1551760076170285</v>
       </c>
-      <c r="O24" s="38">
+      <c r="O24" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -47874,7 +49915,7 @@
         <v>0.12666452289350719</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="C25:O25" si="1">D21/$O$21</f>
+        <f t="shared" ref="D25:O25" si="1">D21/$O$21</f>
         <v>0.21429478170195401</v>
       </c>
       <c r="E25" s="2">
@@ -47985,63 +50026,573 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="38">
+        <v>211</v>
+      </c>
+      <c r="B27" s="41">
         <f>1/B26</f>
         <v>2.2946767128661087</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="41">
         <f t="shared" ref="C27:O27" si="3">1/C26</f>
         <v>2.2871904123975626</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="41">
         <f t="shared" si="3"/>
         <v>1.0293682073925472</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="41">
         <f t="shared" si="3"/>
         <v>1.105938972622764</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="41">
         <f t="shared" si="3"/>
         <v>2.4518762688554654</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="41">
         <f t="shared" si="3"/>
         <v>1.2246669060476463</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="41">
         <f t="shared" si="3"/>
         <v>2.7047170573466901</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="41">
         <f t="shared" si="3"/>
         <v>3.756706134189578</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="41">
         <f t="shared" si="3"/>
         <v>1.3066306132636949</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="41">
         <f t="shared" si="3"/>
         <v>1.7031062056628339</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="41">
         <f t="shared" si="3"/>
         <v>1.6581638680316393</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="41">
         <f t="shared" si="3"/>
         <v>0.6629655956413204</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="41">
         <f t="shared" si="3"/>
         <v>1.1551760076170285</v>
       </c>
-      <c r="O27" s="38">
+      <c r="O27" s="41">
         <f t="shared" si="3"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <f>B9/$N9</f>
+        <v>6.2950133673704931E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <f>C9/$N9</f>
+        <v>0.14095020465159599</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:D40" si="4">D9/$O9</f>
+        <v>0.17616055026239499</v>
+      </c>
+      <c r="E29" s="2">
+        <f>E9/$O9</f>
+        <v>0.28317670968355285</v>
+      </c>
+      <c r="F29" s="2">
+        <f>F9/$N9</f>
+        <v>0.16952472503719879</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" ref="G29" si="5">G9/$O9</f>
+        <v>0.34373037287980418</v>
+      </c>
+      <c r="H29" s="2">
+        <f>H9/$N9</f>
+        <v>0.20513410185704928</v>
+      </c>
+      <c r="I29" s="2">
+        <f>I9/$N9</f>
+        <v>7.8857252954662033E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <f t="shared" ref="B30:C40" si="6">B10/$N10</f>
+        <v>4.2221956179844221E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10441252545599677</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="4"/>
+        <v>0.13367460280942126</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:G40" si="7">E10/$O10</f>
+        <v>0.21037540159093623</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" ref="F30:F40" si="8">F10/$N10</f>
+        <v>0.13274112889014608</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="7"/>
+        <v>0.2384845649278497</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" ref="H30:I30" si="9">H10/$N10</f>
+        <v>0.15598721719334183</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="9"/>
+        <v>5.8748558819788063E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <f t="shared" si="6"/>
+        <v>4.4456615245139622E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="6"/>
+        <v>9.3073225715924884E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10927436319537795</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15772313818717831</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10654799611096089</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18363918245143784</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" ref="H31:I31" si="10">H11/$N11</f>
+        <v>0.12855253959461257</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="10"/>
+        <v>5.8076132888847484E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <f t="shared" si="6"/>
+        <v>6.8737472888618076E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12542795341141785</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="4"/>
+        <v>0.15858517908580427</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="7"/>
+        <v>0.27683913257860904</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1170641682230102</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="7"/>
+        <v>0.32804551668570059</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" ref="H32:I32" si="11">H12/$N12</f>
+        <v>0.14416965223574094</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="11"/>
+        <v>0.1013913168122535</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <f t="shared" si="6"/>
+        <v>8.1063393410198456E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="6"/>
+        <v>0.19208912260100655</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="4"/>
+        <v>0.4889631329385587</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="7"/>
+        <v>0.81508258361227093</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="8"/>
+        <v>0.22602458557200814</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="7"/>
+        <v>0.79941535010636344</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" ref="H33:I33" si="12">H13/$N13</f>
+        <v>0.2667647212693029</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="12"/>
+        <v>0.11149713332454039</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <f t="shared" si="6"/>
+        <v>8.0665332666333175E-2</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13431715857928966</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="4"/>
+        <v>8.360755109109802E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="7"/>
+        <v>0.13292344994804295</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="8"/>
+        <v>0.14182091045522763</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15465881537928644</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" ref="H34:I34" si="13">H14/$N14</f>
+        <v>0.17521260630315158</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="13"/>
+        <v>5.8904452226113062E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <f t="shared" si="6"/>
+        <v>0.17307692307692307</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="6"/>
+        <v>0.2928685897435897</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="4"/>
+        <v>9.0066028637139264E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15513020253728022</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="8"/>
+        <v>0.32572115384615385</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="7"/>
+        <v>0.17894502559537059</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" ref="H35:I35" si="14">H15/$N15</f>
+        <v>0.37259615384615385</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="14"/>
+        <v>0.13141025641025639</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <f t="shared" si="6"/>
+        <v>5.6241426611796978E-2</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11042524005486969</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="4"/>
+        <v>0.13061018658598084</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.19818456883509836</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="8"/>
+        <v>0.1056241426611797</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23298033282904693</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" ref="H36:I36" si="15">H16/$N16</f>
+        <v>0.13511659807956103</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="15"/>
+        <v>8.9163237311385465E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <f t="shared" si="6"/>
+        <v>4.9140381751725998E-2</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12535535400027073</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1935549045358117</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="7"/>
+        <v>0.29528235175270229</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="8"/>
+        <v>9.746852578854745E-2</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="7"/>
+        <v>0.34548944337811904</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" ref="H37:I37" si="16">H17/$N17</f>
+        <v>0.12061730066332746</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="16"/>
+        <v>6.755110328956275E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <f t="shared" si="6"/>
+        <v>5.4987565625863502E-2</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11494888090632772</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="4"/>
+        <v>0.12681688352903839</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="7"/>
+        <v>0.21529673119644557</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10555402044763748</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="7"/>
+        <v>0.25388765471278957</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" ref="H38:I38" si="17">H18/$N18</f>
+        <v>0.13162015289674864</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="17"/>
+        <v>7.6540480795799948E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <f t="shared" si="6"/>
+        <v>6.1560486757337149E-2</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="6"/>
+        <v>7.7308518253400141E-2</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10523897058823529</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1498161764705882</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="8"/>
+        <v>0.10093056549749461</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="7"/>
+        <v>0.17279411764705879</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" ref="H39:I39" si="18">H19/$N19</f>
+        <v>0.12741589119541874</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="18"/>
+        <v>8.8045812455261274E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <f t="shared" si="6"/>
+        <v>5.918179626635714E-2</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1028118195628924</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="4"/>
+        <v>0.1701277937478764</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26951776405435768</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.11607830349504994</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.30505941459003927</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" ref="H40:I40" si="19">H20/$N20</f>
+        <v>0.13378667396062591</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="19"/>
+        <v>6.6382083720623528E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <f t="shared" ref="B41:D41" si="20">MEDIAN(B29:B40)</f>
+        <v>6.0371141511847144E-2</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="20"/>
+        <v>0.12015211745329923</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="20"/>
+        <v>0.13214239469770106</v>
+      </c>
+      <c r="E41" s="2">
+        <f>MEDIAN(E29:E40)</f>
+        <v>0.2128360663936909</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" ref="F41:G41" si="21">MEDIAN(F29:F40)</f>
+        <v>0.11657123585903006</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="21"/>
+        <v>0.24618610982031963</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" ref="H41:I41" si="22">H21/$N21</f>
+        <v>0.16855084775055698</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="22"/>
+        <v>7.82913639110802E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="19">
+        <f>1/B41</f>
+        <v>16.564205594882804</v>
+      </c>
+      <c r="C42" s="19">
+        <f t="shared" ref="C42:E42" si="23">1/C41</f>
+        <v>8.3227829953864969</v>
+      </c>
+      <c r="D42" s="19">
+        <f t="shared" si="23"/>
+        <v>7.567594051005929</v>
+      </c>
+      <c r="E42" s="19">
+        <f t="shared" si="23"/>
+        <v>4.6984518035127669</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" ref="F42" si="24">1/F41</f>
+        <v>8.5784455541785878</v>
+      </c>
+      <c r="G42" s="19">
+        <f t="shared" ref="G42" si="25">1/G41</f>
+        <v>4.0619675932564023</v>
+      </c>
+      <c r="H42" s="19">
+        <f t="shared" ref="H42" si="26">1/H41</f>
+        <v>5.9329277386959651</v>
+      </c>
+      <c r="I42" s="19">
+        <f t="shared" ref="I42" si="27">1/I41</f>
+        <v>12.772800856244565</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
+        <f>B42/($N$4/B4)</f>
+        <v>2.4359125874827652</v>
+      </c>
+      <c r="C43" s="19">
+        <f t="shared" ref="C43:G43" si="28">C42/($N$4/C4)</f>
+        <v>2.4111591913104999</v>
+      </c>
+      <c r="D43" s="19">
+        <f t="shared" si="28"/>
+        <v>1.6693222171336608</v>
+      </c>
+      <c r="E43" s="19">
+        <f t="shared" si="28"/>
+        <v>1.7964668660489991</v>
+      </c>
+      <c r="F43" s="19">
+        <f t="shared" si="28"/>
+        <v>3.0276866661806778</v>
+      </c>
+      <c r="G43" s="19">
+        <f t="shared" si="28"/>
+        <v>1.8517793439845365</v>
+      </c>
+      <c r="H43" s="19">
+        <f t="shared" ref="H43" si="29">H42/($N$4/H4)</f>
+        <v>2.7047170573466901</v>
+      </c>
+      <c r="I43" s="19">
+        <f t="shared" ref="I43" si="30">I42/($N$4/I4)</f>
+        <v>3.756706134189578</v>
       </c>
     </row>
   </sheetData>
@@ -49438,10 +51989,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7F5CF6-E63F-4682-BAFF-47523FCC96FD}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49462,25 +52013,25 @@
     <col min="16" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -49548,13 +52099,13 @@
       <c r="E3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="32" t="s">
         <v>177</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="32" t="s">
         <v>177</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -50486,63 +53037,63 @@
       <c r="A23" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="41">
         <f>1/B24</f>
         <v>16.146151321188249</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="41">
         <f t="shared" ref="C23:P23" si="0">1/C24</f>
         <v>6.0857072159846579</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="41">
         <f t="shared" si="0"/>
         <v>9.8297404641171031</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="41">
         <f t="shared" si="0"/>
         <v>5.9970434941631874</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="41">
         <f t="shared" si="0"/>
         <v>5.8775540685864502</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="41">
         <f t="shared" si="0"/>
         <v>4.8435472952181673</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="41">
         <f t="shared" si="0"/>
         <v>4.5499260012949767</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="41">
         <f t="shared" si="0"/>
         <v>8.8773235878000349</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="41">
         <f t="shared" si="0"/>
         <v>10.516422138485796</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="41">
         <f t="shared" si="0"/>
         <v>5.6978990197356039</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="41">
         <f t="shared" si="0"/>
         <v>4.1020097569111451</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="41">
         <f t="shared" si="0"/>
         <v>3.6829327643006882</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="41">
         <f t="shared" si="0"/>
         <v>1.5449067003772812</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="41">
         <f t="shared" si="0"/>
         <v>2.2142109586882883</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="41">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -50674,6 +53225,71 @@
       </c>
       <c r="P25" s="2">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="41">
+        <f>1/B25</f>
+        <v>2.3744340178218013</v>
+      </c>
+      <c r="C26" s="41">
+        <f t="shared" ref="C26:P26" si="3">1/C25</f>
+        <v>1.7630651787484966</v>
+      </c>
+      <c r="D26" s="41">
+        <f t="shared" si="3"/>
+        <v>2.1683251023787729</v>
+      </c>
+      <c r="E26" s="41">
+        <f t="shared" si="3"/>
+        <v>2.292987218356513</v>
+      </c>
+      <c r="F26" s="41">
+        <f t="shared" si="3"/>
+        <v>2.074430847736394</v>
+      </c>
+      <c r="G26" s="41">
+        <f t="shared" si="3"/>
+        <v>2.2080877375259291</v>
+      </c>
+      <c r="H26" s="41">
+        <f t="shared" si="3"/>
+        <v>2.0742309711785922</v>
+      </c>
+      <c r="I26" s="41">
+        <f t="shared" si="3"/>
+        <v>2.6109775258235404</v>
+      </c>
+      <c r="J26" s="41">
+        <f t="shared" si="3"/>
+        <v>3.7116784018185167</v>
+      </c>
+      <c r="K26" s="41">
+        <f t="shared" si="3"/>
+        <v>1.9305822560986514</v>
+      </c>
+      <c r="L26" s="41">
+        <f t="shared" si="3"/>
+        <v>2.4129469158300854</v>
+      </c>
+      <c r="M26" s="41">
+        <f t="shared" si="3"/>
+        <v>3.0330034529535079</v>
+      </c>
+      <c r="N26" s="41">
+        <f t="shared" si="3"/>
+        <v>1.1813992414649797</v>
+      </c>
+      <c r="O26" s="41">
+        <f t="shared" si="3"/>
+        <v>1.3890917573182702</v>
+      </c>
+      <c r="P26" s="41">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -50682,6 +53298,18 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:P8">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:P9">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -50693,7 +53321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:P9">
+  <conditionalFormatting sqref="B10:P10">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -50705,7 +53333,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:P10">
+  <conditionalFormatting sqref="B11:P11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -50717,7 +53345,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:P11">
+  <conditionalFormatting sqref="B12:P12">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -50729,7 +53357,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12:P12">
+  <conditionalFormatting sqref="B13:P13">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -50741,7 +53369,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:P13">
+  <conditionalFormatting sqref="B14:P14">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -50753,7 +53381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:P14">
+  <conditionalFormatting sqref="B15:P15">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -50765,7 +53393,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:P15">
+  <conditionalFormatting sqref="B16:P16">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -50777,7 +53405,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:P16">
+  <conditionalFormatting sqref="B17:P17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -50789,7 +53417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:P17">
+  <conditionalFormatting sqref="B18:P18">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -50801,7 +53429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:P18">
+  <conditionalFormatting sqref="B19:P19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -50813,7 +53441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:P19">
+  <conditionalFormatting sqref="B20:P20">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -50825,20 +53453,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:P20">
+  <conditionalFormatting sqref="B23:P23">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:P23">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50850,6 +53466,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:P24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:P25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -50861,15 +53489,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:P25">
+  <conditionalFormatting sqref="B26:P26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
